--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="863">
   <si>
     <t>id</t>
   </si>
@@ -1213,6 +1213,42 @@
     <t>BAG</t>
   </si>
   <si>
+    <t>axon-bag</t>
+  </si>
+  <si>
+    <t>Axon terminal (kblad)</t>
+  </si>
+  <si>
+    <t>SAO:280355188</t>
+  </si>
+  <si>
+    <t>BAG-</t>
+  </si>
+  <si>
+    <t>axon-tube</t>
+  </si>
+  <si>
+    <t>Axon segment (kblad)</t>
+  </si>
+  <si>
+    <t>TUBE</t>
+  </si>
+  <si>
+    <t>dend-bag</t>
+  </si>
+  <si>
+    <t>Dendrite terminal (kblad)</t>
+  </si>
+  <si>
+    <t>SAO:420754792</t>
+  </si>
+  <si>
+    <t>dend-tube</t>
+  </si>
+  <si>
+    <t>Dendrite segment (kblad)</t>
+  </si>
+  <si>
     <t>Soma of SPR in T1-Neuron 1(bromo)</t>
   </si>
   <si>
@@ -2155,7 +2191,7 @@
     <t>T13-1 SPRG axon chain_Neuron 1 (bromo)</t>
   </si>
   <si>
-    <t>B13, B13, B44, B97, B83, n-splan</t>
+    <t>B13, B13, B44, B97, B84, n-splan</t>
   </si>
   <si>
     <t>dc-snl1_1</t>
@@ -2380,7 +2416,7 @@
     <t>Neuron 2</t>
   </si>
   <si>
-    <t>DOI:10.1016/B978-0-444-53491-0.09985-5</t>
+    <t>doi:10.1016/B978-0-444-53491-0.09985-5</t>
   </si>
   <si>
     <t>Neuron 3</t>
@@ -2404,16 +2440,34 @@
     <t>PMID:2384334</t>
   </si>
   <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/2384334</t>
+  </si>
+  <si>
     <t>PMID:8300416</t>
   </si>
   <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/8300416</t>
+  </si>
+  <si>
     <t>PMID:3198482</t>
   </si>
   <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/3198482</t>
+  </si>
+  <si>
     <t xml:space="preserve">PMID:18579364 </t>
   </si>
   <si>
-    <t>DOI:10.1016/j.mpaic.2008.08.005</t>
+    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18579364 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/B978-0-444-53491-0.09985-5</t>
+  </si>
+  <si>
+    <t>doi:10.1016/j.mpaic.2008.08.005</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.mpaic.2008.08.005</t>
   </si>
   <si>
     <t>prefix</t>
@@ -2494,6 +2548,12 @@
     <t>http://purl.obolibrary.org/obo/NCIT_</t>
   </si>
   <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>https://doi.org/</t>
+  </si>
+  <si>
     <t>population</t>
   </si>
   <si>
@@ -2587,7 +2647,7 @@
     <t>Link to model in Zenodo</t>
   </si>
   <si>
-    <t>?</t>
+    <t>https://zenodo.org/deposit/4592365</t>
   </si>
   <si>
     <t>Lnk to reference statements</t>
@@ -2600,7 +2660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2615,7 +2675,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="11.0"/>
@@ -2634,6 +2693,9 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF222222"/>
@@ -2680,19 +2742,13 @@
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <color theme="1"/>
       <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Inconsolata"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
@@ -2718,6 +2774,8 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2729,6 +2787,10 @@
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2789,7 +2851,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2802,19 +2864,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2826,14 +2888,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -2841,28 +2900,28 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2877,6 +2936,12 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -2889,25 +2954,31 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2919,13 +2990,13 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2965,19 +3036,19 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2986,10 +3057,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3007,25 +3078,16 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -3033,7 +3095,10 @@
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3335,16 +3400,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -3359,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3390,223 +3455,223 @@
     </row>
     <row r="4">
       <c r="A4" s="10"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>817</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>818</v>
-      </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
+        <v>836</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>819</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>820</v>
-      </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="B6" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="10"/>
-      <c r="B7" s="76" t="s">
-        <v>821</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>820</v>
-      </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+      <c r="B7" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="10"/>
-      <c r="B8" s="76" t="s">
-        <v>822</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>820</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
+      <c r="B8" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="10"/>
-      <c r="B9" s="76" t="s">
-        <v>823</v>
-      </c>
-      <c r="C9" s="76" t="s">
-        <v>820</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
+      <c r="B9" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="10"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>825</v>
-      </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
+        <v>844</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>827</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
+        <v>846</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>847</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>829</v>
-      </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
+        <v>848</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>849</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="10"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>830</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>831</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+        <v>850</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>851</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="B16" s="79" t="s">
+        <v>852</v>
+      </c>
+      <c r="B16" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18">
@@ -3628,56 +3693,65 @@
       <c r="A23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="65" t="s">
-        <v>835</v>
+      <c r="A24" s="68" t="s">
+        <v>855</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="65" t="s">
-        <v>837</v>
+      <c r="A25" s="68" t="s">
+        <v>857</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="65" t="s">
-        <v>839</v>
+      <c r="A26" s="68" t="s">
+        <v>859</v>
       </c>
       <c r="B26" s="83" t="s">
-        <v>840</v>
-      </c>
+        <v>860</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="10" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="10" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B17:K23"/>
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:K27"/>
     <mergeCell ref="B28:K28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B24"/>
     <hyperlink r:id="rId2" ref="B25"/>
+    <hyperlink r:id="rId3" ref="B26"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3770,18 +3844,18 @@
         <v>24</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -3791,18 +3865,18 @@
         <v>29</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -3812,13 +3886,13 @@
         <v>33</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="4">
         <v>6.0</v>
       </c>
     </row>
@@ -3833,18 +3907,18 @@
         <v>37</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -3854,18 +3928,18 @@
         <v>41</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -3875,13 +3949,13 @@
         <v>45</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="4">
         <v>6.0</v>
       </c>
     </row>
@@ -3896,18 +3970,18 @@
         <v>49</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -3917,18 +3991,18 @@
         <v>53</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -3938,13 +4012,13 @@
         <v>57</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="4">
         <v>6.0</v>
       </c>
     </row>
@@ -3959,18 +4033,18 @@
         <v>61</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -3980,18 +4054,18 @@
         <v>65</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -4001,13 +4075,13 @@
         <v>70</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="4">
         <v>6.0</v>
       </c>
     </row>
@@ -4018,22 +4092,22 @@
       <c r="B14" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -4043,30 +4117,30 @@
         <v>78</v>
       </c>
       <c r="I15" s="10"/>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="14" t="b">
+      <c r="E16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4080,37 +4154,37 @@
       <c r="C17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>89</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>92</v>
       </c>
       <c r="I19" s="10"/>
@@ -4119,34 +4193,34 @@
       <c r="A20" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>95</v>
       </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>101</v>
       </c>
       <c r="I22" s="10"/>
@@ -4155,34 +4229,34 @@
       <c r="A23" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I24" s="10"/>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>110</v>
       </c>
       <c r="I25" s="10"/>
@@ -4191,22 +4265,22 @@
       <c r="A26" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I27" s="10"/>
@@ -4215,70 +4289,70 @@
       <c r="A28" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4289,34 +4363,34 @@
       <c r="B34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>137</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37">
       <c r="A37" s="11" t="s">
@@ -4325,34 +4399,34 @@
       <c r="B37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>142</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="22"/>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>144</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="22"/>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
@@ -4361,34 +4435,34 @@
       <c r="B40" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>148</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I41" s="23"/>
+      <c r="I41" s="22"/>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I42" s="23"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
@@ -4397,74 +4471,74 @@
       <c r="B43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="22"/>
     </row>
     <row r="45">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>159</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="I46" s="23"/>
+      <c r="I46" s="22"/>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>161</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I47" s="23"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>164</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I48" s="23"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>166</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -4476,7 +4550,7 @@
       <c r="A50" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>168</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -4485,10 +4559,10 @@
       <c r="I50" s="10"/>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>170</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -4497,10 +4571,10 @@
       <c r="I51" s="10"/>
     </row>
     <row r="52">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -4512,7 +4586,7 @@
       <c r="A53" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>174</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -4521,10 +4595,10 @@
       <c r="I53" s="10"/>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>176</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -4536,7 +4610,7 @@
       <c r="A55" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>178</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -4545,10 +4619,10 @@
       <c r="I55" s="10"/>
     </row>
     <row r="56">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="21" t="s">
         <v>180</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -4557,10 +4631,10 @@
       <c r="I56" s="10"/>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>182</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -4572,7 +4646,7 @@
       <c r="A58" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -4581,10 +4655,10 @@
       <c r="I58" s="10"/>
     </row>
     <row r="59">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>186</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -4593,13 +4667,13 @@
       <c r="I59" s="10"/>
     </row>
     <row r="60">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>187</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>189</v>
       </c>
       <c r="I60" s="10"/>
@@ -4611,31 +4685,31 @@
       <c r="B61" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>192</v>
       </c>
       <c r="I61" s="10"/>
     </row>
     <row r="62">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>193</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>195</v>
       </c>
       <c r="I62" s="10"/>
     </row>
     <row r="63">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>196</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>198</v>
       </c>
       <c r="I63" s="10"/>
@@ -4647,31 +4721,31 @@
       <c r="B64" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>201</v>
       </c>
       <c r="I64" s="10"/>
     </row>
     <row r="65">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>202</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>204</v>
       </c>
       <c r="I65" s="10"/>
     </row>
     <row r="66">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>205</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>207</v>
       </c>
       <c r="I66" s="10"/>
@@ -4683,31 +4757,31 @@
       <c r="B67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>210</v>
       </c>
       <c r="I67" s="10"/>
     </row>
     <row r="68">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>211</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>213</v>
       </c>
       <c r="I68" s="10"/>
     </row>
     <row r="69">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>214</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>216</v>
       </c>
       <c r="I69" s="10"/>
@@ -4719,13 +4793,13 @@
       <c r="B70" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>219</v>
       </c>
       <c r="I70" s="10"/>
     </row>
     <row r="71">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>220</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -4737,7 +4811,7 @@
       <c r="I71" s="10"/>
     </row>
     <row r="72">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>223</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -4752,34 +4826,34 @@
       <c r="A73" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I73" s="10"/>
     </row>
     <row r="74">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I74" s="10"/>
     </row>
     <row r="75">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I75" s="10"/>
@@ -4788,34 +4862,34 @@
       <c r="A76" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I76" s="10"/>
     </row>
     <row r="77">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I77" s="10"/>
     </row>
     <row r="78">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I78" s="10"/>
@@ -4824,22 +4898,22 @@
       <c r="A79" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I79" s="10"/>
     </row>
     <row r="80">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I80" s="10"/>
@@ -4848,34 +4922,34 @@
       <c r="A81" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I81" s="10"/>
     </row>
     <row r="82">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I82" s="10"/>
     </row>
     <row r="83">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I83" s="10"/>
@@ -4884,19 +4958,19 @@
       <c r="A84" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>228</v>
       </c>
       <c r="I84" s="10"/>
     </row>
     <row r="85">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="21" t="s">
         <v>252</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -4905,13 +4979,13 @@
       <c r="I85" s="10"/>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I86" s="10"/>
@@ -4920,34 +4994,34 @@
       <c r="A87" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I87" s="10"/>
     </row>
     <row r="88">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I88" s="10"/>
     </row>
     <row r="89">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I89" s="10"/>
@@ -4956,34 +5030,34 @@
       <c r="A90" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I90" s="10"/>
     </row>
     <row r="91">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I91" s="10"/>
     </row>
     <row r="92">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I92" s="10"/>
@@ -4992,34 +5066,34 @@
       <c r="A93" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I93" s="10"/>
     </row>
     <row r="94">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I94" s="10"/>
     </row>
     <row r="95">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B95" s="22" t="s">
+      <c r="B95" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I95" s="10"/>
@@ -5028,34 +5102,34 @@
       <c r="A96" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I96" s="10"/>
     </row>
     <row r="97">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I97" s="10"/>
     </row>
     <row r="98">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I98" s="10"/>
@@ -5064,10 +5138,10 @@
       <c r="A99" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I99" s="10"/>
@@ -5076,10 +5150,10 @@
       <c r="A100" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="30" t="s">
         <v>285</v>
       </c>
       <c r="I100" s="3"/>
@@ -5088,10 +5162,10 @@
       <c r="A101" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="30" t="s">
         <v>288</v>
       </c>
       <c r="I101" s="3" t="s">
@@ -5099,13 +5173,13 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="30" t="s">
         <v>292</v>
       </c>
       <c r="I102" s="10"/>
@@ -5114,48 +5188,48 @@
       <c r="A103" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="30" t="s">
         <v>295</v>
       </c>
       <c r="I103" s="3"/>
-      <c r="M103" s="14" t="s">
+      <c r="M103" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="N103" s="14">
+      <c r="N103" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="30" t="s">
         <v>301</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="M105" s="14" t="s">
+      <c r="M105" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="N105" s="14" t="s">
+      <c r="N105" s="4" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5163,19 +5237,19 @@
       <c r="A106" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="30" t="s">
         <v>307</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="M106" s="14" t="s">
+      <c r="M106" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="N106" s="14" t="s">
+      <c r="N106" s="4" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5183,62 +5257,62 @@
       <c r="A107" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B107" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="31" t="s">
         <v>312</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="M107" s="14" t="s">
+      <c r="M107" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="N107" s="14" t="s">
+      <c r="N107" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="31" t="s">
         <v>317</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="M108" s="14" t="s">
+      <c r="M108" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="N108" s="14" t="s">
+      <c r="N108" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="31" t="s">
         <v>322</v>
       </c>
       <c r="I109" s="10"/>
     </row>
     <row r="110">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C110" s="30" t="s">
         <v>325</v>
       </c>
       <c r="I110" s="10"/>
@@ -5247,10 +5321,10 @@
       <c r="A111" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="30" t="s">
         <v>328</v>
       </c>
       <c r="I111" s="10"/>
@@ -5259,25 +5333,25 @@
       <c r="A112" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C112" s="30" t="s">
         <v>331</v>
       </c>
       <c r="I112" s="10"/>
     </row>
     <row r="113">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="E113" s="14" t="b">
+      <c r="E113" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I113" s="3" t="s">
@@ -5285,127 +5359,127 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="E114" s="14" t="b">
+      <c r="E114" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I114" s="25"/>
-      <c r="M114" s="14" t="s">
+      <c r="I114" s="24"/>
+      <c r="M114" s="4" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C115" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I115" s="25"/>
+      <c r="I115" s="24"/>
     </row>
     <row r="116">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="29" t="s">
+      <c r="C116" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I116" s="25"/>
+      <c r="I116" s="24"/>
     </row>
     <row r="117">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C117" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I117" s="25"/>
+      <c r="I117" s="24"/>
     </row>
     <row r="118">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C118" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I118" s="25"/>
+      <c r="I118" s="24"/>
     </row>
     <row r="119">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="14" t="s">
         <v>348</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="I119" s="23"/>
+      <c r="I119" s="22"/>
     </row>
     <row r="120">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="I120" s="25"/>
+      <c r="I120" s="24"/>
     </row>
     <row r="121">
       <c r="A121" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="I121" s="25"/>
+      <c r="I121" s="24"/>
     </row>
     <row r="122">
       <c r="A122" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="I122" s="25"/>
+      <c r="I122" s="24"/>
     </row>
     <row r="123">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C123" s="30" t="s">
         <v>361</v>
       </c>
       <c r="I123" s="10"/>
@@ -5414,34 +5488,34 @@
       <c r="A124" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="I124" s="25"/>
+      <c r="I124" s="24"/>
     </row>
     <row r="125">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="30" t="s">
         <v>367</v>
       </c>
       <c r="I125" s="10"/>
     </row>
     <row r="126">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="30" t="s">
         <v>370</v>
       </c>
       <c r="I126" s="10"/>
@@ -5450,10 +5524,10 @@
       <c r="A127" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C127" s="30" t="s">
         <v>373</v>
       </c>
       <c r="I127" s="10"/>
@@ -5462,25 +5536,25 @@
       <c r="A128" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="30" t="s">
         <v>352</v>
       </c>
       <c r="I128" s="10"/>
     </row>
     <row r="129">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="32" t="s">
         <v>375</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="E129" s="14" t="b">
+      <c r="E129" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I129" s="3" t="s">
@@ -5488,412 +5562,532 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="32" t="s">
+      <c r="A130" s="33" t="s">
         <v>379</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="E130" s="14" t="b">
+      <c r="E130" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F130" s="14" t="s">
+      <c r="F130" s="4" t="s">
         <v>381</v>
       </c>
       <c r="I130" s="10"/>
     </row>
     <row r="131">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="C131" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D131" s="10"/>
+      <c r="E131" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="38"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="35"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D132" s="10"/>
+      <c r="E132" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="38"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="35"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="D133" s="10"/>
+      <c r="E133" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="35"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="D134" s="10"/>
+      <c r="E134" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="38"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="35"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C131" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F131" s="14" t="s">
+      <c r="B135" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C135" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I131" s="10"/>
-      <c r="J131" s="14" t="s">
+      <c r="I135" s="10"/>
+      <c r="J135" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="R131" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="14" t="s">
+      <c r="R135" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F132" s="14" t="s">
+      <c r="B136" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C136" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I132" s="10"/>
-      <c r="J132" s="14" t="s">
+      <c r="I136" s="10"/>
+      <c r="J136" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="14" t="s">
+    <row r="137">
+      <c r="A137" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F133" s="14" t="s">
+      <c r="B137" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C137" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I133" s="10"/>
-      <c r="J133" s="14" t="s">
+      <c r="I137" s="10"/>
+      <c r="J137" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="14" t="s">
+    <row r="138">
+      <c r="A138" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C134" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F134" s="14" t="s">
+      <c r="B138" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C138" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I134" s="10"/>
-      <c r="J134" s="14" t="s">
+      <c r="I138" s="10"/>
+      <c r="J138" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="14" t="s">
+    <row r="139">
+      <c r="A139" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F135" s="14" t="s">
+      <c r="B139" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C139" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I135" s="10"/>
-      <c r="J135" s="14" t="s">
+      <c r="I139" s="10"/>
+      <c r="J139" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="14" t="s">
+    <row r="140">
+      <c r="A140" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F136" s="14" t="s">
+      <c r="B140" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C140" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I136" s="10"/>
-      <c r="J136" s="14" t="s">
+      <c r="I140" s="10"/>
+      <c r="J140" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="14" t="s">
+    <row r="141">
+      <c r="A141" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C137" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F137" s="14" t="s">
+      <c r="B141" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I137" s="10"/>
-      <c r="J137" s="14" t="s">
+      <c r="I141" s="10"/>
+      <c r="J141" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="14" t="s">
+    <row r="142">
+      <c r="A142" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C138" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F138" s="14" t="s">
+      <c r="B142" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C142" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I138" s="10"/>
-      <c r="J138" s="14" t="s">
+      <c r="I142" s="10"/>
+      <c r="J142" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="14" t="s">
+    <row r="143">
+      <c r="A143" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C139" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F139" s="14" t="s">
+      <c r="B143" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C143" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I139" s="10"/>
-      <c r="J139" s="14" t="s">
+      <c r="I143" s="10"/>
+      <c r="J143" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="14" t="s">
+    <row r="144">
+      <c r="A144" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C140" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F140" s="14" t="s">
+      <c r="B144" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C144" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I140" s="10"/>
-      <c r="J140" s="14" t="s">
+      <c r="I144" s="10"/>
+      <c r="J144" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="14" t="s">
+    <row r="145">
+      <c r="A145" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F141" s="14" t="s">
+      <c r="B145" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C145" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I141" s="10"/>
-      <c r="J141" s="14" t="s">
+      <c r="I145" s="10"/>
+      <c r="J145" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="14" t="s">
+    <row r="146">
+      <c r="A146" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B146" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C146" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="C142" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F142" s="14" t="s">
+      <c r="F146" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I142" s="10"/>
-      <c r="J142" s="14" t="s">
+      <c r="I146" s="10"/>
+      <c r="J146" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="14" t="s">
+    <row r="147">
+      <c r="A147" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C143" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F143" s="14" t="s">
+      <c r="B147" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C147" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I143" s="10"/>
-      <c r="J143" s="14" t="s">
+      <c r="I147" s="10"/>
+      <c r="J147" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="14" t="s">
+    <row r="148">
+      <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F144" s="14" t="s">
+      <c r="B148" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C148" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="I144" s="10"/>
-      <c r="J144" s="14" t="s">
+      <c r="I148" s="10"/>
+      <c r="J148" s="4" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C145" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F145" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I145" s="10"/>
-      <c r="J145" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="R145" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I146" s="10"/>
-      <c r="J146" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="R146" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C147" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F147" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I147" s="10"/>
-      <c r="J147" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="R147" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C148" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="I148" s="10"/>
-      <c r="J148" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="R148" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
     <row r="149">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="4" t="s">
         <v>410</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C149" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F149" s="14" t="s">
+      <c r="C149" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>381</v>
       </c>
       <c r="I149" s="10"/>
-      <c r="J149" s="14" t="s">
+      <c r="J149" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="R149" s="14" t="s">
+      <c r="R149" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="34">
+      <c r="A150" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C150" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I150" s="10"/>
+      <c r="J150" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R150" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C151" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I151" s="10"/>
+      <c r="J151" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R151" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C152" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I152" s="10"/>
+      <c r="J152" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R152" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C153" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="I153" s="10"/>
+      <c r="J153" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="R153" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="40">
         <v>229.0</v>
       </c>
-      <c r="B150" s="35" t="s">
+      <c r="B154" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="C150" s="36" t="s">
+      <c r="C154" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="D150" s="10"/>
-      <c r="E150" s="37" t="b">
+      <c r="D154" s="10"/>
+      <c r="E154" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="F150" s="35"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="J150" s="35"/>
-      <c r="K150" s="38"/>
-      <c r="L150" s="10"/>
-      <c r="M150" s="10"/>
-      <c r="N150" s="39"/>
-      <c r="O150" s="10"/>
-      <c r="P150" s="10"/>
-      <c r="Q150" s="10"/>
-      <c r="R150" s="10"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="J154" s="35"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="38"/>
+      <c r="O154" s="10"/>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -5915,601 +6109,601 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>416</v>
+      <c r="A2" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>428</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>419</v>
+      <c r="A3" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>431</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="43" t="s">
-        <v>420</v>
+      <c r="A4" s="46" t="s">
+        <v>432</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" s="17"/>
+        <v>433</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>423</v>
+      <c r="A5" s="46" t="s">
+        <v>435</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>436</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="s">
-        <v>426</v>
+      <c r="A6" s="46" t="s">
+        <v>438</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="D6" s="45"/>
+        <v>439</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" s="48"/>
     </row>
     <row r="7">
-      <c r="A7" s="43" t="s">
-        <v>429</v>
+      <c r="A7" s="46" t="s">
+        <v>441</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="46" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="46" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="46" t="s">
+        <v>491</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>493</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="46" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="46" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="46" t="s">
+        <v>503</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>508</v>
+      </c>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="46" t="s">
+        <v>512</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>514</v>
+      </c>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="46" t="s">
+        <v>515</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="46" t="s">
+        <v>521</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="43" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="43" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>452</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="43" t="s">
-        <v>456</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>458</v>
-      </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="43" t="s">
-        <v>459</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="43" t="s">
-        <v>461</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="43" t="s">
-        <v>470</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="43" t="s">
-        <v>476</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>484</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="43" t="s">
-        <v>488</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="43" t="s">
-        <v>491</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>492</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>496</v>
-      </c>
-      <c r="D29" s="23"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="43" t="s">
-        <v>497</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>499</v>
-      </c>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="43" t="s">
-        <v>500</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="43" t="s">
-        <v>503</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>505</v>
-      </c>
-      <c r="D32" s="23"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>508</v>
-      </c>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="43" t="s">
-        <v>509</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>511</v>
-      </c>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="43" t="s">
-        <v>512</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>514</v>
-      </c>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="43" t="s">
-        <v>515</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="43" t="s">
-        <v>518</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="43" t="s">
-        <v>524</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>525</v>
+      <c r="C39" s="50" t="s">
+        <v>537</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40">
-      <c r="A40" s="43" t="s">
-        <v>526</v>
+      <c r="A40" s="46" t="s">
+        <v>538</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>528</v>
+        <v>539</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>540</v>
       </c>
       <c r="D40" s="10"/>
     </row>
     <row r="41">
-      <c r="A41" s="43" t="s">
-        <v>529</v>
+      <c r="A41" s="46" t="s">
+        <v>541</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>531</v>
+        <v>542</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>543</v>
       </c>
       <c r="D41" s="10"/>
     </row>
     <row r="42">
-      <c r="A42" s="43" t="s">
-        <v>532</v>
+      <c r="A42" s="46" t="s">
+        <v>544</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>534</v>
-      </c>
-      <c r="D42" s="51"/>
+        <v>545</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>546</v>
+      </c>
+      <c r="D42" s="54"/>
     </row>
     <row r="43">
-      <c r="A43" s="43" t="s">
-        <v>535</v>
+      <c r="A43" s="46" t="s">
+        <v>547</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>537</v>
+        <v>548</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="43" t="s">
-        <v>538</v>
+      <c r="A44" s="46" t="s">
+        <v>550</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>540</v>
+        <v>551</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="43" t="s">
-        <v>541</v>
+      <c r="A45" s="46" t="s">
+        <v>553</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C45" s="53" t="s">
-        <v>543</v>
+        <v>554</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="43" t="s">
-        <v>544</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>546</v>
-      </c>
-      <c r="D46" s="54"/>
+      <c r="A46" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>558</v>
+      </c>
+      <c r="D46" s="57"/>
     </row>
     <row r="47">
-      <c r="A47" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>549</v>
-      </c>
-      <c r="D47" s="54"/>
+      <c r="A47" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C47" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="D47" s="57"/>
     </row>
     <row r="48">
-      <c r="A48" s="43" t="s">
-        <v>550</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>552</v>
-      </c>
-      <c r="D48" s="54"/>
+      <c r="A48" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>564</v>
+      </c>
+      <c r="D48" s="57"/>
     </row>
     <row r="49">
-      <c r="A49" s="43" t="s">
-        <v>553</v>
+      <c r="A49" s="46" t="s">
+        <v>565</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="D49" s="54"/>
+        <v>566</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="D49" s="57"/>
     </row>
     <row r="50">
-      <c r="A50" s="43" t="s">
-        <v>556</v>
+      <c r="A50" s="46" t="s">
+        <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>558</v>
+        <v>569</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -6538,341 +6732,341 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1" s="55" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" s="58" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="A2" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="A3" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="A4" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="A5" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="A6" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="A7" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="A8" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="A9" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="A10" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="A11" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="A12" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="A13" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="A14" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>602</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="A15" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="A16" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>608</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="F17" s="14">
+      <c r="A17" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="A18" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="14">
+      <c r="A19" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="F20" s="14">
+      <c r="A20" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F20" s="4">
         <v>4.0</v>
       </c>
     </row>
@@ -6908,1131 +7102,1128 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>639</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="K4" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="K6" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="K8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>672</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="K14" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>677</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="K16" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>682</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>685</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="K18" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>687</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="K20" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="K22" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>697</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>700</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>702</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>705</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="K26" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>707</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L27" s="65" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="K28" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>712</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>715</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="L30" s="66" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>732</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>736</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E36" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="K39" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="L1" s="58" t="s">
+      <c r="G40" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="K41" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>629</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="G42" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="K2" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="K43" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>632</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>638</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="K4" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>640</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>643</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="K6" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>645</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>648</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="K8" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>650</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>653</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="K10" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>655</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>658</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="K12" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>659</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>660</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>663</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="K14" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>665</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>668</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="K16" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>670</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>672</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>673</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="K18" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>675</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>677</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>678</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="K20" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>679</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>680</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>682</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>683</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="K22" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>684</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>685</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>688</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="K24" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>690</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>693</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="K26" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>695</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="14" t="s">
-        <v>697</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>698</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="K28" s="14">
-        <v>6.0</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="s">
-        <v>699</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>700</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="L30" s="63" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>708</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="K31" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>710</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>715</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>720</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>724</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>728</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="G36" s="14" t="s">
+      <c r="G44" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="K36" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14" t="s">
-        <v>731</v>
-      </c>
-      <c r="B37" s="59" t="s">
-        <v>732</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="K37" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="B38" s="59" t="s">
-        <v>734</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="B39" s="59" t="s">
-        <v>738</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="K39" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="B40" s="59" t="s">
-        <v>740</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>744</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="K41" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="14" t="s">
-        <v>745</v>
-      </c>
-      <c r="B42" s="59" t="s">
-        <v>746</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>747</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="14" t="s">
-        <v>749</v>
-      </c>
-      <c r="B43" s="59" t="s">
-        <v>750</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>630</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="K43" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="B44" s="59" t="s">
-        <v>752</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>633</v>
-      </c>
-      <c r="E44" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>754</v>
+      <c r="L44" s="4" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
-        <v>755</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>756</v>
+      <c r="A45" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>768</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="D45" s="64" t="s">
-        <v>758</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>759</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+        <v>769</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>770</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8060,10 +8251,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -8089,12 +8280,12 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -8121,12 +8312,12 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -8168,29 +8359,30 @@
   <cols>
     <col customWidth="1" min="4" max="4" width="28.57"/>
     <col customWidth="1" min="5" max="5" width="34.14"/>
+    <col customWidth="1" min="7" max="7" width="46.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>620</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>765</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>766</v>
+      <c r="C1" s="61" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>777</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>778</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>562</v>
+        <v>779</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>574</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -8213,75 +8405,75 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>768</v>
-      </c>
-      <c r="E2" s="64"/>
-      <c r="G2" s="14" t="s">
-        <v>769</v>
+      <c r="A2" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="67"/>
+      <c r="G2" s="4" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="E3" s="64"/>
-      <c r="G3" s="14" t="s">
-        <v>771</v>
+      <c r="A3" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="G3" s="4" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>772</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="G4" s="14" t="s">
-        <v>771</v>
+      <c r="A4" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="G4" s="4" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="E5" s="64"/>
-      <c r="G5" s="14" t="s">
-        <v>771</v>
+      <c r="A5" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="G5" s="4" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="G6" s="14" t="s">
-        <v>771</v>
+      <c r="A6" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="G6" s="4" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="G7" s="14" t="s">
-        <v>771</v>
+      <c r="A7" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="G7" s="4" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -8298,96 +8490,72 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="39.43"/>
+    <col customWidth="1" min="3" max="3" width="53.57"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+        <v>789</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="C2" s="67" t="str">
-        <f t="array" ref="C2">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A2,6,LEN(A2))</f>
-        <v>https://pubmed.ncbi.nlm.nih.gov/2384334</v>
+      <c r="A2" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="C3" s="67" t="str">
-        <f t="array" ref="C3">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A3,6,LEN(A3))</f>
-        <v>https://pubmed.ncbi.nlm.nih.gov/8300416</v>
+      <c r="A3" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="C4" s="67" t="str">
-        <f t="array" ref="C4">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A4,6,LEN(A4))</f>
-        <v>https://pubmed.ncbi.nlm.nih.gov/3198482</v>
+      <c r="A4" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>781</v>
-      </c>
-      <c r="C5" s="67" t="str">
-        <f t="array" ref="C5">"https://pubmed.ncbi.nlm.nih.gov/" &amp; MID(A5,6,LEN(A5))</f>
-        <v>https://pubmed.ncbi.nlm.nih.gov/18579364 </v>
+      <c r="A5" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>771</v>
-      </c>
-      <c r="C6" s="68" t="str">
-        <f t="array" ref="C6">"https://doi.org/" &amp; MID(A6,5,LEN(A6))</f>
-        <v>https://doi.org/10.1016/B978-0-444-53491-0.09985-5</v>
-      </c>
-      <c r="D6" s="69"/>
+      <c r="A6" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>798</v>
+      </c>
+      <c r="D6" s="72"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>782</v>
-      </c>
-      <c r="C7" s="68" t="str">
-        <f t="array" ref="C7">"https://doi.org/" &amp; MID(A7,5,LEN(A7))</f>
-        <v>https://doi.org/10.1016/j.mpaic.2008.08.005</v>
+      <c r="A7" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -8409,11 +8577,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="70" t="s">
-        <v>783</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>784</v>
+      <c r="A1" s="73" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>802</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -8441,11 +8609,11 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>785</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>786</v>
+      <c r="A2" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>804</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -8473,11 +8641,11 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>788</v>
+      <c r="A3" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>806</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -8505,11 +8673,11 @@
       <c r="Z3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>789</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>790</v>
+      <c r="A4" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>808</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -8537,11 +8705,11 @@
       <c r="Z4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>791</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>792</v>
+      <c r="A5" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>810</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -8569,11 +8737,11 @@
       <c r="Z5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>793</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>794</v>
+      <c r="A6" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>812</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -8601,11 +8769,11 @@
       <c r="Z6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>795</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>796</v>
+      <c r="A7" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>814</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -8633,11 +8801,11 @@
       <c r="Z7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>798</v>
+      <c r="A8" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>816</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -8665,11 +8833,11 @@
       <c r="Z8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>800</v>
+      <c r="A9" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>818</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -8697,11 +8865,11 @@
       <c r="Z9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>801</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>802</v>
+      <c r="A10" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>820</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -8729,11 +8897,11 @@
       <c r="Z10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>804</v>
+      <c r="A11" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>822</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -8762,10 +8930,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>806</v>
+        <v>823</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>824</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -8793,13 +8961,13 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="74" t="s">
-        <v>807</v>
-      </c>
-      <c r="B13" s="75" t="s">
-        <v>808</v>
-      </c>
-      <c r="C13" s="76"/>
+      <c r="A13" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -8824,6 +8992,38 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>828</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -8838,7 +9038,8 @@
     <hyperlink r:id="rId10" ref="B11"/>
     <hyperlink r:id="rId11" ref="B12"/>
     <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="871">
   <si>
     <t>id</t>
   </si>
@@ -2410,27 +2410,45 @@
     <t>Neuron 1</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-bromo-1</t>
+  </si>
+  <si>
     <t>PMID: 8300416, PMID: 3198482, PMID: 2384334</t>
   </si>
   <si>
     <t>Neuron 2</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-bromo-2</t>
+  </si>
+  <si>
     <t>doi:10.1016/B978-0-444-53491-0.09985-5</t>
   </si>
   <si>
     <t>Neuron 3</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-bromo-3</t>
+  </si>
+  <si>
     <t>Neuron 4</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-bromo-4</t>
+  </si>
+  <si>
     <t>Neuron 5</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-bromo-5</t>
+  </si>
+  <si>
     <t>Neuron 6</t>
   </si>
   <si>
+    <t>ilxtr:neuron-type-bromo-6</t>
+  </si>
+  <si>
     <t>uri</t>
   </si>
   <si>
@@ -2552,6 +2570,12 @@
   </si>
   <si>
     <t>https://doi.org/</t>
+  </si>
+  <si>
+    <t>ilxtr</t>
+  </si>
+  <si>
+    <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
   </si>
   <si>
     <t>population</t>
@@ -2660,7 +2684,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2745,6 +2769,10 @@
     <font/>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="&quot;Droid Sans Mono&quot;"/>
     </font>
@@ -2759,29 +2787,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <b/>
     </font>
     <font>
       <u/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -2851,7 +2861,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3054,35 +3064,23 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3092,10 +3090,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3400,16 +3398,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -3424,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3468,13 +3466,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -3490,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3507,10 +3505,10 @@
     <row r="7">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3524,10 +3522,10 @@
     <row r="8">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -3541,10 +3539,10 @@
     <row r="9">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3570,10 +3568,10 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -3587,10 +3585,10 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>847</v>
+        <v>854</v>
+      </c>
+      <c r="B12" s="77" t="s">
+        <v>855</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3604,10 +3602,10 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>849</v>
+        <v>856</v>
+      </c>
+      <c r="B13" s="77" t="s">
+        <v>857</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3634,10 +3632,10 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>851</v>
+        <v>858</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>859</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3651,27 +3649,27 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="B16" s="81" t="s">
+        <v>860</v>
+      </c>
+      <c r="B16" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>854</v>
+        <v>861</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="18">
@@ -3693,46 +3691,46 @@
       <c r="A23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="68" t="s">
-        <v>855</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>856</v>
+      <c r="A24" s="69" t="s">
+        <v>863</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="68" t="s">
-        <v>857</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>858</v>
+      <c r="A25" s="69" t="s">
+        <v>865</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="68" t="s">
-        <v>859</v>
-      </c>
-      <c r="B26" s="83" t="s">
-        <v>860</v>
-      </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
+      <c r="A26" s="69" t="s">
+        <v>867</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>868</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="10" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="10" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29">
@@ -8357,9 +8355,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="28.57"/>
-    <col customWidth="1" min="5" max="5" width="34.14"/>
-    <col customWidth="1" min="7" max="7" width="46.57"/>
+    <col customWidth="1" min="3" max="3" width="21.71"/>
+    <col customWidth="1" min="5" max="5" width="28.57"/>
+    <col customWidth="1" min="6" max="6" width="34.14"/>
+    <col customWidth="1" min="8" max="8" width="46.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8369,40 +8368,24 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>632</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="E1" s="61" t="s">
         <v>777</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="F1" s="61" t="s">
         <v>778</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="H1" s="69" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
@@ -8411,9 +8394,12 @@
       <c r="B2" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>781</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="H2" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="3">
@@ -8421,11 +8407,14 @@
         <v>412</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="G3" s="4" t="s">
         <v>783</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>784</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="H3" s="4" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="4">
@@ -8433,11 +8422,14 @@
         <v>415</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="E4" s="67"/>
-      <c r="G4" s="4" t="s">
-        <v>783</v>
+        <v>786</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>787</v>
+      </c>
+      <c r="F4" s="67"/>
+      <c r="H4" s="4" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="5">
@@ -8445,11 +8437,14 @@
         <v>418</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>789</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="H5" s="4" t="s">
         <v>785</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="G5" s="4" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="6">
@@ -8457,11 +8452,14 @@
         <v>421</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="G6" s="4" t="s">
-        <v>783</v>
+        <v>790</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="H6" s="4" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="7">
@@ -8469,11 +8467,14 @@
         <v>424</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="G7" s="4" t="s">
-        <v>783</v>
+        <v>792</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>793</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="H7" s="4" t="s">
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -8496,66 +8497,66 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>791</v>
+        <v>796</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>793</v>
+        <v>798</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>795</v>
+        <v>800</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>797</v>
+        <v>802</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>798</v>
-      </c>
-      <c r="D6" s="72"/>
+        <v>785</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>804</v>
+      </c>
+      <c r="D6" s="73"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>800</v>
+        <v>805</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -8577,452 +8578,124 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
-        <v>801</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>802</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="A1" s="74" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>804</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="A2" s="75" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>805</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>806</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
+      <c r="A3" s="75" t="s">
+        <v>811</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>808</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="A4" s="75" t="s">
+        <v>813</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>809</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>810</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="A5" s="75" t="s">
+        <v>815</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="B6" s="75" t="s">
-        <v>812</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
+      <c r="A6" s="75" t="s">
+        <v>817</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>813</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>814</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+      <c r="A7" s="75" t="s">
+        <v>819</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>816</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
+      <c r="A8" s="75" t="s">
+        <v>821</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>817</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>818</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
+      <c r="A9" s="75" t="s">
+        <v>823</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>820</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+      <c r="A10" s="75" t="s">
+        <v>825</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>821</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>822</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
+      <c r="A11" s="75" t="s">
+        <v>827</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>823</v>
+      <c r="A12" s="75" t="s">
+        <v>829</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>824</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
+        <v>830</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="35" t="s">
-        <v>825</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>826</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
+      <c r="A13" s="75" t="s">
+        <v>831</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>828</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
+      <c r="A14" s="75" t="s">
+        <v>833</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="75" t="s">
+        <v>835</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>836</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9039,7 +8712,8 @@
     <hyperlink r:id="rId11" ref="B12"/>
     <hyperlink r:id="rId12" ref="B13"/>
     <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -11,8 +11,9 @@
     <sheet state="visible" name="nodes" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="groups" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="publications" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="localConventions" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="neurons" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="contributors" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="localConventions" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="neurons" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="880">
   <si>
     <t>id</t>
   </si>
@@ -2486,6 +2487,33 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.mpaic.2008.08.005</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Don Bolser</t>
+  </si>
+  <si>
+    <t>need to send email for permission</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2308-8813</t>
+  </si>
+  <si>
+    <t>Monique Surles-Zeigler</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7509-4801</t>
+  </si>
+  <si>
+    <t>Thomas H Gillespie</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0638-5274</t>
+  </si>
+  <si>
+    <t>Bernard de Bono</t>
   </si>
   <si>
     <t>prefix</t>
@@ -2684,7 +2712,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2717,9 +2745,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF222222"/>
@@ -2766,11 +2791,6 @@
       <color rgb="FF660E7A"/>
       <name val="Arial"/>
     </font>
-    <font/>
-    <font>
-      <b/>
-      <name val="Arial"/>
-    </font>
     <font>
       <b/>
       <color theme="1"/>
@@ -2787,7 +2807,18 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -2861,7 +2892,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2946,10 +2977,7 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2979,7 +3007,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2991,13 +3019,13 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3012,51 +3040,45 @@
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3064,23 +3086,38 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3090,10 +3127,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3112,6 +3149,10 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3395,19 +3436,173 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="37.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="76" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="77" t="s">
+        <v>818</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="77" t="s">
+        <v>820</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="77" t="s">
+        <v>822</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="77" t="s">
+        <v>824</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="77" t="s">
+        <v>826</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="77" t="s">
+        <v>828</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="77" t="s">
+        <v>830</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="77" t="s">
+        <v>832</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="77" t="s">
+        <v>834</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="77" t="s">
+        <v>836</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="77" t="s">
+        <v>838</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="77" t="s">
+        <v>840</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="77" t="s">
+        <v>842</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="77" t="s">
+        <v>844</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>845</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
+  </hyperlinks>
+  <drawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -3422,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3466,13 +3661,13 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -3488,10 +3683,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -3505,10 +3700,10 @@
     <row r="7">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -3522,10 +3717,10 @@
     <row r="8">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -3539,10 +3734,10 @@
     <row r="9">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -3568,10 +3763,10 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -3585,10 +3780,10 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>855</v>
+        <v>863</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>864</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3602,10 +3797,10 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>857</v>
+        <v>865</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>866</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -3632,10 +3827,10 @@
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>859</v>
+        <v>867</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>868</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3649,27 +3844,27 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="B16" s="79" t="s">
+        <v>869</v>
+      </c>
+      <c r="B16" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>862</v>
+        <v>870</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="18">
@@ -3691,46 +3886,46 @@
       <c r="A23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="69" t="s">
-        <v>863</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>864</v>
+      <c r="A24" s="66" t="s">
+        <v>872</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="69" t="s">
-        <v>865</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>866</v>
+      <c r="A25" s="66" t="s">
+        <v>874</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="69" t="s">
-        <v>867</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>868</v>
-      </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
+      <c r="A26" s="66" t="s">
+        <v>876</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>877</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="10" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="10" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
     </row>
     <row r="29">
@@ -4965,7 +5160,7 @@
       <c r="I84" s="10"/>
     </row>
     <row r="85">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="26" t="s">
         <v>251</v>
       </c>
       <c r="B85" s="21" t="s">
@@ -4977,7 +5172,7 @@
       <c r="I85" s="10"/>
     </row>
     <row r="86">
-      <c r="A86" s="29" t="s">
+      <c r="A86" s="28" t="s">
         <v>253</v>
       </c>
       <c r="B86" s="21" t="s">
@@ -5151,7 +5346,7 @@
       <c r="B100" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="30" t="s">
+      <c r="C100" s="29" t="s">
         <v>285</v>
       </c>
       <c r="I100" s="3"/>
@@ -5163,7 +5358,7 @@
       <c r="B101" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="C101" s="29" t="s">
         <v>288</v>
       </c>
       <c r="I101" s="3" t="s">
@@ -5177,7 +5372,7 @@
       <c r="B102" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="29" t="s">
         <v>292</v>
       </c>
       <c r="I102" s="10"/>
@@ -5189,7 +5384,7 @@
       <c r="B103" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="29" t="s">
         <v>295</v>
       </c>
       <c r="I103" s="3"/>
@@ -5207,7 +5402,7 @@
       <c r="B104" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="29" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5218,7 +5413,7 @@
       <c r="B105" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="29" t="s">
         <v>301</v>
       </c>
       <c r="I105" s="3" t="s">
@@ -5238,7 +5433,7 @@
       <c r="B106" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="29" t="s">
         <v>307</v>
       </c>
       <c r="I106" s="3" t="s">
@@ -5258,7 +5453,7 @@
       <c r="B107" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="31" t="s">
+      <c r="C107" s="30" t="s">
         <v>312</v>
       </c>
       <c r="I107" s="3" t="s">
@@ -5278,7 +5473,7 @@
       <c r="B108" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="C108" s="30" t="s">
         <v>317</v>
       </c>
       <c r="I108" s="3" t="s">
@@ -5298,7 +5493,7 @@
       <c r="B109" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="C109" s="30" t="s">
         <v>322</v>
       </c>
       <c r="I109" s="10"/>
@@ -5310,7 +5505,7 @@
       <c r="B110" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="29" t="s">
         <v>325</v>
       </c>
       <c r="I110" s="10"/>
@@ -5322,7 +5517,7 @@
       <c r="B111" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C111" s="29" t="s">
         <v>328</v>
       </c>
       <c r="I111" s="10"/>
@@ -5334,7 +5529,7 @@
       <c r="B112" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C112" s="30" t="s">
+      <c r="C112" s="29" t="s">
         <v>331</v>
       </c>
       <c r="I112" s="10"/>
@@ -5346,7 +5541,7 @@
       <c r="B113" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="29" t="s">
         <v>334</v>
       </c>
       <c r="E113" s="4" t="b">
@@ -5363,7 +5558,7 @@
       <c r="B114" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="29" t="s">
         <v>338</v>
       </c>
       <c r="E114" s="4" t="b">
@@ -5381,7 +5576,7 @@
       <c r="B115" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C115" s="29" t="s">
         <v>341</v>
       </c>
       <c r="I115" s="24"/>
@@ -5393,7 +5588,7 @@
       <c r="B116" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="29" t="s">
         <v>341</v>
       </c>
       <c r="I116" s="24"/>
@@ -5405,7 +5600,7 @@
       <c r="B117" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="29" t="s">
         <v>341</v>
       </c>
       <c r="I117" s="24"/>
@@ -5417,7 +5612,7 @@
       <c r="B118" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C118" s="30" t="s">
+      <c r="C118" s="29" t="s">
         <v>341</v>
       </c>
       <c r="I118" s="24"/>
@@ -5441,7 +5636,7 @@
       <c r="B120" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="30" t="s">
+      <c r="C120" s="29" t="s">
         <v>352</v>
       </c>
       <c r="I120" s="24"/>
@@ -5453,7 +5648,7 @@
       <c r="B121" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C121" s="30" t="s">
+      <c r="C121" s="29" t="s">
         <v>355</v>
       </c>
       <c r="I121" s="24"/>
@@ -5465,7 +5660,7 @@
       <c r="B122" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="30" t="s">
+      <c r="C122" s="29" t="s">
         <v>358</v>
       </c>
       <c r="I122" s="24"/>
@@ -5477,7 +5672,7 @@
       <c r="B123" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C123" s="30" t="s">
+      <c r="C123" s="29" t="s">
         <v>361</v>
       </c>
       <c r="I123" s="10"/>
@@ -5489,7 +5684,7 @@
       <c r="B124" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C124" s="30" t="s">
+      <c r="C124" s="29" t="s">
         <v>364</v>
       </c>
       <c r="I124" s="24"/>
@@ -5501,7 +5696,7 @@
       <c r="B125" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="29" t="s">
         <v>367</v>
       </c>
       <c r="I125" s="10"/>
@@ -5513,7 +5708,7 @@
       <c r="B126" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="30" t="s">
+      <c r="C126" s="29" t="s">
         <v>370</v>
       </c>
       <c r="I126" s="10"/>
@@ -5525,7 +5720,7 @@
       <c r="B127" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="C127" s="29" t="s">
         <v>373</v>
       </c>
       <c r="I127" s="10"/>
@@ -5537,13 +5732,13 @@
       <c r="B128" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C128" s="30" t="s">
+      <c r="C128" s="29" t="s">
         <v>352</v>
       </c>
       <c r="I128" s="10"/>
     </row>
     <row r="129">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="31" t="s">
         <v>375</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -5560,7 +5755,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="32" t="s">
         <v>379</v>
       </c>
       <c r="B130" s="10" t="s">
@@ -5578,17 +5773,17 @@
       <c r="I130" s="10"/>
     </row>
     <row r="131">
-      <c r="A131" s="34" t="s">
+      <c r="A131" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="C131" s="36" t="s">
+      <c r="C131" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D131" s="10"/>
-      <c r="E131" s="37" t="b">
+      <c r="E131" s="36" t="b">
         <v>1</v>
       </c>
       <c r="F131" s="25" t="s">
@@ -5597,28 +5792,28 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
-      <c r="J131" s="35"/>
+      <c r="J131" s="34"/>
       <c r="K131" s="10"/>
       <c r="L131" s="10"/>
       <c r="M131" s="10"/>
-      <c r="N131" s="38"/>
+      <c r="N131" s="37"/>
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
       <c r="Q131" s="10"/>
-      <c r="R131" s="35"/>
+      <c r="R131" s="34"/>
     </row>
     <row r="132">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="35" t="s">
+      <c r="B132" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="35" t="s">
         <v>384</v>
       </c>
       <c r="D132" s="10"/>
-      <c r="E132" s="37" t="b">
+      <c r="E132" s="36" t="b">
         <v>1</v>
       </c>
       <c r="F132" s="25" t="s">
@@ -5627,28 +5822,28 @@
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
-      <c r="J132" s="35"/>
+      <c r="J132" s="34"/>
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
       <c r="M132" s="10"/>
-      <c r="N132" s="38"/>
+      <c r="N132" s="37"/>
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
       <c r="Q132" s="10"/>
-      <c r="R132" s="35"/>
+      <c r="R132" s="34"/>
     </row>
     <row r="133">
-      <c r="A133" s="34" t="s">
+      <c r="A133" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="C133" s="36" t="s">
+      <c r="C133" s="35" t="s">
         <v>391</v>
       </c>
       <c r="D133" s="10"/>
-      <c r="E133" s="37" t="b">
+      <c r="E133" s="36" t="b">
         <v>1</v>
       </c>
       <c r="F133" s="25" t="s">
@@ -5657,28 +5852,28 @@
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
-      <c r="J133" s="35"/>
+      <c r="J133" s="34"/>
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
       <c r="M133" s="10"/>
-      <c r="N133" s="38"/>
+      <c r="N133" s="37"/>
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
       <c r="Q133" s="10"/>
-      <c r="R133" s="35"/>
+      <c r="R133" s="34"/>
     </row>
     <row r="134">
-      <c r="A134" s="34" t="s">
+      <c r="A134" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="35" t="s">
         <v>391</v>
       </c>
       <c r="D134" s="10"/>
-      <c r="E134" s="37" t="b">
+      <c r="E134" s="36" t="b">
         <v>1</v>
       </c>
       <c r="F134" s="25" t="s">
@@ -5687,15 +5882,15 @@
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
-      <c r="J134" s="35"/>
+      <c r="J134" s="34"/>
       <c r="K134" s="10"/>
       <c r="L134" s="10"/>
       <c r="M134" s="10"/>
-      <c r="N134" s="38"/>
+      <c r="N134" s="37"/>
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
       <c r="Q134" s="10"/>
-      <c r="R134" s="35"/>
+      <c r="R134" s="34"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="s">
@@ -5704,7 +5899,7 @@
       <c r="B135" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C135" s="39" t="s">
+      <c r="C135" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F135" s="4" t="s">
@@ -5725,7 +5920,7 @@
       <c r="B136" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C136" s="39" t="s">
+      <c r="C136" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F136" s="4" t="s">
@@ -5743,7 +5938,7 @@
       <c r="B137" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C137" s="39" t="s">
+      <c r="C137" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F137" s="4" t="s">
@@ -5761,7 +5956,7 @@
       <c r="B138" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C138" s="39" t="s">
+      <c r="C138" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F138" s="4" t="s">
@@ -5779,7 +5974,7 @@
       <c r="B139" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C139" s="39" t="s">
+      <c r="C139" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F139" s="4" t="s">
@@ -5797,7 +5992,7 @@
       <c r="B140" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C140" s="39" t="s">
+      <c r="C140" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F140" s="4" t="s">
@@ -5815,7 +6010,7 @@
       <c r="B141" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="39" t="s">
+      <c r="C141" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F141" s="4" t="s">
@@ -5833,7 +6028,7 @@
       <c r="B142" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C142" s="39" t="s">
+      <c r="C142" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F142" s="4" t="s">
@@ -5851,7 +6046,7 @@
       <c r="B143" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C143" s="39" t="s">
+      <c r="C143" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F143" s="4" t="s">
@@ -5869,7 +6064,7 @@
       <c r="B144" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C144" s="39" t="s">
+      <c r="C144" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F144" s="4" t="s">
@@ -5887,7 +6082,7 @@
       <c r="B145" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C145" s="39" t="s">
+      <c r="C145" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F145" s="4" t="s">
@@ -5905,7 +6100,7 @@
       <c r="B146" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="C146" s="39" t="s">
+      <c r="C146" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F146" s="4" t="s">
@@ -5923,7 +6118,7 @@
       <c r="B147" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C147" s="39" t="s">
+      <c r="C147" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F147" s="4" t="s">
@@ -5941,7 +6136,7 @@
       <c r="B148" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C148" s="39" t="s">
+      <c r="C148" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F148" s="4" t="s">
@@ -5959,7 +6154,7 @@
       <c r="B149" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C149" s="39" t="s">
+      <c r="C149" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F149" s="4" t="s">
@@ -5980,7 +6175,7 @@
       <c r="B150" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C150" s="39" t="s">
+      <c r="C150" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F150" s="4" t="s">
@@ -6001,7 +6196,7 @@
       <c r="B151" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C151" s="39" t="s">
+      <c r="C151" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F151" s="4" t="s">
@@ -6022,7 +6217,7 @@
       <c r="B152" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C152" s="39" t="s">
+      <c r="C152" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F152" s="4" t="s">
@@ -6043,7 +6238,7 @@
       <c r="B153" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C153" s="39" t="s">
+      <c r="C153" s="38" t="s">
         <v>395</v>
       </c>
       <c r="F153" s="4" t="s">
@@ -6058,30 +6253,30 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="40">
+      <c r="A154" s="39">
         <v>229.0</v>
       </c>
-      <c r="B154" s="35" t="s">
+      <c r="B154" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="C154" s="36" t="s">
+      <c r="C154" s="35" t="s">
         <v>377</v>
       </c>
       <c r="D154" s="10"/>
-      <c r="E154" s="41" t="b">
+      <c r="E154" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="F154" s="35"/>
+      <c r="F154" s="34"/>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
-      <c r="I154" s="42" t="s">
+      <c r="I154" s="41" t="s">
         <v>425</v>
       </c>
-      <c r="J154" s="35"/>
-      <c r="K154" s="42"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="41"/>
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
-      <c r="N154" s="38"/>
+      <c r="N154" s="37"/>
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
       <c r="Q154" s="10"/>
@@ -6107,600 +6302,600 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>426</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>428</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>429</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>431</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>432</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>434</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>435</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>437</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>438</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>441</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>443</v>
       </c>
       <c r="D7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>444</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>446</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>447</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>449</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>450</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>452</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>453</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>455</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>456</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>458</v>
       </c>
       <c r="D12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>459</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>461</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>462</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>464</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>465</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>467</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>468</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="46" t="s">
         <v>470</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>471</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="46" t="s">
         <v>440</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>473</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="46" t="s">
         <v>475</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>476</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="48" t="s">
         <v>478</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>479</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="49" t="s">
         <v>481</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>482</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>484</v>
       </c>
       <c r="D21" s="10"/>
     </row>
     <row r="22">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="45" t="s">
         <v>485</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="49" t="s">
         <v>487</v>
       </c>
       <c r="D22" s="16"/>
     </row>
     <row r="23">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>488</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>490</v>
       </c>
       <c r="D23" s="16"/>
     </row>
     <row r="24">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="45" t="s">
         <v>491</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="46" t="s">
         <v>493</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="45" t="s">
         <v>494</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="46" t="s">
         <v>496</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
         <v>497</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="46" t="s">
         <v>499</v>
       </c>
       <c r="D26" s="22"/>
     </row>
     <row r="27">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>500</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="46" t="s">
         <v>502</v>
       </c>
       <c r="D27" s="22"/>
     </row>
     <row r="28">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>503</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="46" t="s">
         <v>505</v>
       </c>
       <c r="D28" s="22"/>
     </row>
     <row r="29">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="45" t="s">
         <v>506</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>507</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="46" t="s">
         <v>508</v>
       </c>
       <c r="D29" s="22"/>
     </row>
     <row r="30">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="45" t="s">
         <v>509</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="46" t="s">
         <v>511</v>
       </c>
       <c r="D30" s="22"/>
     </row>
     <row r="31">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="45" t="s">
         <v>512</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="46" t="s">
         <v>514</v>
       </c>
       <c r="D31" s="22"/>
     </row>
     <row r="32">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="45" t="s">
         <v>515</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="46" t="s">
         <v>517</v>
       </c>
       <c r="D32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>518</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="46" t="s">
         <v>520</v>
       </c>
       <c r="D33" s="22"/>
     </row>
     <row r="34">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="45" t="s">
         <v>521</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>522</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="46" t="s">
         <v>523</v>
       </c>
       <c r="D34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="45" t="s">
         <v>524</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="46" t="s">
         <v>526</v>
       </c>
       <c r="D35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="45" t="s">
         <v>527</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="50" t="s">
         <v>529</v>
       </c>
       <c r="D36" s="10"/>
     </row>
     <row r="37">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="45" t="s">
         <v>530</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="50" t="s">
         <v>532</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="45" t="s">
         <v>533</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="50" t="s">
         <v>535</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="45" t="s">
         <v>536</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="49" t="s">
         <v>537</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="45" t="s">
         <v>538</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="49" t="s">
         <v>540</v>
       </c>
       <c r="D40" s="10"/>
     </row>
     <row r="41">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="45" t="s">
         <v>541</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="51" t="s">
         <v>543</v>
       </c>
       <c r="D41" s="10"/>
     </row>
     <row r="42">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="45" t="s">
         <v>544</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="D42" s="54"/>
+      <c r="D42" s="53"/>
     </row>
     <row r="43">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="45" t="s">
         <v>547</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="54" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="45" t="s">
         <v>550</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="54" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="45" t="s">
         <v>553</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="55" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="45" t="s">
         <v>556</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="52" t="s">
         <v>558</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="56"/>
     </row>
     <row r="47">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="45" t="s">
         <v>559</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="52" t="s">
         <v>561</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="45" t="s">
         <v>562</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="52" t="s">
         <v>564</v>
       </c>
-      <c r="D48" s="57"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="45" t="s">
         <v>565</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="55" t="s">
         <v>567</v>
       </c>
-      <c r="D49" s="57"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="45" t="s">
         <v>568</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="55" t="s">
         <v>570</v>
       </c>
     </row>
@@ -6738,7 +6933,7 @@
       <c r="E1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -7100,7 +7295,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -7124,13 +7319,13 @@
       <c r="I1" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>637</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="60" t="s">
         <v>639</v>
       </c>
       <c r="M1" s="10" t="s">
@@ -7141,14 +7336,14 @@
       <c r="A2" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>641</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -7165,14 +7360,14 @@
       <c r="A3" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>645</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -7192,13 +7387,13 @@
       <c r="A4" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>650</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -7215,13 +7410,13 @@
       <c r="A5" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>652</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -7241,13 +7436,13 @@
       <c r="A6" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -7264,13 +7459,13 @@
       <c r="A7" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -7290,13 +7485,13 @@
       <c r="A8" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -7313,13 +7508,13 @@
       <c r="A9" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>662</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -7339,13 +7534,13 @@
       <c r="A10" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>665</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -7362,13 +7557,13 @@
       <c r="A11" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>667</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -7388,13 +7583,13 @@
       <c r="A12" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>670</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -7411,13 +7606,13 @@
       <c r="A13" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -7437,13 +7632,13 @@
       <c r="A14" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -7460,13 +7655,13 @@
       <c r="A15" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>677</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -7486,13 +7681,13 @@
       <c r="A16" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>680</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -7509,13 +7704,13 @@
       <c r="A17" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>682</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -7535,13 +7730,13 @@
       <c r="A18" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>685</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -7558,13 +7753,13 @@
       <c r="A19" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>687</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -7584,13 +7779,13 @@
       <c r="A20" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>690</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -7607,13 +7802,13 @@
       <c r="A21" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>692</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -7633,13 +7828,13 @@
       <c r="A22" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>695</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -7656,13 +7851,13 @@
       <c r="A23" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>697</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -7682,13 +7877,13 @@
       <c r="A24" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>700</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -7705,13 +7900,13 @@
       <c r="A25" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>702</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -7731,13 +7926,13 @@
       <c r="A26" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>705</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -7754,13 +7949,13 @@
       <c r="A27" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>707</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E27" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -7772,7 +7967,7 @@
       <c r="K27" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="L27" s="65" t="s">
+      <c r="L27" s="4" t="s">
         <v>708</v>
       </c>
     </row>
@@ -7780,13 +7975,13 @@
       <c r="A28" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -7803,13 +7998,13 @@
       <c r="A29" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="29" t="s">
         <v>712</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E29" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F29" s="4" t="s">
@@ -7829,13 +8024,13 @@
       <c r="A30" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E30" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -7847,7 +8042,7 @@
       <c r="K30" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="L30" s="66" t="s">
+      <c r="L30" s="63" t="s">
         <v>718</v>
       </c>
     </row>
@@ -7855,13 +8050,13 @@
       <c r="A31" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="29" t="s">
         <v>720</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -7878,13 +8073,13 @@
       <c r="A32" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="29" t="s">
         <v>722</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E32" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F32" s="4" t="s">
@@ -7904,13 +8099,13 @@
       <c r="A33" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>727</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E33" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -7930,13 +8125,13 @@
       <c r="A34" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>732</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F34" s="4" t="s">
@@ -7956,13 +8151,13 @@
       <c r="A35" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>736</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F35" s="4" t="s">
@@ -7982,13 +8177,13 @@
       <c r="A36" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>740</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E36" s="64" t="s">
+      <c r="E36" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -8008,13 +8203,13 @@
       <c r="A37" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="29" t="s">
         <v>744</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -8031,13 +8226,13 @@
       <c r="A38" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>746</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E38" s="64" t="s">
+      <c r="E38" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -8057,13 +8252,13 @@
       <c r="A39" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>750</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F39" s="4" t="s">
@@ -8080,13 +8275,13 @@
       <c r="A40" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>752</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -8106,13 +8301,13 @@
       <c r="A41" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>756</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -8129,13 +8324,13 @@
       <c r="A42" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>758</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E42" s="64" t="s">
+      <c r="E42" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F42" s="4" t="s">
@@ -8155,13 +8350,13 @@
       <c r="A43" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>762</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="61" t="s">
         <v>642</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="33" t="s">
         <v>389</v>
       </c>
       <c r="F43" s="4" t="s">
@@ -8178,13 +8373,13 @@
       <c r="A44" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>764</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="61" t="s">
         <v>645</v>
       </c>
-      <c r="E44" s="64" t="s">
+      <c r="E44" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F44" s="4" t="s">
@@ -8204,16 +8399,16 @@
       <c r="A45" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="29" t="s">
         <v>768</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="64" t="s">
         <v>770</v>
       </c>
-      <c r="E45" s="33"/>
+      <c r="E45" s="32"/>
       <c r="F45" s="4" t="s">
         <v>771</v>
       </c>
@@ -8362,28 +8557,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>632</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>777</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>778</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>779</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="66" t="s">
         <v>574</v>
       </c>
     </row>
@@ -8397,7 +8592,7 @@
       <c r="C2" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="64"/>
       <c r="H2" s="4" t="s">
         <v>782</v>
       </c>
@@ -8409,10 +8604,10 @@
       <c r="B3" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="F3" s="67"/>
+      <c r="F3" s="64"/>
       <c r="H3" s="4" t="s">
         <v>785</v>
       </c>
@@ -8424,10 +8619,10 @@
       <c r="B4" s="4" t="s">
         <v>786</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="F4" s="67"/>
+      <c r="F4" s="64"/>
       <c r="H4" s="4" t="s">
         <v>785</v>
       </c>
@@ -8439,10 +8634,10 @@
       <c r="B5" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="64"/>
       <c r="H5" s="4" t="s">
         <v>785</v>
       </c>
@@ -8454,10 +8649,10 @@
       <c r="B6" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="64"/>
       <c r="H6" s="4" t="s">
         <v>785</v>
       </c>
@@ -8469,10 +8664,10 @@
       <c r="B7" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="64"/>
       <c r="H7" s="4" t="s">
         <v>785</v>
       </c>
@@ -8497,7 +8692,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8514,7 +8709,7 @@
       <c r="A2" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="68" t="s">
         <v>797</v>
       </c>
     </row>
@@ -8522,7 +8717,7 @@
       <c r="A3" s="4" t="s">
         <v>798</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="68" t="s">
         <v>799</v>
       </c>
     </row>
@@ -8530,7 +8725,7 @@
       <c r="A4" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="68" t="s">
         <v>801</v>
       </c>
     </row>
@@ -8538,7 +8733,7 @@
       <c r="A5" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="68" t="s">
         <v>803</v>
       </c>
     </row>
@@ -8546,16 +8741,16 @@
       <c r="A6" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="69" t="s">
         <v>804</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="69" t="s">
         <v>806</v>
       </c>
     </row>
@@ -8573,147 +8768,57 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="37.71"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="B1" s="74" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="75" t="s">
+      <c r="C2" s="73" t="s">
         <v>809</v>
       </c>
-      <c r="B2" s="76" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="74" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="75" t="s">
+      <c r="B3" s="75" t="s">
         <v>811</v>
       </c>
-      <c r="B3" s="76" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="74" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="75" t="s">
+      <c r="B4" s="10" t="s">
         <v>813</v>
       </c>
-      <c r="B4" s="76" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="74" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="75" t="s">
+      <c r="B5" s="10" t="s">
         <v>815</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="75" t="s">
-        <v>817</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="75" t="s">
-        <v>819</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="75" t="s">
-        <v>821</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="75" t="s">
-        <v>823</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="75" t="s">
-        <v>825</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="75" t="s">
-        <v>827</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="75" t="s">
-        <v>829</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="75" t="s">
-        <v>831</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="75" t="s">
-        <v>833</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="75" t="s">
-        <v>835</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>836</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="B3"/>
-    <hyperlink r:id="rId3" ref="B4"/>
-    <hyperlink r:id="rId4" ref="B5"/>
-    <hyperlink r:id="rId5" ref="B6"/>
-    <hyperlink r:id="rId6" ref="B7"/>
-    <hyperlink r:id="rId7" ref="B8"/>
-    <hyperlink r:id="rId8" ref="B9"/>
-    <hyperlink r:id="rId9" ref="B10"/>
-    <hyperlink r:id="rId10" ref="B11"/>
-    <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
-    <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink r:id="rId2" ref="A4"/>
+    <hyperlink r:id="rId3" ref="A5"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -10,10 +10,10 @@
     <sheet state="visible" name="chains" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="nodes" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="groups" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="publications" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="contributors" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="localConventions" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="neurons" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="neurons" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="references" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="contributors" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="localConventions" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="883">
   <si>
     <t>id</t>
   </si>
@@ -74,7 +74,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>external</t>
+    <t>ontologyTerms</t>
   </si>
   <si>
     <t>abbreviation</t>
@@ -1790,7 +1790,7 @@
     <t>conveyingLyph</t>
   </si>
   <si>
-    <t>publications</t>
+    <t>references</t>
   </si>
   <si>
     <t>lnk-snt1_1</t>
@@ -2408,6 +2408,9 @@
     <t>groups</t>
   </si>
   <si>
+    <t>neuronTypes</t>
+  </si>
+  <si>
     <t>Neuron 1</t>
   </si>
   <si>
@@ -2417,6 +2420,9 @@
     <t>PMID: 8300416, PMID: 3198482, PMID: 2384334</t>
   </si>
   <si>
+    <t>sympathetic pre-ganglionic neuron</t>
+  </si>
+  <si>
     <t>Neuron 2</t>
   </si>
   <si>
@@ -2426,6 +2432,9 @@
     <t>doi:10.1016/B978-0-444-53491-0.09985-5</t>
   </si>
   <si>
+    <t>parasympathetic pre-ganglionic neuron</t>
+  </si>
+  <si>
     <t>Neuron 3</t>
   </si>
   <si>
@@ -2450,6 +2459,108 @@
     <t>ilxtr:neuron-type-bromo-6</t>
   </si>
   <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>constant phenotypes</t>
+  </si>
+  <si>
+    <t>orthgonal phenotype groups</t>
+  </si>
+  <si>
+    <t>chain ordering</t>
+  </si>
+  <si>
+    <t>id list</t>
+  </si>
+  <si>
+    <t>list of id lists</t>
+  </si>
+  <si>
+    <t>list of chains?</t>
+  </si>
+  <si>
+    <t>phenotype</t>
+  </si>
+  <si>
+    <t>predicate</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>soma</t>
+  </si>
+  <si>
+    <t>housing lyph or ontologyTerms id</t>
+  </si>
+  <si>
+    <t>axon</t>
+  </si>
+  <si>
+    <t>dendrite</t>
+  </si>
+  <si>
+    <t>axon terminal</t>
+  </si>
+  <si>
+    <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>Expanded Term</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>Sympathetic Pre-Ganglionic neuron</t>
+  </si>
+  <si>
+    <t>PSPR</t>
+  </si>
+  <si>
+    <t>Parasympathetic Pre-Ganglionic neuron</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>ApiNATOMY model of bronchomotor control</t>
+  </si>
+  <si>
+    <t>Model short name</t>
+  </si>
+  <si>
+    <t>Model Decription</t>
+  </si>
+  <si>
+    <t>This digital record documents the ApiNATOMY representation of the neural circuits for visceral afferents from, and para/sympathetic effectors to, the lower airways. ApiNATOMY is a set of tools that produces simple, consistent anatomy schematics overlaid with ontological information. These tools are used to build routing and connectivity graphs (or wiring diagrams). This record contains a docs folder, a source folder, and a README text file. The Docs folder contains 2 PDF documents, with a schematic image of the ApiNATOMY model and a slide presentation documenting the anatomical structures each neuron population travels through in the schematic image. The Source folder contains the ApiNATOMY representation of the model in JSON and .xlsx formats. Lastly, the README .md document includes a brief description, keywords, and reference references to construct the knowledge within the model.</t>
+  </si>
+  <si>
+    <t>Link to annotated map in Google Slides</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/presentation/d/1jx7djrE9LgWagZJ2gIRkl9br5CsFio-8yv89r0U7MJo/edit</t>
+  </si>
+  <si>
+    <t>Link to model in Github</t>
+  </si>
+  <si>
+    <t>https://github.com/open-physiology/apinatomy-models/tree/master/bronchomotor</t>
+  </si>
+  <si>
+    <t>Link to model in Zenodo</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/deposit/4592365</t>
+  </si>
+  <si>
+    <t>Lnk to reference statements</t>
+  </si>
+  <si>
+    <t>Link to papers (internal)</t>
+  </si>
+  <si>
     <t>uri</t>
   </si>
   <si>
@@ -2492,30 +2603,30 @@
     <t>notes</t>
   </si>
   <si>
+    <t>https://orcid.org/0000-0002-2308-8813</t>
+  </si>
+  <si>
+    <t>Monique Surles-Zeigler</t>
+  </si>
+  <si>
+    <t>permission received</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7509-4801</t>
+  </si>
+  <si>
+    <t>Thomas H Gillespie</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0638-5274</t>
+  </si>
+  <si>
+    <t>Bernard de Bono</t>
+  </si>
+  <si>
     <t>Don Bolser</t>
   </si>
   <si>
-    <t>need to send email for permission</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-2308-8813</t>
-  </si>
-  <si>
-    <t>Monique Surles-Zeigler</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0002-7509-4801</t>
-  </si>
-  <si>
-    <t>Thomas H Gillespie</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0003-0638-5274</t>
-  </si>
-  <si>
-    <t>Bernard de Bono</t>
-  </si>
-  <si>
     <t>prefix</t>
   </si>
   <si>
@@ -2604,115 +2715,13 @@
   </si>
   <si>
     <t>http://uri.interlex.org/tgbugs/uris/readable/</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>constant phenotypes</t>
-  </si>
-  <si>
-    <t>orthgonal phenotype groups</t>
-  </si>
-  <si>
-    <t>chain ordering</t>
-  </si>
-  <si>
-    <t>id list</t>
-  </si>
-  <si>
-    <t>list of id lists</t>
-  </si>
-  <si>
-    <t>list of chains?</t>
-  </si>
-  <si>
-    <t>phenotype</t>
-  </si>
-  <si>
-    <t>predicate</t>
-  </si>
-  <si>
-    <t>object</t>
-  </si>
-  <si>
-    <t>soma</t>
-  </si>
-  <si>
-    <t>housing lyph or external id</t>
-  </si>
-  <si>
-    <t>axon</t>
-  </si>
-  <si>
-    <t>dendrite</t>
-  </si>
-  <si>
-    <t>axon terminal</t>
-  </si>
-  <si>
-    <t>Abbreviations</t>
-  </si>
-  <si>
-    <t>Expanded Term</t>
-  </si>
-  <si>
-    <t>SPR</t>
-  </si>
-  <si>
-    <t>Sympathetic Pre-Ganglionic neuron</t>
-  </si>
-  <si>
-    <t>PSPR</t>
-  </si>
-  <si>
-    <t>Parasympathetic Pre-Ganglionic neuron</t>
-  </si>
-  <si>
-    <t>Model Name</t>
-  </si>
-  <si>
-    <t>ApiNATOMY model of bronchomotor control</t>
-  </si>
-  <si>
-    <t>Model short name</t>
-  </si>
-  <si>
-    <t>Model Decription</t>
-  </si>
-  <si>
-    <t>This digital record documents the ApiNATOMY representation of the neural circuits for visceral afferents from, and para/sympathetic effectors to, the lower airways. ApiNATOMY is a set of tools that produces simple, consistent anatomy schematics overlaid with ontological information. These tools are used to build routing and connectivity graphs (or wiring diagrams). This record contains a docs folder, a source folder, and a README text file. The Docs folder contains 2 PDF documents, with a schematic image of the ApiNATOMY model and a slide presentation documenting the anatomical structures each neuron population travels through in the schematic image. The Source folder contains the ApiNATOMY representation of the model in JSON and .xlsx formats. Lastly, the README .md document includes a brief description, keywords, and reference publications to construct the knowledge within the model.</t>
-  </si>
-  <si>
-    <t>Link to annotated map in Google Slides</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/presentation/d/1jx7djrE9LgWagZJ2gIRkl9br5CsFio-8yv89r0U7MJo/edit</t>
-  </si>
-  <si>
-    <t>Link to model in Github</t>
-  </si>
-  <si>
-    <t>https://github.com/open-physiology/apinatomy-models/tree/master/bronchomotor</t>
-  </si>
-  <si>
-    <t>Link to model in Zenodo</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/deposit/4592365</t>
-  </si>
-  <si>
-    <t>Lnk to reference statements</t>
-  </si>
-  <si>
-    <t>Link to papers (internal)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2792,6 +2801,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="&quot;Droid Sans Mono&quot;"/>
@@ -2808,30 +2826,12 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2900,6 +2900,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2912,7 +2915,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -3026,7 +3029,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
@@ -3066,6 +3069,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3090,22 +3096,31 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -3115,27 +3130,12 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3406,18 +3406,18 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3436,128 +3436,200 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="79" t="s">
+        <v>845</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>846</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="79" t="s">
+        <v>848</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="79" t="s">
+        <v>850</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="81" t="s">
+        <v>852</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>847</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="37.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="76" t="s">
-        <v>816</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>817</v>
+      <c r="A1" s="82" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="77" t="s">
-        <v>818</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>819</v>
+      <c r="A2" s="83" t="s">
+        <v>855</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="77" t="s">
-        <v>820</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>821</v>
+      <c r="A3" s="83" t="s">
+        <v>857</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="77" t="s">
-        <v>822</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>823</v>
+      <c r="A4" s="83" t="s">
+        <v>859</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="77" t="s">
-        <v>824</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>825</v>
+      <c r="A5" s="83" t="s">
+        <v>861</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="77" t="s">
-        <v>826</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>827</v>
+      <c r="A6" s="83" t="s">
+        <v>863</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="77" t="s">
-        <v>828</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>829</v>
+      <c r="A7" s="83" t="s">
+        <v>865</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="77" t="s">
-        <v>830</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>831</v>
+      <c r="A8" s="83" t="s">
+        <v>867</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="77" t="s">
-        <v>832</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>833</v>
+      <c r="A9" s="83" t="s">
+        <v>869</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="77" t="s">
-        <v>834</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>835</v>
+      <c r="A10" s="83" t="s">
+        <v>871</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="77" t="s">
-        <v>836</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>837</v>
+      <c r="A11" s="83" t="s">
+        <v>873</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="77" t="s">
-        <v>838</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>839</v>
+      <c r="A12" s="83" t="s">
+        <v>875</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="77" t="s">
-        <v>840</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>841</v>
+      <c r="A13" s="83" t="s">
+        <v>877</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="77" t="s">
-        <v>842</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>843</v>
+      <c r="A14" s="83" t="s">
+        <v>879</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="77" t="s">
-        <v>844</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>845</v>
+      <c r="A15" s="83" t="s">
+        <v>881</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -3578,373 +3650,6 @@
     <hyperlink r:id="rId14" ref="B15"/>
   </hyperlinks>
   <drawing r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>846</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>849</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>850</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>853</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>854</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>860</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>861</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>863</v>
-      </c>
-      <c r="B12" s="79" t="s">
-        <v>864</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>866</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>867</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>868</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>870</v>
-      </c>
-      <c r="B17" s="81" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="10"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="66" t="s">
-        <v>872</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="66" t="s">
-        <v>874</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="66" t="s">
-        <v>876</v>
-      </c>
-      <c r="B26" s="83" t="s">
-        <v>877</v>
-      </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-    </row>
-    <row r="27" hidden="1">
-      <c r="A27" s="10" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="28" hidden="1">
-      <c r="A28" s="10" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B17:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B24"/>
-    <hyperlink r:id="rId2" ref="B25"/>
-    <hyperlink r:id="rId3" ref="B26"/>
-  </hyperlinks>
-  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3971,2316 +3676,2316 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="4" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="11"/>
+      <c r="J9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="11"/>
+      <c r="J15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>6.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="4" t="b">
+      <c r="E16" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14" t="s">
+      <c r="L17" s="15"/>
+      <c r="M17" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="22"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="22"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="22"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="22"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="22"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="22"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I34" s="22"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I35" s="22"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="22"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I37" s="22"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I38" s="22"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I39" s="22"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="22"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I41" s="22"/>
+      <c r="I41" s="23"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I42" s="22"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I43" s="22"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I44" s="22"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="I45" s="22"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="I46" s="22"/>
+      <c r="C46" s="14"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I47" s="22"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I48" s="22"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I49" s="10"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I50" s="10"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I51" s="10"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I52" s="10"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I53" s="10"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I54" s="10"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I55" s="10"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I56" s="10"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I57" s="10"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I58" s="10"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I59" s="10"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="I60" s="10"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I61" s="10"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="I62" s="10"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="I63" s="10"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="I64" s="10"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="I65" s="10"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I66" s="10"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="I67" s="10"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="I68" s="10"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="I69" s="10"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="I70" s="10"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="I71" s="10"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="I72" s="10"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I73" s="10"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I74" s="10"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I75" s="10"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I76" s="10"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I77" s="10"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I78" s="10"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I79" s="10"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I80" s="10"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I81" s="10"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I82" s="10"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="B83" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I83" s="10"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="I84" s="10"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85">
-      <c r="A85" s="26" t="s">
+      <c r="A85" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="I85" s="10"/>
+      <c r="I85" s="11"/>
     </row>
     <row r="86">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I86" s="10"/>
+      <c r="I86" s="11"/>
     </row>
     <row r="87">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I87" s="10"/>
+      <c r="I87" s="11"/>
     </row>
     <row r="88">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I88" s="10"/>
+      <c r="I88" s="11"/>
     </row>
     <row r="89">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I89" s="10"/>
+      <c r="I89" s="11"/>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I90" s="10"/>
+      <c r="I90" s="11"/>
     </row>
     <row r="91">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I91" s="10"/>
+      <c r="I91" s="11"/>
     </row>
     <row r="92">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I92" s="10"/>
+      <c r="I92" s="11"/>
     </row>
     <row r="93">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I93" s="10"/>
+      <c r="I93" s="11"/>
     </row>
     <row r="94">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I94" s="10"/>
+      <c r="I94" s="11"/>
     </row>
     <row r="95">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I95" s="10"/>
+      <c r="I95" s="11"/>
     </row>
     <row r="96">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I96" s="10"/>
+      <c r="I96" s="11"/>
     </row>
     <row r="97">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I97" s="10"/>
+      <c r="I97" s="11"/>
     </row>
     <row r="98">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I98" s="10"/>
+      <c r="I98" s="11"/>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I99" s="10"/>
+      <c r="I99" s="11"/>
     </row>
     <row r="100">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="I100" s="3"/>
+      <c r="I100" s="4"/>
     </row>
     <row r="101">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="I101" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="I102" s="10"/>
+      <c r="I102" s="11"/>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="M103" s="4" t="s">
+      <c r="I103" s="4"/>
+      <c r="M103" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="N103" s="4">
+      <c r="N103" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="I105" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="M105" s="4" t="s">
+      <c r="M105" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="N105" s="4" t="s">
+      <c r="N105" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="I106" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="M106" s="4" t="s">
+      <c r="M106" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="N106" s="4" t="s">
+      <c r="N106" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="I107" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="M107" s="4" t="s">
+      <c r="M107" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="N107" s="4" t="s">
+      <c r="N107" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="I108" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="M108" s="4" t="s">
+      <c r="M108" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="N108" s="4" t="s">
+      <c r="N108" s="5" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="I109" s="10"/>
+      <c r="I109" s="11"/>
     </row>
     <row r="110">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C110" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="I110" s="10"/>
+      <c r="I110" s="11"/>
     </row>
     <row r="111">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="I111" s="10"/>
+      <c r="I111" s="11"/>
     </row>
     <row r="112">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C112" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="I112" s="10"/>
+      <c r="I112" s="11"/>
     </row>
     <row r="113">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="29" t="s">
+      <c r="C113" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="E113" s="4" t="b">
+      <c r="E113" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="I113" s="4" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="29" t="s">
+      <c r="C114" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="E114" s="4" t="b">
+      <c r="E114" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I114" s="24"/>
-      <c r="M114" s="4" t="s">
+      <c r="I114" s="25"/>
+      <c r="M114" s="5" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C115" s="29" t="s">
+      <c r="C115" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I115" s="24"/>
+      <c r="I115" s="25"/>
     </row>
     <row r="116">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C116" s="29" t="s">
+      <c r="C116" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I116" s="24"/>
+      <c r="I116" s="25"/>
     </row>
     <row r="117">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="C117" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I117" s="24"/>
+      <c r="I117" s="25"/>
     </row>
     <row r="118">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C118" s="29" t="s">
+      <c r="C118" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="I118" s="24"/>
+      <c r="I118" s="25"/>
     </row>
     <row r="119">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="I119" s="22"/>
+      <c r="I119" s="23"/>
     </row>
     <row r="120">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="I120" s="24"/>
+      <c r="I120" s="25"/>
     </row>
     <row r="121">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="I121" s="24"/>
+      <c r="I121" s="25"/>
     </row>
     <row r="122">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="29" t="s">
+      <c r="C122" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="I122" s="24"/>
+      <c r="I122" s="25"/>
     </row>
     <row r="123">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C123" s="29" t="s">
+      <c r="C123" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="I123" s="10"/>
+      <c r="I123" s="11"/>
     </row>
     <row r="124">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="I124" s="24"/>
+      <c r="I124" s="25"/>
     </row>
     <row r="125">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="29" t="s">
+      <c r="C125" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="I125" s="10"/>
+      <c r="I125" s="11"/>
     </row>
     <row r="126">
-      <c r="A126" s="14" t="s">
+      <c r="A126" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="I126" s="10"/>
+      <c r="I126" s="11"/>
     </row>
     <row r="127">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C127" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="I127" s="10"/>
+      <c r="I127" s="11"/>
     </row>
     <row r="128">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C128" s="29" t="s">
+      <c r="C128" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="I128" s="10"/>
+      <c r="I128" s="11"/>
     </row>
     <row r="129">
-      <c r="A129" s="31" t="s">
+      <c r="A129" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="C129" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E129" s="4" t="b">
+      <c r="E129" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I129" s="3" t="s">
+      <c r="I129" s="4" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="32" t="s">
+      <c r="A130" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E130" s="4" t="b">
+      <c r="E130" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I130" s="10"/>
+      <c r="I130" s="11"/>
     </row>
     <row r="131">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="B131" s="34" t="s">
+      <c r="B131" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="C131" s="35" t="s">
+      <c r="C131" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="36" t="b">
+      <c r="D131" s="11"/>
+      <c r="E131" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="F131" s="25" t="s">
+      <c r="F131" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="37"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="34"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="38"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="35"/>
     </row>
     <row r="132">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="34" t="s">
+      <c r="B132" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="C132" s="35" t="s">
+      <c r="C132" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="D132" s="10"/>
-      <c r="E132" s="36" t="b">
+      <c r="D132" s="11"/>
+      <c r="E132" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="F132" s="25" t="s">
+      <c r="F132" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="37"/>
-      <c r="O132" s="10"/>
-      <c r="P132" s="10"/>
-      <c r="Q132" s="10"/>
-      <c r="R132" s="34"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="38"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="35"/>
     </row>
     <row r="133">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="C133" s="35" t="s">
+      <c r="C133" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D133" s="10"/>
-      <c r="E133" s="36" t="b">
+      <c r="D133" s="11"/>
+      <c r="E133" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="F133" s="25" t="s">
+      <c r="F133" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="37"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
-      <c r="Q133" s="10"/>
-      <c r="R133" s="34"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="35"/>
     </row>
     <row r="134">
-      <c r="A134" s="33" t="s">
+      <c r="A134" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="B134" s="34" t="s">
+      <c r="B134" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="35" t="s">
+      <c r="C134" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D134" s="10"/>
-      <c r="E134" s="36" t="b">
+      <c r="D134" s="11"/>
+      <c r="E134" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="F134" s="25" t="s">
+      <c r="F134" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="37"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="34"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="38"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="35"/>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C135" s="38" t="s">
+      <c r="C135" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I135" s="10"/>
-      <c r="J135" s="4" t="s">
+      <c r="I135" s="11"/>
+      <c r="J135" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="R135" s="4" t="s">
+      <c r="R135" s="5" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C136" s="38" t="s">
+      <c r="C136" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I136" s="10"/>
-      <c r="J136" s="4" t="s">
+      <c r="I136" s="11"/>
+      <c r="J136" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="C137" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I137" s="10"/>
-      <c r="J137" s="4" t="s">
+      <c r="I137" s="11"/>
+      <c r="J137" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C138" s="38" t="s">
+      <c r="C138" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I138" s="10"/>
-      <c r="J138" s="4" t="s">
+      <c r="I138" s="11"/>
+      <c r="J138" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C139" s="38" t="s">
+      <c r="C139" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I139" s="10"/>
-      <c r="J139" s="4" t="s">
+      <c r="I139" s="11"/>
+      <c r="J139" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C140" s="38" t="s">
+      <c r="C140" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I140" s="10"/>
-      <c r="J140" s="4" t="s">
+      <c r="I140" s="11"/>
+      <c r="J140" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C141" s="38" t="s">
+      <c r="C141" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I141" s="10"/>
-      <c r="J141" s="4" t="s">
+      <c r="I141" s="11"/>
+      <c r="J141" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I142" s="10"/>
-      <c r="J142" s="4" t="s">
+      <c r="I142" s="11"/>
+      <c r="J142" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C143" s="38" t="s">
+      <c r="C143" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I143" s="10"/>
-      <c r="J143" s="4" t="s">
+      <c r="I143" s="11"/>
+      <c r="J143" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C144" s="38" t="s">
+      <c r="C144" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I144" s="10"/>
-      <c r="J144" s="4" t="s">
+      <c r="I144" s="11"/>
+      <c r="J144" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C145" s="38" t="s">
+      <c r="C145" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I145" s="10"/>
-      <c r="J145" s="4" t="s">
+      <c r="I145" s="11"/>
+      <c r="J145" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C146" s="38" t="s">
+      <c r="C146" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I146" s="10"/>
-      <c r="J146" s="4" t="s">
+      <c r="I146" s="11"/>
+      <c r="J146" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C147" s="38" t="s">
+      <c r="C147" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I147" s="10"/>
-      <c r="J147" s="4" t="s">
+      <c r="I147" s="11"/>
+      <c r="J147" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C148" s="38" t="s">
+      <c r="C148" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I148" s="10"/>
-      <c r="J148" s="4" t="s">
+      <c r="I148" s="11"/>
+      <c r="J148" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C149" s="38" t="s">
+      <c r="C149" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I149" s="10"/>
-      <c r="J149" s="4" t="s">
+      <c r="I149" s="11"/>
+      <c r="J149" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="R149" s="4" t="s">
+      <c r="R149" s="5" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C150" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I150" s="10"/>
-      <c r="J150" s="4" t="s">
+      <c r="I150" s="11"/>
+      <c r="J150" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="R150" s="4" t="s">
+      <c r="R150" s="5" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C151" s="38" t="s">
+      <c r="C151" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I151" s="10"/>
-      <c r="J151" s="4" t="s">
+      <c r="I151" s="11"/>
+      <c r="J151" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="R151" s="4" t="s">
+      <c r="R151" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C152" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I152" s="10"/>
-      <c r="J152" s="4" t="s">
+      <c r="I152" s="11"/>
+      <c r="J152" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="R152" s="4" t="s">
+      <c r="R152" s="5" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C153" s="38" t="s">
+      <c r="C153" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="I153" s="10"/>
-      <c r="J153" s="4" t="s">
+      <c r="I153" s="11"/>
+      <c r="J153" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="R153" s="4" t="s">
+      <c r="R153" s="5" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="39">
+      <c r="A154" s="40">
         <v>229.0</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="C154" s="35" t="s">
+      <c r="C154" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="D154" s="10"/>
-      <c r="E154" s="40" t="b">
+      <c r="D154" s="11"/>
+      <c r="E154" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="F154" s="34"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="41" t="s">
+      <c r="F154" s="35"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="J154" s="34"/>
-      <c r="K154" s="41"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="10"/>
-      <c r="N154" s="37"/>
-      <c r="O154" s="10"/>
-      <c r="P154" s="10"/>
-      <c r="Q154" s="10"/>
-      <c r="R154" s="10"/>
+      <c r="J154" s="35"/>
+      <c r="K154" s="42"/>
+      <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
+      <c r="N154" s="38"/>
+      <c r="O154" s="11"/>
+      <c r="P154" s="11"/>
+      <c r="Q154" s="11"/>
+      <c r="R154" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -6302,600 +6007,600 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="D6" s="47"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>444</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>446</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>451</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>455</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="47" t="s">
         <v>461</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="46" t="s">
         <v>462</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="47" t="s">
         <v>475</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>477</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="49" t="s">
         <v>478</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="50" t="s">
         <v>481</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="50" t="s">
         <v>484</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="50" t="s">
         <v>487</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="47" t="s">
         <v>496</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>498</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="47" t="s">
         <v>499</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="47" t="s">
         <v>502</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="47" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="47" t="s">
         <v>508</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="47" t="s">
         <v>511</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="47" t="s">
         <v>514</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="47" t="s">
         <v>517</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="47" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="47" t="s">
         <v>523</v>
       </c>
-      <c r="D34" s="22"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="46" t="s">
         <v>524</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="47" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="22"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>527</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="50" t="s">
         <v>540</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="52" t="s">
         <v>543</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="53" t="s">
         <v>546</v>
       </c>
-      <c r="D42" s="53"/>
+      <c r="D42" s="54"/>
     </row>
     <row r="43">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="55" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="55" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="46" t="s">
         <v>553</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="56" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C46" s="52" t="s">
+      <c r="C46" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="D46" s="56"/>
+      <c r="D46" s="57"/>
     </row>
     <row r="47">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="53" t="s">
         <v>561</v>
       </c>
-      <c r="D47" s="56"/>
+      <c r="D47" s="57"/>
     </row>
     <row r="48">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C48" s="52" t="s">
+      <c r="C48" s="53" t="s">
         <v>564</v>
       </c>
-      <c r="D48" s="56"/>
+      <c r="D48" s="57"/>
     </row>
     <row r="49">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="46" t="s">
         <v>565</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="56" t="s">
         <v>567</v>
       </c>
-      <c r="D49" s="56"/>
+      <c r="D49" s="57"/>
     </row>
     <row r="50">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="56" t="s">
         <v>570</v>
       </c>
     </row>
@@ -6933,333 +6638,333 @@
       <c r="E1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="59" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>4.0</v>
       </c>
     </row>
@@ -7295,10 +7000,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -7319,1104 +7024,1104 @@
       <c r="I1" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="61" t="s">
         <v>637</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="62" t="s">
         <v>639</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="4" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>6.0</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>644</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>650</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>6.0</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>6.0</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>657</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>6.0</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="5" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>6.0</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>670</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>6.0</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>672</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="5" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>6.0</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>6.0</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="30" t="s">
         <v>682</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="5">
         <v>6.0</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="5" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <v>6.0</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="5" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <v>6.0</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>697</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="5" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="30" t="s">
         <v>700</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="5">
         <v>6.0</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>702</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="5" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="30" t="s">
         <v>705</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <v>6.0</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="30" t="s">
         <v>707</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>710</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="5">
         <v>6.0</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="30" t="s">
         <v>712</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="5" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>715</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="L30" s="63" t="s">
+      <c r="L30" s="65" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>720</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="5">
         <v>0.0</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="30" t="s">
         <v>722</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="5" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="30" t="s">
         <v>727</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="5" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>732</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="5" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="30" t="s">
         <v>736</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="5" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="30" t="s">
         <v>740</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="5" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="30" t="s">
         <v>744</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="5">
         <v>0.0</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="5" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="5">
         <v>0.0</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="5" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="30" t="s">
         <v>752</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="5" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="5">
         <v>0.0</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="5" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="30" t="s">
         <v>758</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="5" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="30" t="s">
         <v>762</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="5">
         <v>0.0</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="5" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="30" t="s">
         <v>764</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="5" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="30" t="s">
         <v>768</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="66" t="s">
         <v>770</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="33"/>
+      <c r="F45" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8440,100 +8145,100 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8553,123 +8258,144 @@
     <col customWidth="1" min="3" max="3" width="21.71"/>
     <col customWidth="1" min="5" max="5" width="28.57"/>
     <col customWidth="1" min="6" max="6" width="34.14"/>
-    <col customWidth="1" min="8" max="8" width="46.57"/>
+    <col customWidth="1" min="8" max="9" width="46.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="62" t="s">
         <v>777</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="62" t="s">
         <v>778</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="68" t="s">
         <v>574</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="H2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>782</v>
       </c>
+      <c r="F2" s="66"/>
+      <c r="H2" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="F3" s="64"/>
-      <c r="H3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>785</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F3" s="66"/>
+      <c r="H3" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="H4" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="H4" s="4" t="s">
-        <v>785</v>
+      <c r="I4" s="5" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="F5" s="66"/>
+      <c r="H5" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="H5" s="4" t="s">
-        <v>785</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="H6" s="4" t="s">
-        <v>785</v>
+      <c r="B6" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="H6" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="H7" s="4" t="s">
-        <v>785</v>
+      <c r="B7" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F7" s="66"/>
+      <c r="H7" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -8686,76 +8412,361 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="39.43"/>
-    <col customWidth="1" min="3" max="3" width="53.57"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>797</v>
-      </c>
+      <c r="B2" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>799</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>801</v>
-      </c>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>803</v>
-      </c>
+      <c r="A5" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>804</v>
-      </c>
-      <c r="D6" s="70"/>
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>806</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>811</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>815</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>817</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>819</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="71" t="s">
+        <v>823</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="71" t="s">
+        <v>825</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="71" t="s">
+        <v>827</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>828</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+    </row>
+    <row r="27" hidden="1">
+      <c r="A27" s="11" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
+      <c r="A28" s="11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B17:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B24"/>
+    <hyperlink r:id="rId2" ref="B25"/>
+    <hyperlink r:id="rId3" ref="B26"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -8768,57 +8779,75 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="39.43"/>
+    <col customWidth="1" min="3" max="3" width="53.57"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>807</v>
+      <c r="C1" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72" t="s">
-        <v>808</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>809</v>
+      <c r="A2" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="74" t="s">
-        <v>810</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>811</v>
+      <c r="A3" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="74" t="s">
-        <v>812</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>813</v>
+      <c r="A4" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="74" t="s">
-        <v>814</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>815</v>
+      <c r="A5" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>841</v>
+      </c>
+      <c r="D6" s="78"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-  </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="931">
   <si>
     <t>id</t>
   </si>
@@ -290,7 +290,7 @@
     <t>T13 spinal segment</t>
   </si>
   <si>
-    <t>EMAPA:19554</t>
+    <t>ILX:0793357</t>
   </si>
   <si>
     <t>snt13_1</t>
@@ -452,7 +452,7 @@
     <t>T13 Dorsal Root ganglion</t>
   </si>
   <si>
-    <t>EMAPA:25186</t>
+    <t>ILX:0793359</t>
   </si>
   <si>
     <t>B31</t>
@@ -470,7 +470,7 @@
     <t>T1 ventral root</t>
   </si>
   <si>
-    <t>UBERON:0014617</t>
+    <t>ILX:0787722</t>
   </si>
   <si>
     <t>B33</t>
@@ -479,82 +479,121 @@
     <t>T2 ventral root</t>
   </si>
   <si>
+    <t>ILX:0789894</t>
+  </si>
+  <si>
     <t>B34</t>
   </si>
   <si>
     <t>T3 ventral root</t>
   </si>
   <si>
+    <t>ILX:0784804</t>
+  </si>
+  <si>
     <t>T4 ventral root</t>
   </si>
   <si>
+    <t>ILX:0792838</t>
+  </si>
+  <si>
     <t>B36</t>
   </si>
   <si>
     <t>T5 ventral root</t>
   </si>
   <si>
+    <t>ILX:0790146</t>
+  </si>
+  <si>
     <t>B37</t>
   </si>
   <si>
     <t>T6 ventral root</t>
   </si>
   <si>
+    <t>ILX:0791062</t>
+  </si>
+  <si>
     <t>B38</t>
   </si>
   <si>
     <t>T7 ventral root</t>
   </si>
   <si>
+    <t>ILX:0789966</t>
+  </si>
+  <si>
     <t>B39</t>
   </si>
   <si>
     <t>T8 ventral root</t>
   </si>
   <si>
+    <t>ILX:0788026</t>
+  </si>
+  <si>
     <t>B40</t>
   </si>
   <si>
     <t>T9 ventral root</t>
   </si>
   <si>
+    <t>ILX:0791932</t>
+  </si>
+  <si>
     <t>B41</t>
   </si>
   <si>
     <t>T10 ventral root</t>
   </si>
   <si>
+    <t>ILX:0788670</t>
+  </si>
+  <si>
     <t>B42</t>
   </si>
   <si>
     <t>T11 ventral root</t>
   </si>
   <si>
+    <t>ILX:0790602</t>
+  </si>
+  <si>
     <t>B43</t>
   </si>
   <si>
     <t>T12 ventral root</t>
   </si>
   <si>
+    <t>ILX:0792048</t>
+  </si>
+  <si>
     <t>B44</t>
   </si>
   <si>
     <t>T13 ventral root</t>
   </si>
   <si>
+    <t>ILX:0793207</t>
+  </si>
+  <si>
     <t>B125</t>
   </si>
   <si>
     <t>L1 ventral root</t>
   </si>
   <si>
+    <t>ILX:0785421</t>
+  </si>
+  <si>
     <t>B45</t>
   </si>
   <si>
     <t>T1 - T2 Interganglonic segment</t>
   </si>
   <si>
-    <t>UBERON:0000407</t>
+    <t>ILX:0777094</t>
   </si>
   <si>
     <t>B46</t>
@@ -563,79 +602,115 @@
     <t>T2 - T3 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0777095</t>
+  </si>
+  <si>
     <t>B47</t>
   </si>
   <si>
     <t>T3 - T4 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0777096</t>
+  </si>
+  <si>
     <t>B48</t>
   </si>
   <si>
     <t>T4 - T5 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0777097</t>
+  </si>
+  <si>
     <t>B49</t>
   </si>
   <si>
     <t>T5 - T6 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0777098</t>
+  </si>
+  <si>
     <t>B50</t>
   </si>
   <si>
     <t>T6 - T7 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0793235</t>
+  </si>
+  <si>
     <t>B51</t>
   </si>
   <si>
     <t>T7 - T8 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0793236</t>
+  </si>
+  <si>
     <t>B52</t>
   </si>
   <si>
     <t>T8 - T9 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0793237</t>
+  </si>
+  <si>
     <t>B53</t>
   </si>
   <si>
     <t>T9 - T10 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0793238</t>
+  </si>
+  <si>
     <t>B54</t>
   </si>
   <si>
     <t>T10 - T11 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0793239</t>
+  </si>
+  <si>
     <t>B55</t>
   </si>
   <si>
     <t>T11 - T12 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0793240</t>
+  </si>
+  <si>
     <t>B56</t>
   </si>
   <si>
     <t>T12 - T13 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0777086</t>
+  </si>
+  <si>
     <t>B57</t>
   </si>
   <si>
     <t>T13 - L1 Interganglonic segment</t>
   </si>
   <si>
+    <t>ILX:0777087</t>
+  </si>
+  <si>
     <t>B58</t>
   </si>
   <si>
     <t>T1 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6474</t>
+    <t>ILX:0785119</t>
   </si>
   <si>
     <t>B59</t>
@@ -644,7 +719,7 @@
     <t>T2 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6475</t>
+    <t>ILX:0786228</t>
   </si>
   <si>
     <t>B60</t>
@@ -653,7 +728,7 @@
     <t>T3 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6476</t>
+    <t>ILX:0786722</t>
   </si>
   <si>
     <t>B61</t>
@@ -662,7 +737,7 @@
     <t>T4 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6477</t>
+    <t>ILX:0786272</t>
   </si>
   <si>
     <t>B62</t>
@@ -671,7 +746,7 @@
     <t>T5 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6478</t>
+    <t>ILX:0786141</t>
   </si>
   <si>
     <t>B63</t>
@@ -680,7 +755,7 @@
     <t>T6 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6479</t>
+    <t>ILX:0789947</t>
   </si>
   <si>
     <t>B64</t>
@@ -689,7 +764,7 @@
     <t>T7 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6480</t>
+    <t>ILX:0790482</t>
   </si>
   <si>
     <t>B65</t>
@@ -698,7 +773,7 @@
     <t>T8 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6481</t>
+    <t>ILX:0784721</t>
   </si>
   <si>
     <t>B66</t>
@@ -707,7 +782,7 @@
     <t>T9 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6482</t>
+    <t>ILX:0784378</t>
   </si>
   <si>
     <t>B67</t>
@@ -716,7 +791,7 @@
     <t>T10 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6483</t>
+    <t>ILX:0784569</t>
   </si>
   <si>
     <t>B68</t>
@@ -725,7 +800,7 @@
     <t>T11 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6484</t>
+    <t>ILX:0787015</t>
   </si>
   <si>
     <t>B69</t>
@@ -734,7 +809,7 @@
     <t>T12 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6485</t>
+    <t>ILX:0787009</t>
   </si>
   <si>
     <t>B70</t>
@@ -752,7 +827,7 @@
     <t>T1 white ramus</t>
   </si>
   <si>
-    <t>FMA:14056</t>
+    <t>ILX:0785971</t>
   </si>
   <si>
     <t>B72</t>
@@ -761,79 +836,115 @@
     <t>T2 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793208</t>
+  </si>
+  <si>
     <t>B73</t>
   </si>
   <si>
     <t>T3 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793209</t>
+  </si>
+  <si>
     <t>B74</t>
   </si>
   <si>
     <t>T4 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793210</t>
+  </si>
+  <si>
     <t>B75</t>
   </si>
   <si>
     <t>T5 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793211</t>
+  </si>
+  <si>
     <t>B76</t>
   </si>
   <si>
     <t>T6 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793212</t>
+  </si>
+  <si>
     <t>B77</t>
   </si>
   <si>
     <t>T7 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793213</t>
+  </si>
+  <si>
     <t>B78</t>
   </si>
   <si>
     <t>T8 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793214</t>
+  </si>
+  <si>
     <t>B79</t>
   </si>
   <si>
     <t>T9 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793215</t>
+  </si>
+  <si>
     <t>B80</t>
   </si>
   <si>
     <t>T10 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793216</t>
+  </si>
+  <si>
     <t>B81</t>
   </si>
   <si>
     <t>T11 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793217</t>
+  </si>
+  <si>
     <t>B82</t>
   </si>
   <si>
     <t>T12 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793218</t>
+  </si>
+  <si>
     <t>B84</t>
   </si>
   <si>
     <t>T13 white ramus</t>
   </si>
   <si>
+    <t>ILX:0793219</t>
+  </si>
+  <si>
     <t>B83</t>
   </si>
   <si>
     <t>L1 white ramus</t>
   </si>
   <si>
-    <t>FMA:12686</t>
+    <t>ILX:0793220</t>
   </si>
   <si>
     <t>B85</t>
@@ -842,7 +953,7 @@
     <t>T1 gray ramus</t>
   </si>
   <si>
-    <t>FMA:14055</t>
+    <t>ILX:0787082</t>
   </si>
   <si>
     <t>B86</t>
@@ -851,60 +962,90 @@
     <t>T2 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0791105</t>
+  </si>
+  <si>
     <t>B87</t>
   </si>
   <si>
     <t>T3 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0787562</t>
+  </si>
+  <si>
     <t>B88</t>
   </si>
   <si>
     <t>T4 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0788945</t>
+  </si>
+  <si>
     <t>B89</t>
   </si>
   <si>
     <t>T5 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0784439</t>
+  </si>
+  <si>
     <t>B90</t>
   </si>
   <si>
     <t>T6 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0787946</t>
+  </si>
+  <si>
     <t>B91</t>
   </si>
   <si>
     <t>T7 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0788771</t>
+  </si>
+  <si>
     <t>B92</t>
   </si>
   <si>
     <t>T8 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0791560</t>
+  </si>
+  <si>
     <t>B93</t>
   </si>
   <si>
     <t>T9 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0785542</t>
+  </si>
+  <si>
     <t>B94</t>
   </si>
   <si>
     <t>T10 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0792409</t>
+  </si>
+  <si>
     <t>B95</t>
   </si>
   <si>
     <t>T11 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0785067</t>
+  </si>
+  <si>
     <t>B96</t>
   </si>
   <si>
@@ -917,13 +1058,16 @@
     <t>T13 gray ramus</t>
   </si>
   <si>
+    <t>ILX:0793227</t>
+  </si>
+  <si>
     <t>B124</t>
   </si>
   <si>
     <t>L1 gray ramus</t>
   </si>
   <si>
-    <t>FMA:65910</t>
+    <t>ILX:0785825</t>
   </si>
   <si>
     <t>B98</t>
@@ -2721,11 +2865,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2735,6 +2880,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2756,8 +2906,13 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <color rgb="FF222222"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -2766,6 +2921,11 @@
     </font>
     <font>
       <b/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2801,6 +2961,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
@@ -2823,6 +2987,7 @@
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2830,11 +2995,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2849,6 +3020,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -2857,6 +3034,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -2892,7 +3075,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2908,19 +3091,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2932,7 +3115,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2941,53 +3124,68 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
@@ -3001,7 +3199,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3010,61 +3208,58 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -3074,22 +3269,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3107,35 +3302,35 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3390,10 +3585,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.29"/>
-    <col customWidth="1" min="2" max="2" width="26.86"/>
+    <col customWidth="1" min="1" max="1" width="25.63"/>
+    <col customWidth="1" min="2" max="2" width="23.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3435,7 +3630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
@@ -3445,48 +3640,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>844</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="79" t="s">
-        <v>845</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>846</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>847</v>
+      <c r="A2" s="83" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>894</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="79" t="s">
-        <v>848</v>
+      <c r="A3" s="83" t="s">
+        <v>896</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>847</v>
+        <v>897</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="79" t="s">
-        <v>850</v>
+      <c r="A4" s="83" t="s">
+        <v>898</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>847</v>
+        <v>899</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="81" t="s">
-        <v>852</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>847</v>
+      <c r="B5" s="85" t="s">
+        <v>900</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -3507,129 +3702,129 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="37.71"/>
+    <col customWidth="1" min="2" max="2" width="33.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="s">
-        <v>853</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>854</v>
+      <c r="A1" s="86" t="s">
+        <v>901</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="83" t="s">
-        <v>855</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>856</v>
+      <c r="A2" s="87" t="s">
+        <v>903</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="83" t="s">
-        <v>857</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>858</v>
+      <c r="A3" s="87" t="s">
+        <v>905</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="83" t="s">
-        <v>859</v>
-      </c>
-      <c r="B4" s="84" t="s">
-        <v>860</v>
+      <c r="A4" s="87" t="s">
+        <v>907</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="83" t="s">
-        <v>861</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>862</v>
+      <c r="A5" s="87" t="s">
+        <v>909</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="83" t="s">
-        <v>863</v>
-      </c>
-      <c r="B6" s="84" t="s">
-        <v>864</v>
+      <c r="A6" s="87" t="s">
+        <v>911</v>
+      </c>
+      <c r="B6" s="88" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="83" t="s">
-        <v>865</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>866</v>
+      <c r="A7" s="87" t="s">
+        <v>913</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="83" t="s">
-        <v>867</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>868</v>
+      <c r="A8" s="87" t="s">
+        <v>915</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="83" t="s">
-        <v>869</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>870</v>
+      <c r="A9" s="87" t="s">
+        <v>917</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="83" t="s">
-        <v>871</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>872</v>
+      <c r="A10" s="87" t="s">
+        <v>919</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="83" t="s">
-        <v>873</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>874</v>
+      <c r="A11" s="87" t="s">
+        <v>921</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83" t="s">
-        <v>875</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>876</v>
+      <c r="A12" s="87" t="s">
+        <v>923</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="83" t="s">
-        <v>877</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>878</v>
+      <c r="A13" s="87" t="s">
+        <v>925</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="83" t="s">
-        <v>879</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>880</v>
+      <c r="A14" s="87" t="s">
+        <v>927</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="83" t="s">
-        <v>881</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>882</v>
+      <c r="A15" s="87" t="s">
+        <v>929</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -3666,13 +3861,12 @@
       <selection activeCell="D2" sqref="D2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="37.57"/>
-    <col customWidth="1" min="3" max="3" width="16.86"/>
-    <col hidden="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="13" max="13" width="19.0"/>
-    <col customWidth="1" min="14" max="14" width="19.14"/>
+    <col customWidth="1" min="2" max="2" width="32.88"/>
+    <col customWidth="1" min="3" max="3" width="14.75"/>
+    <col customWidth="1" min="13" max="13" width="16.63"/>
+    <col customWidth="1" min="14" max="14" width="16.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3990,7 +4184,7 @@
       <c r="B14" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="11"/>
@@ -4029,16 +4223,16 @@
       <c r="A16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4052,7 +4246,7 @@
       <c r="C17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>86</v>
       </c>
       <c r="L17" s="15"/>
@@ -4070,7 +4264,7 @@
       <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>89</v>
       </c>
       <c r="I18" s="11"/>
@@ -4079,10 +4273,10 @@
       <c r="A19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>92</v>
       </c>
       <c r="I19" s="11"/>
@@ -4091,10 +4285,10 @@
       <c r="A20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>95</v>
       </c>
       <c r="I20" s="11"/>
@@ -4103,22 +4297,22 @@
       <c r="A21" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>101</v>
       </c>
       <c r="I22" s="11"/>
@@ -4127,10 +4321,10 @@
       <c r="A23" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I23" s="11"/>
@@ -4139,10 +4333,10 @@
       <c r="A24" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I24" s="11"/>
@@ -4151,10 +4345,10 @@
       <c r="A25" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>110</v>
       </c>
       <c r="I25" s="11"/>
@@ -4163,22 +4357,22 @@
       <c r="A26" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I27" s="11"/>
@@ -4187,61 +4381,61 @@
       <c r="A28" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>130</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33">
       <c r="A33" s="27" t="s">
@@ -4250,7 +4444,7 @@
       <c r="B33" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="29" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4261,840 +4455,842 @@
       <c r="B34" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="23"/>
+      <c r="C34" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="22"/>
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="23"/>
+        <v>139</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" s="22"/>
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" s="23"/>
+        <v>141</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="22"/>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="23"/>
+        <v>144</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="22"/>
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" s="22"/>
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I39" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="I39" s="22"/>
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I40" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40" s="22"/>
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="23"/>
+        <v>156</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="22"/>
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I42" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I42" s="22"/>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I43" s="23"/>
+        <v>162</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="22"/>
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I44" s="23"/>
+        <v>165</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="22"/>
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I45" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="I45" s="22"/>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="I46" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="I46" s="22"/>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I47" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" s="22"/>
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I48" s="23"/>
+        <v>176</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I48" s="22"/>
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>162</v>
+        <v>179</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>181</v>
       </c>
       <c r="I49" s="11"/>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>162</v>
+        <v>182</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>184</v>
       </c>
       <c r="I50" s="11"/>
     </row>
     <row r="51">
       <c r="A51" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>162</v>
+        <v>185</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>187</v>
       </c>
       <c r="I51" s="11"/>
     </row>
     <row r="52">
       <c r="A52" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>162</v>
+        <v>188</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>190</v>
       </c>
       <c r="I52" s="11"/>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>162</v>
+        <v>191</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>193</v>
       </c>
       <c r="I53" s="11"/>
     </row>
     <row r="54">
       <c r="A54" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>162</v>
+        <v>194</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>196</v>
       </c>
       <c r="I54" s="11"/>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>162</v>
+        <v>197</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>199</v>
       </c>
       <c r="I55" s="11"/>
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>162</v>
+        <v>200</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>202</v>
       </c>
       <c r="I56" s="11"/>
     </row>
     <row r="57">
       <c r="A57" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>162</v>
+        <v>203</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="I57" s="11"/>
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>162</v>
+        <v>206</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>208</v>
       </c>
       <c r="I58" s="11"/>
     </row>
     <row r="59">
       <c r="A59" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>162</v>
+        <v>209</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>211</v>
       </c>
       <c r="I59" s="11"/>
     </row>
     <row r="60">
       <c r="A60" s="15" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>189</v>
+        <v>213</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>214</v>
       </c>
       <c r="I60" s="11"/>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>192</v>
+        <v>216</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="I61" s="11"/>
     </row>
     <row r="62">
       <c r="A62" s="15" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>195</v>
+        <v>219</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="I62" s="11"/>
     </row>
     <row r="63">
       <c r="A63" s="15" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>198</v>
+        <v>222</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="I63" s="11"/>
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>201</v>
+        <v>225</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>226</v>
       </c>
       <c r="I64" s="11"/>
     </row>
     <row r="65">
       <c r="A65" s="15" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>204</v>
+        <v>228</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="I65" s="11"/>
     </row>
     <row r="66">
       <c r="A66" s="15" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>207</v>
+        <v>231</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>232</v>
       </c>
       <c r="I66" s="11"/>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>210</v>
+        <v>234</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="I67" s="11"/>
     </row>
     <row r="68">
       <c r="A68" s="15" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>213</v>
+        <v>237</v>
+      </c>
+      <c r="C68" s="31" t="s">
+        <v>238</v>
       </c>
       <c r="I68" s="11"/>
     </row>
     <row r="69">
       <c r="A69" s="15" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>216</v>
+        <v>240</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="I69" s="11"/>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>219</v>
+        <v>243</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>244</v>
       </c>
       <c r="I70" s="11"/>
     </row>
     <row r="71">
       <c r="A71" s="15" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>222</v>
+        <v>246</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="I71" s="11"/>
     </row>
     <row r="72">
       <c r="A72" s="15" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="I72" s="11"/>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>228</v>
+        <v>251</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>253</v>
       </c>
       <c r="I73" s="11"/>
     </row>
     <row r="74">
       <c r="A74" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>228</v>
+        <v>254</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="I74" s="11"/>
     </row>
     <row r="75">
       <c r="A75" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>228</v>
+        <v>257</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>259</v>
       </c>
       <c r="I75" s="11"/>
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>228</v>
+        <v>260</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="I76" s="11"/>
     </row>
     <row r="77">
       <c r="A77" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>228</v>
+        <v>263</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>265</v>
       </c>
       <c r="I77" s="11"/>
     </row>
     <row r="78">
       <c r="A78" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>228</v>
+        <v>266</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>268</v>
       </c>
       <c r="I78" s="11"/>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>228</v>
+        <v>269</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>271</v>
       </c>
       <c r="I79" s="11"/>
     </row>
     <row r="80">
       <c r="A80" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>228</v>
+        <v>272</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>274</v>
       </c>
       <c r="I80" s="11"/>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>228</v>
+        <v>275</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>277</v>
       </c>
       <c r="I81" s="11"/>
     </row>
     <row r="82">
       <c r="A82" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>228</v>
+        <v>278</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>280</v>
       </c>
       <c r="I82" s="11"/>
     </row>
     <row r="83">
       <c r="A83" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>228</v>
+        <v>281</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>283</v>
       </c>
       <c r="I83" s="11"/>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>228</v>
+        <v>284</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>286</v>
       </c>
       <c r="I84" s="11"/>
     </row>
     <row r="85">
       <c r="A85" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>228</v>
+        <v>287</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="I85" s="11"/>
     </row>
     <row r="86">
-      <c r="A86" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>255</v>
+      <c r="A86" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>292</v>
       </c>
       <c r="I86" s="11"/>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B87" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>258</v>
+        <v>293</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>295</v>
       </c>
       <c r="I87" s="11"/>
     </row>
     <row r="88">
       <c r="A88" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>258</v>
+        <v>296</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>298</v>
       </c>
       <c r="I88" s="11"/>
     </row>
     <row r="89">
       <c r="A89" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B89" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>258</v>
+        <v>299</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>301</v>
       </c>
       <c r="I89" s="11"/>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>258</v>
+        <v>302</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" s="29" t="s">
+        <v>304</v>
       </c>
       <c r="I90" s="11"/>
     </row>
     <row r="91">
       <c r="A91" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B91" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>258</v>
+        <v>305</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>307</v>
       </c>
       <c r="I91" s="11"/>
     </row>
     <row r="92">
       <c r="A92" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>258</v>
+        <v>308</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>310</v>
       </c>
       <c r="I92" s="11"/>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>258</v>
+        <v>311</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>313</v>
       </c>
       <c r="I93" s="11"/>
     </row>
     <row r="94">
       <c r="A94" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>258</v>
+        <v>314</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>316</v>
       </c>
       <c r="I94" s="11"/>
     </row>
     <row r="95">
       <c r="A95" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>258</v>
+        <v>317</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>319</v>
       </c>
       <c r="I95" s="11"/>
     </row>
     <row r="96">
       <c r="A96" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>258</v>
+        <v>320</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>322</v>
       </c>
       <c r="I96" s="11"/>
     </row>
     <row r="97">
       <c r="A97" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="B97" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>258</v>
+        <v>323</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>325</v>
       </c>
       <c r="I97" s="11"/>
     </row>
     <row r="98">
       <c r="A98" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>258</v>
+        <v>326</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>325</v>
       </c>
       <c r="I98" s="11"/>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="B99" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>258</v>
+        <v>328</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>330</v>
       </c>
       <c r="I99" s="11"/>
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>285</v>
+        <v>332</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>333</v>
       </c>
       <c r="I100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>288</v>
+        <v>335</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>336</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="15" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>292</v>
+        <v>339</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>340</v>
       </c>
       <c r="I102" s="11"/>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>295</v>
+        <v>342</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>343</v>
       </c>
       <c r="I103" s="4"/>
       <c r="M103" s="5" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="N103" s="5">
         <v>0.0</v>
@@ -5102,520 +5298,520 @@
     </row>
     <row r="104">
       <c r="A104" s="15" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C104" s="30" t="s">
-        <v>298</v>
+        <v>345</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="15" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>301</v>
+        <v>348</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>349</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>307</v>
+        <v>354</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>355</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>312</v>
+        <v>359</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>360</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="15" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>317</v>
+        <v>364</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="15" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>322</v>
+        <v>369</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>370</v>
       </c>
       <c r="I109" s="11"/>
     </row>
     <row r="110">
       <c r="A110" s="15" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>325</v>
+        <v>372</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>373</v>
       </c>
       <c r="I110" s="11"/>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C111" s="30" t="s">
-        <v>328</v>
+        <v>375</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>376</v>
       </c>
       <c r="I111" s="11"/>
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>331</v>
+        <v>378</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="I112" s="11"/>
     </row>
     <row r="113">
       <c r="A113" s="15" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C113" s="30" t="s">
-        <v>334</v>
+        <v>381</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="E113" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="15" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C114" s="30" t="s">
-        <v>338</v>
+        <v>385</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>386</v>
       </c>
       <c r="E114" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="I114" s="25"/>
+      <c r="I114" s="24"/>
       <c r="M114" s="5" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="15" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C115" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="I115" s="25"/>
+        <v>388</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="I115" s="24"/>
     </row>
     <row r="116">
       <c r="A116" s="15" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C116" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="I116" s="25"/>
+        <v>391</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="I116" s="24"/>
     </row>
     <row r="117">
       <c r="A117" s="15" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C117" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="I117" s="25"/>
+        <v>393</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="I117" s="24"/>
     </row>
     <row r="118">
       <c r="A118" s="15" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C118" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="I118" s="25"/>
+        <v>395</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="I118" s="24"/>
     </row>
     <row r="119">
       <c r="A119" s="15" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="I119" s="23"/>
+        <v>397</v>
+      </c>
+      <c r="I119" s="22"/>
     </row>
     <row r="120">
       <c r="A120" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="I120" s="25"/>
+        <v>398</v>
+      </c>
+      <c r="B120" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="I120" s="24"/>
     </row>
     <row r="121">
       <c r="A121" s="12" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="I121" s="25"/>
+        <v>402</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="I121" s="24"/>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="C122" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="I122" s="25"/>
+        <v>405</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="I122" s="24"/>
     </row>
     <row r="123">
       <c r="A123" s="15" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="C123" s="30" t="s">
-        <v>361</v>
+        <v>408</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>409</v>
       </c>
       <c r="I123" s="11"/>
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C124" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="I124" s="25"/>
+        <v>411</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="I124" s="24"/>
     </row>
     <row r="125">
       <c r="A125" s="15" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>367</v>
+        <v>414</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>415</v>
       </c>
       <c r="I125" s="11"/>
     </row>
     <row r="126">
       <c r="A126" s="15" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>370</v>
+        <v>417</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>418</v>
       </c>
       <c r="I126" s="11"/>
     </row>
     <row r="127">
       <c r="A127" s="12" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>373</v>
+        <v>420</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>421</v>
       </c>
       <c r="I127" s="11"/>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="C128" s="30" t="s">
-        <v>352</v>
+        <v>422</v>
+      </c>
+      <c r="B128" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>400</v>
       </c>
       <c r="I128" s="11"/>
     </row>
     <row r="129">
-      <c r="A129" s="32" t="s">
-        <v>375</v>
+      <c r="A129" s="37" t="s">
+        <v>423</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>377</v>
+        <v>424</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>425</v>
       </c>
       <c r="E129" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="33" t="s">
-        <v>379</v>
+      <c r="A130" s="38" t="s">
+        <v>427</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>377</v>
+        <v>428</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>425</v>
       </c>
       <c r="E130" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I130" s="11"/>
     </row>
     <row r="131">
-      <c r="A131" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="C131" s="36" t="s">
-        <v>384</v>
+      <c r="A131" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="C131" s="41" t="s">
+        <v>432</v>
       </c>
       <c r="D131" s="11"/>
-      <c r="E131" s="37" t="b">
+      <c r="E131" s="42" t="b">
         <v>1</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
-      <c r="J131" s="35"/>
+      <c r="J131" s="40"/>
       <c r="K131" s="11"/>
       <c r="L131" s="11"/>
       <c r="M131" s="11"/>
-      <c r="N131" s="38"/>
+      <c r="N131" s="43"/>
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
       <c r="Q131" s="11"/>
-      <c r="R131" s="35"/>
+      <c r="R131" s="40"/>
     </row>
     <row r="132">
-      <c r="A132" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="B132" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="C132" s="36" t="s">
-        <v>384</v>
+      <c r="A132" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="C132" s="41" t="s">
+        <v>432</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="37" t="b">
+      <c r="E132" s="42" t="b">
         <v>1</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
-      <c r="J132" s="35"/>
+      <c r="J132" s="40"/>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
-      <c r="N132" s="38"/>
+      <c r="N132" s="43"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
       <c r="Q132" s="11"/>
-      <c r="R132" s="35"/>
+      <c r="R132" s="40"/>
     </row>
     <row r="133">
-      <c r="A133" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="B133" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>391</v>
+      <c r="A133" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="C133" s="41" t="s">
+        <v>439</v>
       </c>
       <c r="D133" s="11"/>
-      <c r="E133" s="37" t="b">
+      <c r="E133" s="42" t="b">
         <v>1</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
-      <c r="J133" s="35"/>
+      <c r="J133" s="40"/>
       <c r="K133" s="11"/>
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
-      <c r="N133" s="38"/>
+      <c r="N133" s="43"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
       <c r="Q133" s="11"/>
-      <c r="R133" s="35"/>
+      <c r="R133" s="40"/>
     </row>
     <row r="134">
-      <c r="A134" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="B134" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="C134" s="36" t="s">
-        <v>391</v>
+      <c r="A134" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="C134" s="41" t="s">
+        <v>439</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="37" t="b">
+      <c r="E134" s="42" t="b">
         <v>1</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
-      <c r="J134" s="35"/>
+      <c r="J134" s="40"/>
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
-      <c r="N134" s="38"/>
+      <c r="N134" s="43"/>
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
       <c r="Q134" s="11"/>
-      <c r="R134" s="35"/>
+      <c r="R134" s="40"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="C135" s="39" t="s">
-        <v>395</v>
+        <v>442</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I135" s="11"/>
       <c r="J135" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="R135" s="5" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
     </row>
     <row r="136">
@@ -5623,17 +5819,17 @@
         <v>30</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C136" s="39" t="s">
-        <v>395</v>
+        <v>445</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137">
@@ -5641,17 +5837,17 @@
         <v>34</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C137" s="39" t="s">
-        <v>395</v>
+        <v>446</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138">
@@ -5659,17 +5855,17 @@
         <v>38</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C138" s="39" t="s">
-        <v>395</v>
+        <v>447</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139">
@@ -5677,17 +5873,17 @@
         <v>42</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C139" s="39" t="s">
-        <v>395</v>
+        <v>448</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I139" s="11"/>
       <c r="J139" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140">
@@ -5695,17 +5891,17 @@
         <v>46</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C140" s="39" t="s">
-        <v>395</v>
+        <v>449</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141">
@@ -5713,17 +5909,17 @@
         <v>50</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C141" s="39" t="s">
-        <v>395</v>
+        <v>450</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I141" s="11"/>
       <c r="J141" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142">
@@ -5731,17 +5927,17 @@
         <v>54</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C142" s="39" t="s">
-        <v>395</v>
+        <v>451</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I142" s="11"/>
       <c r="J142" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143">
@@ -5749,17 +5945,17 @@
         <v>58</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C143" s="39" t="s">
-        <v>395</v>
+        <v>452</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I143" s="11"/>
       <c r="J143" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144">
@@ -5767,17 +5963,17 @@
         <v>62</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C144" s="39" t="s">
-        <v>395</v>
+        <v>453</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145">
@@ -5785,17 +5981,17 @@
         <v>67</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C145" s="39" t="s">
-        <v>395</v>
+        <v>454</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I145" s="11"/>
       <c r="J145" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146">
@@ -5803,17 +5999,17 @@
         <v>71</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C146" s="39" t="s">
-        <v>395</v>
+        <v>455</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147">
@@ -5821,17 +6017,17 @@
         <v>75</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="C147" s="39" t="s">
-        <v>395</v>
+        <v>456</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I147" s="11"/>
       <c r="J147" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148">
@@ -5839,149 +6035,149 @@
         <v>79</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C148" s="39" t="s">
-        <v>395</v>
+        <v>457</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C149" s="39" t="s">
-        <v>395</v>
+        <v>459</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I149" s="11"/>
       <c r="J149" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="R149" s="5" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="C150" s="39" t="s">
-        <v>395</v>
+        <v>462</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="R150" s="5" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="C151" s="39" t="s">
-        <v>395</v>
+        <v>465</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="R151" s="5" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C152" s="39" t="s">
-        <v>395</v>
+        <v>468</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="R152" s="5" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C153" s="39" t="s">
-        <v>395</v>
+        <v>471</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="I153" s="11"/>
       <c r="J153" s="5" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="R153" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="44">
+        <v>229.0</v>
+      </c>
+      <c r="B154" s="40" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="40">
-        <v>229.0</v>
-      </c>
-      <c r="B154" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="C154" s="36" t="s">
-        <v>377</v>
+      <c r="C154" s="41" t="s">
+        <v>425</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="41" t="b">
+      <c r="E154" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="F154" s="35"/>
+      <c r="F154" s="40"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
-      <c r="I154" s="42" t="s">
-        <v>425</v>
-      </c>
-      <c r="J154" s="35"/>
-      <c r="K154" s="42"/>
+      <c r="I154" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="J154" s="40"/>
+      <c r="K154" s="46"/>
       <c r="L154" s="11"/>
       <c r="M154" s="11"/>
-      <c r="N154" s="38"/>
+      <c r="N154" s="43"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
       <c r="Q154" s="11"/>
@@ -6001,607 +6197,607 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="49.86"/>
+    <col customWidth="1" min="2" max="2" width="43.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>428</v>
+      <c r="A2" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>476</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>431</v>
+      <c r="A3" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>479</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
-        <v>432</v>
+      <c r="A4" s="50" t="s">
+        <v>480</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="D4" s="17"/>
+        <v>481</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="46" t="s">
-        <v>435</v>
+      <c r="A5" s="50" t="s">
+        <v>483</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="D5" s="17"/>
+        <v>484</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="46" t="s">
-        <v>438</v>
+      <c r="A6" s="50" t="s">
+        <v>486</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="D6" s="48"/>
+        <v>487</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="52"/>
     </row>
     <row r="7">
-      <c r="A7" s="46" t="s">
-        <v>441</v>
+      <c r="A7" s="50" t="s">
+        <v>489</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>490</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" s="16"/>
     </row>
     <row r="8">
-      <c r="A8" s="46" t="s">
-        <v>444</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>446</v>
+      <c r="A8" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>494</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>449</v>
+      <c r="A9" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>497</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>452</v>
+      <c r="A10" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>500</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>455</v>
+      <c r="A11" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>503</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>458</v>
+      <c r="A12" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>506</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>461</v>
+      <c r="A13" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>509</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="46" t="s">
-        <v>462</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>464</v>
+      <c r="A14" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>512</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>467</v>
+      <c r="A15" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>515</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="46" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>470</v>
+      <c r="A16" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>518</v>
       </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>440</v>
+      <c r="A17" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>488</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="46" t="s">
-        <v>473</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>475</v>
+      <c r="A18" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>523</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>535</v>
+      </c>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>541</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>544</v>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="50" t="s">
+        <v>545</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="50" t="s">
+        <v>548</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>550</v>
+      </c>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>553</v>
+      </c>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>556</v>
+      </c>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>565</v>
+      </c>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>571</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="50" t="s">
+        <v>572</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>574</v>
+      </c>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>577</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="50" t="s">
+        <v>578</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="50" t="s">
+        <v>581</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="46" t="s">
-        <v>482</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="46" t="s">
-        <v>485</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="46" t="s">
-        <v>488</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="46" t="s">
-        <v>491</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>493</v>
-      </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="46" t="s">
-        <v>494</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>495</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="46" t="s">
-        <v>497</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="D26" s="23"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="46" t="s">
-        <v>500</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="46" t="s">
-        <v>506</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>508</v>
-      </c>
-      <c r="D29" s="23"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>511</v>
-      </c>
-      <c r="D30" s="23"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="46" t="s">
-        <v>512</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>514</v>
-      </c>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="46" t="s">
-        <v>515</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>517</v>
-      </c>
-      <c r="D32" s="23"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>520</v>
-      </c>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="46" t="s">
-        <v>521</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>523</v>
-      </c>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>529</v>
-      </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>532</v>
-      </c>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="46" t="s">
-        <v>533</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>537</v>
+      <c r="C39" s="54" t="s">
+        <v>585</v>
       </c>
       <c r="D39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="46" t="s">
-        <v>538</v>
+      <c r="A40" s="50" t="s">
+        <v>586</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="C40" s="50" t="s">
-        <v>540</v>
+        <v>587</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>588</v>
       </c>
       <c r="D40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="46" t="s">
-        <v>541</v>
+      <c r="A41" s="50" t="s">
+        <v>589</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>543</v>
+        <v>590</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>591</v>
       </c>
       <c r="D41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="46" t="s">
-        <v>544</v>
+      <c r="A42" s="50" t="s">
+        <v>592</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>546</v>
-      </c>
-      <c r="D42" s="54"/>
+        <v>593</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>594</v>
+      </c>
+      <c r="D42" s="58"/>
     </row>
     <row r="43">
-      <c r="A43" s="46" t="s">
-        <v>547</v>
+      <c r="A43" s="50" t="s">
+        <v>595</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>549</v>
+        <v>596</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="46" t="s">
-        <v>550</v>
+      <c r="A44" s="50" t="s">
+        <v>598</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="C44" s="55" t="s">
-        <v>552</v>
+        <v>599</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="46" t="s">
-        <v>553</v>
+      <c r="A45" s="50" t="s">
+        <v>601</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>555</v>
+        <v>602</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="46" t="s">
-        <v>556</v>
+      <c r="A46" s="50" t="s">
+        <v>604</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>558</v>
-      </c>
-      <c r="D46" s="57"/>
+        <v>605</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>606</v>
+      </c>
+      <c r="D46" s="61"/>
     </row>
     <row r="47">
-      <c r="A47" s="46" t="s">
-        <v>559</v>
+      <c r="A47" s="50" t="s">
+        <v>607</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="C47" s="53" t="s">
-        <v>561</v>
-      </c>
-      <c r="D47" s="57"/>
+        <v>608</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>609</v>
+      </c>
+      <c r="D47" s="61"/>
     </row>
     <row r="48">
-      <c r="A48" s="46" t="s">
-        <v>562</v>
+      <c r="A48" s="50" t="s">
+        <v>610</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>564</v>
-      </c>
-      <c r="D48" s="57"/>
+        <v>611</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>612</v>
+      </c>
+      <c r="D48" s="61"/>
     </row>
     <row r="49">
-      <c r="A49" s="46" t="s">
-        <v>565</v>
+      <c r="A49" s="50" t="s">
+        <v>613</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>567</v>
-      </c>
-      <c r="D49" s="57"/>
+        <v>614</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>615</v>
+      </c>
+      <c r="D49" s="61"/>
     </row>
     <row r="50">
-      <c r="A50" s="46" t="s">
-        <v>568</v>
+      <c r="A50" s="50" t="s">
+        <v>616</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>570</v>
+        <v>617</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -6620,7 +6816,7 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -6630,30 +6826,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F1" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="59" t="s">
-        <v>574</v>
+      <c r="G1" s="63" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>577</v>
+        <v>625</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>26</v>
@@ -6664,13 +6860,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>578</v>
+        <v>626</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>579</v>
+        <v>627</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>580</v>
+        <v>628</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>30</v>
@@ -6681,13 +6877,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>581</v>
+        <v>629</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>34</v>
@@ -6698,13 +6894,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>584</v>
+        <v>632</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>38</v>
@@ -6715,13 +6911,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>589</v>
+        <v>637</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>42</v>
@@ -6732,13 +6928,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>591</v>
+        <v>639</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>592</v>
+        <v>640</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>46</v>
@@ -6749,13 +6945,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>593</v>
+        <v>641</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>594</v>
+        <v>642</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>50</v>
@@ -6766,13 +6962,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>597</v>
+        <v>645</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>54</v>
@@ -6783,13 +6979,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>58</v>
@@ -6800,13 +6996,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>602</v>
+        <v>650</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>62</v>
@@ -6817,13 +7013,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>605</v>
+        <v>653</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>67</v>
@@ -6834,13 +7030,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>71</v>
@@ -6851,13 +7047,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>75</v>
@@ -6868,13 +7064,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>614</v>
+        <v>662</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>79</v>
@@ -6885,16 +7081,16 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="F16" s="5">
         <v>4.0</v>
@@ -6902,16 +7098,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="F17" s="5">
         <v>4.0</v>
@@ -6919,16 +7115,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="F18" s="5">
         <v>4.0</v>
@@ -6936,16 +7132,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="F19" s="5">
         <v>4.0</v>
@@ -6953,16 +7149,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>629</v>
+        <v>677</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="F20" s="5">
         <v>4.0</v>
@@ -6986,73 +7182,73 @@
       <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.43"/>
-    <col customWidth="1" min="2" max="2" width="55.0"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="10.14"/>
-    <col customWidth="1" min="7" max="7" width="10.86"/>
-    <col customWidth="1" min="12" max="12" width="16.43"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col customWidth="1" min="2" max="2" width="48.13"/>
+    <col customWidth="1" min="3" max="3" width="15.75"/>
+    <col customWidth="1" min="4" max="4" width="8.88"/>
+    <col customWidth="1" min="7" max="7" width="9.5"/>
+    <col customWidth="1" min="12" max="12" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>637</v>
+        <v>684</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>685</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="L1" s="62" t="s">
-        <v>639</v>
+        <v>686</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>687</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="34" t="s">
-        <v>389</v>
+        <v>688</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="K2" s="5">
         <v>6.0</v>
@@ -7063,46 +7259,46 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>644</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>645</v>
+        <v>691</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>693</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="34" t="s">
-        <v>386</v>
+      <c r="E3" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>577</v>
+        <v>625</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>389</v>
+        <v>697</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>579</v>
+        <v>627</v>
       </c>
       <c r="K4" s="5">
         <v>6.0</v>
@@ -7113,45 +7309,45 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>652</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>386</v>
+        <v>699</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>580</v>
+        <v>628</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>389</v>
+        <v>702</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="K6" s="5">
         <v>6.0</v>
@@ -7162,45 +7358,45 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>657</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>386</v>
+        <v>704</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>389</v>
+        <v>707</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
       <c r="K8" s="5">
         <v>6.0</v>
@@ -7211,45 +7407,45 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>386</v>
+        <v>709</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>389</v>
+        <v>712</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>713</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="K10" s="5">
         <v>6.0</v>
@@ -7260,45 +7456,45 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>667</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>386</v>
+        <v>714</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>589</v>
+        <v>637</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>668</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>670</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>389</v>
+        <v>717</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>718</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>591</v>
+        <v>639</v>
       </c>
       <c r="K12" s="5">
         <v>6.0</v>
@@ -7309,45 +7505,45 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>386</v>
+        <v>719</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>720</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>592</v>
+        <v>640</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="C14" s="63" t="s">
+        <v>722</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>723</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="K14" s="5">
         <v>6.0</v>
@@ -7358,45 +7554,45 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>386</v>
+        <v>724</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>389</v>
+        <v>727</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>597</v>
+        <v>645</v>
       </c>
       <c r="K16" s="5">
         <v>6.0</v>
@@ -7407,45 +7603,45 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>386</v>
+        <v>729</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>389</v>
+        <v>732</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>733</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="K18" s="5">
         <v>6.0</v>
@@ -7456,45 +7652,45 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>386</v>
+        <v>734</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>735</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="B20" s="30" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>738</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>690</v>
       </c>
-      <c r="C20" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>389</v>
+      <c r="E20" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="K20" s="5">
         <v>6.0</v>
@@ -7505,45 +7701,45 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>386</v>
+        <v>739</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>740</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>389</v>
+        <v>742</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="K22" s="5">
         <v>6.0</v>
@@ -7554,45 +7750,45 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>386</v>
+        <v>744</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>745</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>698</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>700</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>389</v>
+        <v>747</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>748</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="K24" s="5">
         <v>6.0</v>
@@ -7603,45 +7799,45 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>386</v>
+        <v>749</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>750</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>703</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>705</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>389</v>
+        <v>752</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="K26" s="5">
         <v>6.0</v>
@@ -7652,45 +7848,45 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>386</v>
+        <v>754</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>389</v>
+        <v>757</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="K28" s="5">
         <v>6.0</v>
@@ -7701,71 +7897,71 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>712</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>386</v>
+        <v>759</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>760</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>715</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>382</v>
+        <v>762</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>763</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="L30" s="65" t="s">
-        <v>718</v>
+        <v>765</v>
+      </c>
+      <c r="L30" s="69" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>389</v>
+        <v>767</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>768</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="K31" s="5">
         <v>0.0</v>
@@ -7776,349 +7972,349 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>386</v>
+        <v>769</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>382</v>
+        <v>774</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>730</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>732</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>382</v>
+        <v>779</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>780</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>382</v>
+        <v>783</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>784</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>738</v>
+        <v>786</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>740</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>382</v>
+        <v>787</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>788</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>742</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="C37" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>389</v>
+        <v>791</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="K37" s="5">
         <v>0.0</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>746</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>382</v>
+        <v>793</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>794</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>747</v>
+        <v>795</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>750</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>389</v>
+        <v>797</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>798</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="K39" s="5">
         <v>0.0</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>382</v>
+        <v>799</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>800</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>753</v>
+        <v>801</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>754</v>
+        <v>802</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>389</v>
+        <v>803</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="K41" s="5">
         <v>0.0</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>758</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>382</v>
+        <v>805</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>806</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>759</v>
+        <v>807</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>760</v>
+        <v>808</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>762</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>642</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>389</v>
+        <v>809</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>810</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>437</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="K43" s="5">
         <v>0.0</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>764</v>
-      </c>
-      <c r="C44" s="63" t="s">
-        <v>645</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>382</v>
+        <v>811</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>812</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>693</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>430</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>765</v>
+        <v>813</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>766</v>
+        <v>814</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>767</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>768</v>
+        <v>815</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>816</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="D45" s="66" t="s">
-        <v>770</v>
-      </c>
-      <c r="E45" s="33"/>
+        <v>817</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="E45" s="38"/>
       <c r="F45" s="5" t="s">
-        <v>771</v>
+        <v>819</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -8136,7 +8332,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -8145,14 +8341,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>774</v>
+        <v>822</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -8178,12 +8374,12 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>771</v>
+        <v>819</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>775</v>
+        <v>823</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -8210,12 +8406,12 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>776</v>
+        <v>824</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -8253,149 +8449,149 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="21.71"/>
-    <col customWidth="1" min="5" max="5" width="28.57"/>
-    <col customWidth="1" min="6" max="6" width="34.14"/>
-    <col customWidth="1" min="8" max="9" width="46.57"/>
+    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="25.0"/>
+    <col customWidth="1" min="6" max="6" width="29.88"/>
+    <col customWidth="1" min="8" max="9" width="40.75"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>632</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>777</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>778</v>
+      <c r="D1" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>825</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>826</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>779</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>574</v>
+        <v>827</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>622</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>780</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>781</v>
+        <v>829</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="F2" s="66"/>
+        <v>830</v>
+      </c>
+      <c r="F2" s="70"/>
       <c r="H2" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>784</v>
+        <v>831</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>785</v>
+        <v>833</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="F3" s="66"/>
+        <v>834</v>
+      </c>
+      <c r="F3" s="70"/>
       <c r="H3" s="5" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>788</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>789</v>
+        <v>837</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="F4" s="66"/>
+        <v>838</v>
+      </c>
+      <c r="F4" s="70"/>
       <c r="H4" s="5" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>788</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>791</v>
+        <v>839</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="F5" s="66"/>
+        <v>840</v>
+      </c>
+      <c r="F5" s="70"/>
       <c r="H5" s="5" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>788</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>793</v>
+        <v>841</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="F6" s="66"/>
+        <v>842</v>
+      </c>
+      <c r="F6" s="70"/>
       <c r="H6" s="5" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>788</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>795</v>
+        <v>843</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="F7" s="66"/>
+        <v>844</v>
+      </c>
+      <c r="F7" s="70"/>
       <c r="H7" s="5" t="s">
-        <v>787</v>
+        <v>835</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>788</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -8411,20 +8607,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>799</v>
+        <v>847</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>800</v>
+        <v>848</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -8439,13 +8635,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>801</v>
+        <v>849</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>802</v>
+        <v>850</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>803</v>
+        <v>851</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -8483,13 +8679,13 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>804</v>
+        <v>852</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>805</v>
+        <v>853</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>806</v>
+        <v>854</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -8505,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>807</v>
+        <v>855</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>808</v>
+        <v>856</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -8522,10 +8718,10 @@
     <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>809</v>
+        <v>857</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>808</v>
+        <v>856</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -8539,10 +8735,10 @@
     <row r="8">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>810</v>
+        <v>858</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>808</v>
+        <v>856</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -8556,10 +8752,10 @@
     <row r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>811</v>
+        <v>859</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>808</v>
+        <v>856</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -8585,10 +8781,10 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>812</v>
+        <v>860</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>813</v>
+        <v>861</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -8602,10 +8798,10 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>815</v>
+        <v>862</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>863</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -8619,10 +8815,10 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>816</v>
-      </c>
-      <c r="B13" s="70" t="s">
-        <v>817</v>
+        <v>864</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>865</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -8649,10 +8845,10 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>819</v>
+        <v>866</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>867</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -8666,27 +8862,27 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="B16" s="68" t="s">
+        <v>868</v>
+      </c>
+      <c r="B16" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>822</v>
+        <v>869</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="18">
@@ -8708,46 +8904,46 @@
       <c r="A23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="71" t="s">
-        <v>823</v>
-      </c>
-      <c r="B24" s="72" t="s">
-        <v>824</v>
+      <c r="A24" s="75" t="s">
+        <v>871</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="71" t="s">
-        <v>825</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>826</v>
+      <c r="A25" s="75" t="s">
+        <v>873</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="71" t="s">
-        <v>827</v>
-      </c>
-      <c r="B26" s="73" t="s">
-        <v>828</v>
-      </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
+      <c r="A26" s="75" t="s">
+        <v>875</v>
+      </c>
+      <c r="B26" s="77" t="s">
+        <v>876</v>
+      </c>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="11" t="s">
-        <v>829</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="11" t="s">
-        <v>830</v>
+        <v>878</v>
       </c>
     </row>
     <row r="29">
@@ -8778,73 +8974,73 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="39.43"/>
-    <col customWidth="1" min="3" max="3" width="53.57"/>
+    <col customWidth="1" min="1" max="1" width="34.5"/>
+    <col customWidth="1" min="3" max="3" width="46.88"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>831</v>
+        <v>879</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>832</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>834</v>
+        <v>881</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>836</v>
+        <v>883</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>838</v>
+        <v>885</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>840</v>
+        <v>887</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>841</v>
-      </c>
-      <c r="D6" s="78"/>
+        <v>835</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>889</v>
+      </c>
+      <c r="D6" s="82"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>843</v>
+        <v>890</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>891</v>
       </c>
     </row>
   </sheetData>

--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -1112,7 +1112,7 @@
     <t>B102</t>
   </si>
   <si>
-    <t>terminal bronchiole</t>
+    <t>Terminal bronchiole</t>
   </si>
   <si>
     <t>UBERON:0002187</t>
@@ -1130,7 +1130,7 @@
     <t>B103</t>
   </si>
   <si>
-    <t>bronchiole</t>
+    <t>Bronchiole</t>
   </si>
   <si>
     <t>UBERON:0002186</t>
@@ -1145,7 +1145,7 @@
     <t>B104</t>
   </si>
   <si>
-    <t>bronchus</t>
+    <t>Bronchus</t>
   </si>
   <si>
     <t>UBERON:0002185</t>
@@ -1160,7 +1160,7 @@
     <t>B105</t>
   </si>
   <si>
-    <t>trachea</t>
+    <t>Trachea</t>
   </si>
   <si>
     <t>UBERON:0003126</t>
@@ -1232,7 +1232,7 @@
     <t>B119</t>
   </si>
   <si>
-    <t>trachea parasympathetic ganglia</t>
+    <t>Trachea parasympathetic ganglia</t>
   </si>
   <si>
     <t>NCIT:C52557</t>
@@ -1241,19 +1241,19 @@
     <t>B120</t>
   </si>
   <si>
-    <t>bronchus parasympathetic ganglia</t>
+    <t>Bronchus parasympathetic ganglia</t>
   </si>
   <si>
     <t>B121</t>
   </si>
   <si>
-    <t>bronchiole parasympathetic ganglia</t>
+    <t>Bronchiole parasympathetic ganglia</t>
   </si>
   <si>
     <t>B122</t>
   </si>
   <si>
-    <t>terminal bronchiole parasympathetic ganglia</t>
+    <t>Terminal bronchiole parasympathetic ganglia</t>
   </si>
   <si>
     <t>B123</t>

--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="940">
   <si>
     <t>id</t>
   </si>
@@ -1133,7 +1133,7 @@
     <t>BM_41,BM_46</t>
   </si>
   <si>
-    <t>B117, B122, sn-trac_3, B118</t>
+    <t>B117, B122, B118</t>
   </si>
   <si>
     <t>0,0,0,0</t>
@@ -1151,7 +1151,7 @@
     <t>BM_41,BM_45</t>
   </si>
   <si>
-    <t>B117, B121, sn-bron_4, B118</t>
+    <t>B117, B121, B118</t>
   </si>
   <si>
     <t>B104</t>
@@ -1166,7 +1166,7 @@
     <t>BM_41,BM_44</t>
   </si>
   <si>
-    <t>B117, B120, sn-bronle_5, B118</t>
+    <t>B117, B120, B118</t>
   </si>
   <si>
     <t>B105</t>
@@ -1181,7 +1181,7 @@
     <t>BM_41,BM_43</t>
   </si>
   <si>
-    <t>B117, B119, sn_termbronle_6, B118</t>
+    <t>B117, B119, B118</t>
   </si>
   <si>
     <t>B113</t>
@@ -1250,6 +1250,9 @@
     <t>Trachea parasympathetic ganglia</t>
   </si>
   <si>
+    <t>sn-trac_3</t>
+  </si>
+  <si>
     <t>B120</t>
   </si>
   <si>
@@ -1259,6 +1262,9 @@
     <t>Bronchus parasympathetic ganglia</t>
   </si>
   <si>
+    <t>sn-bron_4</t>
+  </si>
+  <si>
     <t>B121</t>
   </si>
   <si>
@@ -1268,6 +1274,9 @@
     <t>Bronchiole parasympathetic ganglia</t>
   </si>
   <si>
+    <t>sn-bronle_5</t>
+  </si>
+  <si>
     <t>B122</t>
   </si>
   <si>
@@ -1277,6 +1286,9 @@
     <t>Terminal bronchiole parasympathetic ganglia</t>
   </si>
   <si>
+    <t>sn_termbronle_6</t>
+  </si>
+  <si>
     <t>B123</t>
   </si>
   <si>
@@ -1469,36 +1481,24 @@
     <t>neuron-2</t>
   </si>
   <si>
-    <t>sn-trac_3</t>
-  </si>
-  <si>
     <t>Soma of PSPR in trachea_Neuron 3(bromo)</t>
   </si>
   <si>
     <t>neuron-3</t>
   </si>
   <si>
-    <t>sn-bron_4</t>
-  </si>
-  <si>
     <t>Soma of PSPR in bronchus_Neuron 4(bromo)</t>
   </si>
   <si>
     <t>neuron-4</t>
   </si>
   <si>
-    <t>sn-bronle_5</t>
-  </si>
-  <si>
     <t>Soma of PSPR in bronchiole_Neuron 5(bromo)</t>
   </si>
   <si>
     <t>neuron-5</t>
   </si>
   <si>
-    <t>sn_termbronle_6</t>
-  </si>
-  <si>
     <t>Soma of PSPR in terminal bronchiole_Neuron 6(bromo)</t>
   </si>
   <si>
@@ -1850,7 +1850,7 @@
     <t>ns29_5</t>
   </si>
   <si>
-    <t>0,0,1</t>
+    <t>0,1,0</t>
   </si>
   <si>
     <t>n-splan, B98,B98</t>
@@ -1877,7 +1877,7 @@
     <t>ns32</t>
   </si>
   <si>
-    <t>0,0,0</t>
+    <t>0,2,0</t>
   </si>
   <si>
     <t>B17, B16, n-vag</t>
@@ -1952,7 +1952,7 @@
     <t>ns42</t>
   </si>
   <si>
-    <t>0,0</t>
+    <t>0,1</t>
   </si>
   <si>
     <t>B119, B105</t>
@@ -2114,6 +2114,9 @@
     <t>lnk-sn_termbronle_6</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
     <t>BM_1</t>
   </si>
   <si>
@@ -2270,6 +2273,9 @@
     <t>Peripheral nervous system tissue</t>
   </si>
   <si>
+    <t>UBERON:0003714</t>
+  </si>
+  <si>
     <t>UBERON:0000010</t>
   </si>
   <si>
@@ -2601,6 +2607,9 @@
   </si>
   <si>
     <t>ilxtr:neuron-type-bromo-3</t>
+  </si>
+  <si>
+    <t>parasympathetic post-ganglionic neuron</t>
   </si>
   <si>
     <t>Neuron 4</t>
@@ -2883,7 +2892,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2927,6 +2936,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
     </font>
     <font>
       <b/>
@@ -3068,14 +3081,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -3111,7 +3124,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3222,11 +3235,33 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -3253,7 +3288,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -3265,13 +3300,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3280,20 +3315,16 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3302,11 +3333,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3314,52 +3348,52 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -3375,24 +3409,24 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3401,8 +3435,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3712,48 +3746,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="98" t="s">
-        <v>899</v>
-      </c>
-      <c r="B2" s="99" t="s">
-        <v>900</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>901</v>
+      <c r="A2" s="105" t="s">
+        <v>902</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>903</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="98" t="s">
-        <v>902</v>
+      <c r="A3" s="105" t="s">
+        <v>905</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>903</v>
-      </c>
-      <c r="C3" s="100" t="s">
-        <v>901</v>
+        <v>906</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="105" t="s">
+        <v>907</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="C4" s="107" t="s">
         <v>904</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="C4" s="100" t="s">
-        <v>901</v>
-      </c>
     </row>
     <row r="5">
-      <c r="B5" s="100" t="s">
-        <v>906</v>
-      </c>
-      <c r="C5" s="100" t="s">
-        <v>901</v>
+      <c r="B5" s="107" t="s">
+        <v>909</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -3780,123 +3814,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="101" t="s">
-        <v>907</v>
-      </c>
-      <c r="B1" s="101" t="s">
-        <v>908</v>
+      <c r="A1" s="108" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>909</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>910</v>
+        <v>912</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
-        <v>911</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>912</v>
+        <v>914</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>913</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>914</v>
+        <v>916</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
-        <v>915</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>916</v>
+        <v>918</v>
+      </c>
+      <c r="B5" s="109" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>917</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>918</v>
+        <v>920</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>919</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>920</v>
+        <v>922</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>921</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>922</v>
+        <v>924</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>923</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>924</v>
+        <v>926</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>925</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>926</v>
+        <v>928</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="31" t="s">
-        <v>927</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>928</v>
+        <v>930</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>929</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>930</v>
+        <v>932</v>
+      </c>
+      <c r="B12" s="109" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
-        <v>931</v>
-      </c>
-      <c r="B13" s="102" t="s">
-        <v>932</v>
+        <v>934</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
-        <v>933</v>
-      </c>
-      <c r="B14" s="102" t="s">
-        <v>934</v>
+        <v>936</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="31" t="s">
-        <v>935</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>936</v>
+        <v>938</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -3935,7 +3969,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="14.75"/>
     <col customWidth="1" min="3" max="3" width="22.38"/>
-    <col customWidth="1" min="13" max="13" width="16.63"/>
+    <col customWidth="1" min="13" max="13" width="26.88"/>
     <col customWidth="1" min="14" max="14" width="16.75"/>
   </cols>
   <sheetData>
@@ -5393,90 +5427,138 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B106" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="N106" s="5" t="s">
+      <c r="N106" s="40" t="s">
         <v>356</v>
       </c>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="41"/>
     </row>
     <row r="107">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="B107" s="37" t="s">
+      <c r="B107" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="40" t="s">
         <v>356</v>
       </c>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="41"/>
     </row>
     <row r="108">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="43" t="s">
         <v>362</v>
       </c>
-      <c r="B108" s="38" t="s">
+      <c r="B108" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="40" t="s">
         <v>366</v>
       </c>
-      <c r="N108" s="5" t="s">
+      <c r="N108" s="40" t="s">
         <v>356</v>
       </c>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="41"/>
     </row>
     <row r="109">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="I109" s="4" t="s">
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="M109" s="5" t="s">
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="40" t="s">
         <v>371</v>
       </c>
-      <c r="N109" s="5" t="s">
+      <c r="N109" s="40" t="s">
         <v>356</v>
       </c>
+      <c r="O109" s="41"/>
+      <c r="P109" s="41"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="41"/>
     </row>
     <row r="110">
       <c r="A110" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="45" t="s">
         <v>373</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -5559,56 +5641,68 @@
       <c r="A116" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="B116" s="39" t="s">
+      <c r="B116" s="46" t="s">
         <v>392</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>393</v>
       </c>
       <c r="I116" s="24"/>
+      <c r="M116" s="47" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B117" s="39" t="s">
         <v>395</v>
       </c>
+      <c r="B117" s="46" t="s">
+        <v>396</v>
+      </c>
       <c r="C117" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I117" s="24"/>
+      <c r="M117" s="47" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="B118" s="39" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="B118" s="46" t="s">
+        <v>400</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I118" s="24"/>
+      <c r="M118" s="47" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="B119" s="39" t="s">
-        <v>401</v>
+        <v>403</v>
+      </c>
+      <c r="B119" s="46" t="s">
+        <v>404</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="I119" s="24"/>
+      <c r="M119" s="47" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="15" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>173</v>
@@ -5617,286 +5711,286 @@
     </row>
     <row r="121">
       <c r="A121" s="15" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="C121" s="40" t="s">
-        <v>407</v>
+        <v>410</v>
+      </c>
+      <c r="C121" s="48" t="s">
+        <v>411</v>
       </c>
       <c r="I121" s="24"/>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I122" s="24"/>
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I123" s="24"/>
     </row>
     <row r="124">
       <c r="A124" s="15" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I124" s="11"/>
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="I125" s="24"/>
     </row>
     <row r="126">
       <c r="A126" s="15" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I126" s="11"/>
     </row>
     <row r="127">
       <c r="A127" s="15" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="I127" s="11"/>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="I128" s="11"/>
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="C129" s="40" t="s">
-        <v>407</v>
+        <v>410</v>
+      </c>
+      <c r="C129" s="48" t="s">
+        <v>411</v>
       </c>
       <c r="I129" s="11"/>
     </row>
     <row r="130">
-      <c r="A130" s="41" t="s">
-        <v>430</v>
+      <c r="A130" s="49" t="s">
+        <v>434</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E130" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="42" t="s">
-        <v>434</v>
+      <c r="A131" s="50" t="s">
+        <v>438</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E131" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I131" s="11"/>
     </row>
     <row r="132">
-      <c r="A132" s="43" t="s">
-        <v>437</v>
-      </c>
-      <c r="B132" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="C132" s="45" t="s">
-        <v>439</v>
+      <c r="A132" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="B132" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="C132" s="53" t="s">
+        <v>443</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="46" t="b">
+      <c r="E132" s="54" t="b">
         <v>1</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
-      <c r="J132" s="45"/>
+      <c r="J132" s="53"/>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
-      <c r="N132" s="47"/>
+      <c r="N132" s="55"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
       <c r="Q132" s="11"/>
-      <c r="R132" s="45"/>
+      <c r="R132" s="53"/>
     </row>
     <row r="133">
-      <c r="A133" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="B133" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="C133" s="45" t="s">
+      <c r="A133" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="B133" s="52" t="s">
         <v>442</v>
       </c>
+      <c r="C133" s="53" t="s">
+        <v>446</v>
+      </c>
       <c r="D133" s="11"/>
-      <c r="E133" s="46" t="b">
+      <c r="E133" s="54" t="b">
         <v>1</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
-      <c r="J133" s="45"/>
+      <c r="J133" s="53"/>
       <c r="K133" s="11"/>
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
-      <c r="N133" s="47"/>
+      <c r="N133" s="55"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
       <c r="Q133" s="11"/>
-      <c r="R133" s="45"/>
+      <c r="R133" s="53"/>
     </row>
     <row r="134">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="B134" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="C134" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="D134" s="11"/>
+      <c r="E134" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" s="26" t="s">
         <v>444</v>
-      </c>
-      <c r="B134" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="C134" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="D134" s="11"/>
-      <c r="E134" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>440</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
-      <c r="J134" s="45"/>
+      <c r="J134" s="53"/>
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
-      <c r="N134" s="47"/>
+      <c r="N134" s="55"/>
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
       <c r="Q134" s="11"/>
-      <c r="R134" s="45"/>
+      <c r="R134" s="53"/>
     </row>
     <row r="135">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="B135" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="C135" s="53" t="s">
+        <v>452</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" s="26" t="s">
         <v>447</v>
-      </c>
-      <c r="B135" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="C135" s="45" t="s">
-        <v>448</v>
-      </c>
-      <c r="D135" s="11"/>
-      <c r="E135" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F135" s="26" t="s">
-        <v>443</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="11"/>
-      <c r="J135" s="45"/>
+      <c r="J135" s="53"/>
       <c r="K135" s="11"/>
       <c r="L135" s="11"/>
       <c r="M135" s="11"/>
-      <c r="N135" s="47"/>
+      <c r="N135" s="55"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
       <c r="Q135" s="11"/>
-      <c r="R135" s="45"/>
+      <c r="R135" s="53"/>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="R136" s="5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137">
@@ -5904,17 +5998,17 @@
         <v>30</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138">
@@ -5922,17 +6016,17 @@
         <v>34</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139">
@@ -5940,17 +6034,17 @@
         <v>38</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I139" s="11"/>
       <c r="J139" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="140">
@@ -5958,17 +6052,17 @@
         <v>42</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141">
@@ -5976,17 +6070,17 @@
         <v>46</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I141" s="11"/>
       <c r="J141" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142">
@@ -5994,17 +6088,17 @@
         <v>50</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I142" s="11"/>
       <c r="J142" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143">
@@ -6012,17 +6106,17 @@
         <v>54</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I143" s="11"/>
       <c r="J143" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144">
@@ -6030,17 +6124,17 @@
         <v>58</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="145">
@@ -6048,17 +6142,17 @@
         <v>62</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I145" s="11"/>
       <c r="J145" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="146">
@@ -6066,17 +6160,17 @@
         <v>66</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147">
@@ -6084,17 +6178,17 @@
         <v>70</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I147" s="11"/>
       <c r="J147" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148">
@@ -6102,17 +6196,17 @@
         <v>74</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149">
@@ -6120,17 +6214,17 @@
         <v>78</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I149" s="11"/>
       <c r="J149" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150">
@@ -6138,131 +6232,131 @@
         <v>89</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="R150" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="R151" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>470</v>
+        <v>398</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="R152" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I153" s="11"/>
       <c r="J153" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="R153" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>477</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="48">
+      <c r="A155" s="56">
         <v>229.0</v>
       </c>
-      <c r="B155" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="C155" s="45" t="s">
-        <v>432</v>
+      <c r="B155" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="C155" s="53" t="s">
+        <v>436</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="49" t="b">
+      <c r="E155" s="57" t="b">
         <v>1</v>
       </c>
-      <c r="F155" s="45"/>
+      <c r="F155" s="53"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
-      <c r="I155" s="50" t="s">
+      <c r="I155" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="J155" s="45"/>
-      <c r="K155" s="50"/>
+      <c r="J155" s="53"/>
+      <c r="K155" s="58"/>
       <c r="L155" s="11"/>
       <c r="M155" s="11"/>
-      <c r="N155" s="47"/>
+      <c r="N155" s="55"/>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
@@ -6304,10 +6398,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6328,13 +6422,13 @@
       <c r="I1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="61" t="s">
         <v>485</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="62" t="s">
         <v>487</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -6348,17 +6442,17 @@
       <c r="B2" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="43" t="s">
-        <v>444</v>
+      <c r="D2" s="64"/>
+      <c r="E2" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="K2" s="57">
+      <c r="K2" s="65">
         <v>6.0</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -6372,12 +6466,12 @@
       <c r="B3" s="37" t="s">
         <v>494</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="63" t="s">
         <v>495</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="43" t="s">
-        <v>441</v>
+      <c r="E3" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>496</v>
@@ -6385,10 +6479,10 @@
       <c r="G3" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="65" t="s">
         <v>499</v>
       </c>
     </row>
@@ -6399,19 +6493,19 @@
       <c r="B4" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>444</v>
+      <c r="E4" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="K4" s="57">
+      <c r="K4" s="65">
         <v>6.0</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="65" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6422,11 +6516,11 @@
       <c r="B5" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>441</v>
+      <c r="E5" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>505</v>
@@ -6434,10 +6528,10 @@
       <c r="G5" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="65" t="s">
         <v>506</v>
       </c>
     </row>
@@ -6448,19 +6542,19 @@
       <c r="B6" s="37" t="s">
         <v>508</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>444</v>
+      <c r="E6" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="65">
         <v>6.0</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="65" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6471,11 +6565,11 @@
       <c r="B7" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>441</v>
+      <c r="E7" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>512</v>
@@ -6483,10 +6577,10 @@
       <c r="G7" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="65" t="s">
         <v>513</v>
       </c>
     </row>
@@ -6497,19 +6591,19 @@
       <c r="B8" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>444</v>
+      <c r="E8" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="K8" s="57">
+      <c r="K8" s="65">
         <v>6.0</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="65" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6520,11 +6614,11 @@
       <c r="B9" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>441</v>
+      <c r="E9" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>519</v>
@@ -6532,10 +6626,10 @@
       <c r="G9" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="65" t="s">
         <v>520</v>
       </c>
     </row>
@@ -6546,19 +6640,19 @@
       <c r="B10" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E10" s="43" t="s">
-        <v>444</v>
+      <c r="E10" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="65">
         <v>6.0</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="65" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6569,11 +6663,11 @@
       <c r="B11" s="37" t="s">
         <v>525</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>441</v>
+      <c r="E11" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>526</v>
@@ -6581,10 +6675,10 @@
       <c r="G11" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="65" t="s">
         <v>527</v>
       </c>
     </row>
@@ -6595,16 +6689,16 @@
       <c r="B12" s="37" t="s">
         <v>529</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>444</v>
+      <c r="E12" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="65">
         <v>6.0</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -6618,11 +6712,11 @@
       <c r="B13" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>441</v>
+      <c r="E13" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>533</v>
@@ -6630,10 +6724,10 @@
       <c r="G13" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="65" t="s">
         <v>534</v>
       </c>
     </row>
@@ -6644,19 +6738,19 @@
       <c r="B14" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E14" s="43" t="s">
-        <v>444</v>
+      <c r="E14" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="65">
         <v>6.0</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="65" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6667,11 +6761,11 @@
       <c r="B15" s="37" t="s">
         <v>539</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>441</v>
+      <c r="E15" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>540</v>
@@ -6679,10 +6773,10 @@
       <c r="G15" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L15" s="57" t="s">
+      <c r="L15" s="65" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6693,19 +6787,19 @@
       <c r="B16" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E16" s="43" t="s">
-        <v>444</v>
+      <c r="E16" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="65">
         <v>6.0</v>
       </c>
-      <c r="L16" s="57" t="s">
+      <c r="L16" s="65" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6716,11 +6810,11 @@
       <c r="B17" s="37" t="s">
         <v>546</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E17" s="43" t="s">
-        <v>441</v>
+      <c r="E17" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>547</v>
@@ -6728,10 +6822,10 @@
       <c r="G17" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="65" t="s">
         <v>548</v>
       </c>
     </row>
@@ -6742,19 +6836,19 @@
       <c r="B18" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>444</v>
+      <c r="E18" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="65">
         <v>6.0</v>
       </c>
-      <c r="L18" s="57" t="s">
+      <c r="L18" s="65" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6765,11 +6859,11 @@
       <c r="B19" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E19" s="43" t="s">
-        <v>441</v>
+      <c r="E19" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>554</v>
@@ -6777,10 +6871,10 @@
       <c r="G19" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L19" s="57" t="s">
+      <c r="L19" s="65" t="s">
         <v>555</v>
       </c>
     </row>
@@ -6791,19 +6885,19 @@
       <c r="B20" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E20" s="43" t="s">
-        <v>444</v>
+      <c r="E20" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="K20" s="57">
+      <c r="K20" s="65">
         <v>6.0</v>
       </c>
-      <c r="L20" s="57" t="s">
+      <c r="L20" s="65" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6814,11 +6908,11 @@
       <c r="B21" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>441</v>
+      <c r="E21" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>561</v>
@@ -6826,10 +6920,10 @@
       <c r="G21" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="65" t="s">
         <v>562</v>
       </c>
     </row>
@@ -6840,19 +6934,19 @@
       <c r="B22" s="37" t="s">
         <v>564</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>444</v>
+      <c r="E22" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="65">
         <v>6.0</v>
       </c>
-      <c r="L22" s="57" t="s">
+      <c r="L22" s="65" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6863,11 +6957,11 @@
       <c r="B23" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E23" s="43" t="s">
-        <v>441</v>
+      <c r="E23" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>568</v>
@@ -6875,10 +6969,10 @@
       <c r="G23" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K23" s="57" t="s">
+      <c r="K23" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L23" s="57" t="s">
+      <c r="L23" s="65" t="s">
         <v>569</v>
       </c>
     </row>
@@ -6889,20 +6983,20 @@
       <c r="B24" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>444</v>
+      <c r="E24" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="65"/>
       <c r="K24" s="5">
         <v>6.0</v>
       </c>
-      <c r="L24" s="57" t="s">
+      <c r="L24" s="65" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6913,11 +7007,11 @@
       <c r="B25" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E25" s="43" t="s">
-        <v>441</v>
+      <c r="E25" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>575</v>
@@ -6925,10 +7019,10 @@
       <c r="G25" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K25" s="57" t="s">
+      <c r="K25" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="65" t="s">
         <v>576</v>
       </c>
     </row>
@@ -6939,19 +7033,19 @@
       <c r="B26" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>444</v>
+      <c r="E26" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="65">
         <v>6.0</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="65" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6962,11 +7056,11 @@
       <c r="B27" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E27" s="43" t="s">
-        <v>441</v>
+      <c r="E27" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>582</v>
@@ -6974,10 +7068,10 @@
       <c r="G27" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L27" s="57" t="s">
+      <c r="L27" s="65" t="s">
         <v>583</v>
       </c>
     </row>
@@ -6988,19 +7082,19 @@
       <c r="B28" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E28" s="43" t="s">
-        <v>444</v>
+      <c r="E28" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="K28" s="57">
+      <c r="K28" s="65">
         <v>6.0</v>
       </c>
-      <c r="L28" s="57" t="s">
+      <c r="L28" s="65" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7011,11 +7105,11 @@
       <c r="B29" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E29" s="43" t="s">
-        <v>441</v>
+      <c r="E29" s="51" t="s">
+        <v>445</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>589</v>
@@ -7023,10 +7117,10 @@
       <c r="G29" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K29" s="57" t="s">
+      <c r="K29" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="L29" s="57" t="s">
+      <c r="L29" s="65" t="s">
         <v>590</v>
       </c>
     </row>
@@ -7037,11 +7131,11 @@
       <c r="B30" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E30" s="43" t="s">
-        <v>437</v>
+      <c r="E30" s="51" t="s">
+        <v>441</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>497</v>
@@ -7049,196 +7143,196 @@
       <c r="G30" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="K30" s="57" t="s">
+      <c r="K30" s="66" t="s">
         <v>594</v>
       </c>
-      <c r="L30" s="58" t="s">
+      <c r="L30" s="67" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="40" t="s">
         <v>596</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="39" t="s">
         <v>597</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="F31" s="59" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="F31" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="59">
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="40">
         <v>0.0</v>
       </c>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="62"/>
+      <c r="M31" s="41"/>
     </row>
     <row r="32">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="40" t="s">
         <v>599</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="39" t="s">
         <v>600</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="68" t="s">
         <v>495</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="66" t="s">
+        <v>603</v>
+      </c>
+      <c r="L32" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="M32" s="41"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>495</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="F32" s="59" t="s">
-        <v>601</v>
-      </c>
-      <c r="G32" s="59" t="s">
+      <c r="F33" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="L32" s="59" t="s">
-        <v>604</v>
-      </c>
-      <c r="M32" s="62"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>606</v>
-      </c>
-      <c r="C33" s="61" t="s">
+      <c r="G33" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="66" t="s">
+        <v>594</v>
+      </c>
+      <c r="L33" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="M33" s="41"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="40" t="s">
+        <v>609</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="C34" s="68" t="s">
         <v>495</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="F33" s="59" t="s">
+      <c r="D34" s="41"/>
+      <c r="E34" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="F34" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="G33" s="59" t="s">
-        <v>607</v>
-      </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>608</v>
-      </c>
-      <c r="M33" s="62"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="59" t="s">
-        <v>609</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>610</v>
-      </c>
-      <c r="C34" s="61" t="s">
+      <c r="G34" s="40" t="s">
+        <v>611</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="66" t="s">
+        <v>594</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="M34" s="41"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="C35" s="68" t="s">
         <v>495</v>
       </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="F34" s="59" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="G34" s="59" t="s">
-        <v>611</v>
-      </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="L34" s="59" t="s">
-        <v>612</v>
-      </c>
-      <c r="M34" s="62"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="59" t="s">
-        <v>613</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>614</v>
-      </c>
-      <c r="C35" s="61" t="s">
+      <c r="G35" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="66" t="s">
+        <v>594</v>
+      </c>
+      <c r="L35" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="M35" s="41"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>618</v>
+      </c>
+      <c r="C36" s="68" t="s">
         <v>495</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="F35" s="59" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="G35" s="59" t="s">
-        <v>615</v>
-      </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="L35" s="59" t="s">
-        <v>616</v>
-      </c>
-      <c r="M35" s="62"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="59" t="s">
-        <v>617</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>618</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="F36" s="59" t="s">
-        <v>602</v>
-      </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="40" t="s">
         <v>619</v>
       </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="L36" s="59" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="66" t="s">
+        <v>594</v>
+      </c>
+      <c r="L36" s="40" t="s">
         <v>620</v>
       </c>
-      <c r="M36" s="62"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
@@ -7247,11 +7341,11 @@
       <c r="B37" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E37" s="43" t="s">
-        <v>444</v>
+      <c r="E37" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>623</v>
@@ -7270,11 +7364,11 @@
       <c r="B38" s="37" t="s">
         <v>625</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E38" s="43" t="s">
-        <v>437</v>
+      <c r="E38" s="51" t="s">
+        <v>441</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>626</v>
@@ -7282,7 +7376,7 @@
       <c r="G38" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="66" t="s">
         <v>628</v>
       </c>
       <c r="L38" s="5" t="s">
@@ -7290,64 +7384,64 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="40" t="s">
         <v>630</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="39" t="s">
         <v>631</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="F39" s="59" t="s">
+      <c r="D39" s="41"/>
+      <c r="E39" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="F39" s="40" t="s">
         <v>632</v>
       </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="59">
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="40">
         <v>0.0</v>
       </c>
-      <c r="L39" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="M39" s="62"/>
+      <c r="L39" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="M39" s="41"/>
     </row>
     <row r="40">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="40" t="s">
         <v>633</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="68" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="F40" s="59" t="s">
+      <c r="D40" s="41"/>
+      <c r="E40" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="F40" s="40" t="s">
         <v>635</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="40" t="s">
         <v>636</v>
       </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="59" t="s">
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="66" t="s">
         <v>628</v>
       </c>
-      <c r="L40" s="59" t="s">
+      <c r="L40" s="40" t="s">
         <v>637</v>
       </c>
-      <c r="M40" s="62"/>
+      <c r="M40" s="41"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
@@ -7356,11 +7450,11 @@
       <c r="B41" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="63" t="s">
         <v>491</v>
       </c>
-      <c r="E41" s="43" t="s">
-        <v>444</v>
+      <c r="E41" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>640</v>
@@ -7369,7 +7463,7 @@
         <v>0.0</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42">
@@ -7379,11 +7473,11 @@
       <c r="B42" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="63" t="s">
         <v>495</v>
       </c>
-      <c r="E42" s="43" t="s">
-        <v>437</v>
+      <c r="E42" s="51" t="s">
+        <v>441</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>643</v>
@@ -7391,7 +7485,7 @@
       <c r="G42" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="66" t="s">
         <v>628</v>
       </c>
       <c r="L42" s="5" t="s">
@@ -7399,64 +7493,64 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="40" t="s">
         <v>646</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="F43" s="59" t="s">
+      <c r="D43" s="41"/>
+      <c r="E43" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="F43" s="40" t="s">
         <v>648</v>
       </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="59">
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="40">
         <v>0.0</v>
       </c>
-      <c r="L43" s="59" t="s">
-        <v>400</v>
-      </c>
-      <c r="M43" s="62"/>
+      <c r="L43" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="M43" s="41"/>
     </row>
     <row r="44">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="40" t="s">
         <v>649</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="39" t="s">
         <v>650</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="68" t="s">
         <v>495</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="F44" s="59" t="s">
+      <c r="D44" s="41"/>
+      <c r="E44" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="F44" s="40" t="s">
         <v>651</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="G44" s="40" t="s">
         <v>652</v>
       </c>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="59" t="s">
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="66" t="s">
         <v>628</v>
       </c>
-      <c r="L44" s="59" t="s">
+      <c r="L44" s="40" t="s">
         <v>653</v>
       </c>
-      <c r="M44" s="62"/>
+      <c r="M44" s="41"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
@@ -7468,10 +7562,10 @@
       <c r="C45" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="70" t="s">
         <v>657</v>
       </c>
-      <c r="E45" s="42"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="5" t="s">
         <v>658</v>
       </c>
@@ -7498,6 +7592,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.63"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -7515,10 +7613,10 @@
       <c r="E1" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7788,7 +7886,7 @@
         <v>626</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>467</v>
+        <v>394</v>
       </c>
       <c r="F17" s="5">
         <v>4.0</v>
@@ -7805,7 +7903,7 @@
         <v>635</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>470</v>
+        <v>398</v>
       </c>
       <c r="F18" s="5">
         <v>4.0</v>
@@ -7822,7 +7920,7 @@
         <v>643</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="F19" s="5">
         <v>4.0</v>
@@ -7839,7 +7937,7 @@
         <v>651</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
       <c r="F20" s="5">
         <v>4.0</v>
@@ -7856,610 +7954,664 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="43.63"/>
-    <col customWidth="1" min="3" max="3" width="14.5"/>
+    <col customWidth="1" min="3" max="5" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="75" t="s">
+        <v>682</v>
+      </c>
+      <c r="E1" s="73" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69" t="s">
-        <v>682</v>
+      <c r="A2" s="76" t="s">
+        <v>683</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="C2" s="70" t="s">
         <v>684</v>
       </c>
+      <c r="C2" s="77" t="s">
+        <v>685</v>
+      </c>
       <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="69" t="s">
-        <v>685</v>
+      <c r="A3" s="76" t="s">
+        <v>686</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="C3" s="70" t="s">
         <v>687</v>
       </c>
+      <c r="C3" s="77" t="s">
+        <v>688</v>
+      </c>
       <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="69" t="s">
-        <v>688</v>
+      <c r="A4" s="76" t="s">
+        <v>689</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="C4" s="70" t="s">
         <v>690</v>
       </c>
+      <c r="C4" s="77" t="s">
+        <v>691</v>
+      </c>
       <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="69" t="s">
-        <v>691</v>
+      <c r="A5" s="76" t="s">
+        <v>692</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>692</v>
-      </c>
-      <c r="C5" s="70" t="s">
         <v>693</v>
       </c>
+      <c r="C5" s="77" t="s">
+        <v>694</v>
+      </c>
       <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="69" t="s">
-        <v>694</v>
+      <c r="A6" s="76" t="s">
+        <v>695</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="C6" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="C6" s="77" t="s">
+        <v>697</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="76" t="s">
+        <v>698</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>700</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="76" t="s">
+        <v>701</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>703</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="76" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>706</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="76" t="s">
+        <v>707</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>709</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="76" t="s">
+        <v>710</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>712</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="76" t="s">
+        <v>713</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>715</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="76" t="s">
+        <v>716</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>718</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="76" t="s">
+        <v>719</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>721</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="76" t="s">
+        <v>722</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>724</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="76" t="s">
+        <v>725</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>727</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="76" t="s">
+        <v>728</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="C17" s="77" t="s">
         <v>697</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>698</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>699</v>
-      </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="69" t="s">
-        <v>700</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>702</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="69" t="s">
-        <v>703</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>705</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="69" t="s">
-        <v>706</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>707</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>708</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="69" t="s">
-        <v>709</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>711</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="69" t="s">
-        <v>712</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>714</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="69" t="s">
-        <v>715</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>717</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="69" t="s">
-        <v>718</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>719</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>720</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="69" t="s">
-        <v>721</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>722</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>723</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="69" t="s">
-        <v>724</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>725</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>726</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="69" t="s">
-        <v>727</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>696</v>
-      </c>
       <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="69" t="s">
-        <v>729</v>
+      <c r="A18" s="76" t="s">
+        <v>730</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>730</v>
-      </c>
-      <c r="C18" s="70" t="s">
         <v>731</v>
       </c>
+      <c r="C18" s="77" t="s">
+        <v>732</v>
+      </c>
       <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="69" t="s">
-        <v>732</v>
+      <c r="A19" s="76" t="s">
+        <v>733</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="C19" s="72" t="s">
         <v>734</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="C19" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>736</v>
+      </c>
+      <c r="E19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="76" t="s">
+        <v>737</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="76" t="s">
+        <v>740</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>742</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="76" t="s">
+        <v>743</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>736</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>737</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="69" t="s">
-        <v>738</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>739</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>740</v>
-      </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="69" t="s">
-        <v>741</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>743</v>
-      </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="80" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="69" t="s">
-        <v>744</v>
+      <c r="A23" s="76" t="s">
+        <v>746</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>746</v>
+        <v>747</v>
+      </c>
+      <c r="C23" s="77" t="s">
+        <v>748</v>
       </c>
       <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="69" t="s">
-        <v>747</v>
+      <c r="A24" s="76" t="s">
+        <v>749</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>748</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>749</v>
+        <v>750</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>751</v>
       </c>
       <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="75" t="s">
-        <v>750</v>
-      </c>
-      <c r="B25" s="76" t="s">
-        <v>751</v>
-      </c>
-      <c r="C25" s="77" t="s">
+      <c r="A25" s="82" t="s">
         <v>752</v>
       </c>
-      <c r="D25" s="78"/>
+      <c r="B25" s="83" t="s">
+        <v>753</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>754</v>
+      </c>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26">
-      <c r="A26" s="69" t="s">
-        <v>753</v>
+      <c r="A26" s="76" t="s">
+        <v>755</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>755</v>
+        <v>756</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>757</v>
       </c>
       <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27">
-      <c r="A27" s="69" t="s">
-        <v>756</v>
+      <c r="A27" s="76" t="s">
+        <v>758</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>758</v>
+        <v>759</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>760</v>
       </c>
       <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28">
-      <c r="A28" s="69" t="s">
-        <v>759</v>
+      <c r="A28" s="76" t="s">
+        <v>761</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>761</v>
+        <v>762</v>
+      </c>
+      <c r="C28" s="77" t="s">
+        <v>763</v>
       </c>
       <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29">
-      <c r="A29" s="69" t="s">
-        <v>762</v>
+      <c r="A29" s="76" t="s">
+        <v>764</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>764</v>
+        <v>765</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>766</v>
       </c>
       <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30">
-      <c r="A30" s="69" t="s">
-        <v>765</v>
+      <c r="A30" s="76" t="s">
+        <v>767</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>766</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>767</v>
+        <v>768</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>769</v>
       </c>
       <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31">
-      <c r="A31" s="69" t="s">
-        <v>768</v>
+      <c r="A31" s="76" t="s">
+        <v>770</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="C31" s="77" t="s">
+        <v>772</v>
       </c>
       <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32">
-      <c r="A32" s="69" t="s">
-        <v>771</v>
+      <c r="A32" s="76" t="s">
+        <v>773</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>773</v>
+        <v>774</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>775</v>
       </c>
       <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="69" t="s">
-        <v>774</v>
+      <c r="A33" s="76" t="s">
+        <v>776</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>775</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>776</v>
+        <v>777</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>778</v>
       </c>
       <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34">
-      <c r="A34" s="69" t="s">
-        <v>777</v>
+      <c r="A34" s="76" t="s">
+        <v>779</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>778</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>779</v>
+        <v>780</v>
+      </c>
+      <c r="C34" s="77" t="s">
+        <v>781</v>
       </c>
       <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="69" t="s">
-        <v>780</v>
+      <c r="A35" s="76" t="s">
+        <v>782</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>781</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>782</v>
+        <v>783</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>784</v>
       </c>
       <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="69" t="s">
-        <v>783</v>
+      <c r="A36" s="76" t="s">
+        <v>785</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>785</v>
+        <v>786</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>787</v>
       </c>
       <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="69" t="s">
-        <v>786</v>
+      <c r="A37" s="76" t="s">
+        <v>788</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>787</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>788</v>
+        <v>789</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>790</v>
       </c>
       <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="69" t="s">
-        <v>789</v>
+      <c r="A38" s="76" t="s">
+        <v>791</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>791</v>
+        <v>792</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>793</v>
       </c>
       <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="69" t="s">
-        <v>792</v>
+      <c r="A39" s="76" t="s">
+        <v>794</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>686</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>793</v>
+        <v>687</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>795</v>
       </c>
       <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="69" t="s">
-        <v>794</v>
+      <c r="A40" s="76" t="s">
+        <v>796</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>795</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>796</v>
+        <v>797</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>798</v>
       </c>
       <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="69" t="s">
-        <v>797</v>
+      <c r="A41" s="76" t="s">
+        <v>799</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="C41" s="80" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>801</v>
       </c>
       <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="69" t="s">
-        <v>800</v>
+      <c r="A42" s="76" t="s">
+        <v>802</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="C42" s="81" t="s">
-        <v>802</v>
-      </c>
-      <c r="D42" s="82"/>
+        <v>803</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>804</v>
+      </c>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
     </row>
     <row r="43">
-      <c r="A43" s="69" t="s">
-        <v>803</v>
+      <c r="A43" s="76" t="s">
+        <v>805</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="C43" s="83" t="s">
-        <v>805</v>
+        <v>806</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="69" t="s">
-        <v>806</v>
+      <c r="A44" s="76" t="s">
+        <v>808</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>807</v>
-      </c>
-      <c r="C44" s="83" t="s">
-        <v>808</v>
+        <v>809</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="69" t="s">
-        <v>809</v>
+      <c r="A45" s="76" t="s">
+        <v>811</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>811</v>
+        <v>812</v>
+      </c>
+      <c r="C45" s="91" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="69" t="s">
-        <v>812</v>
+      <c r="A46" s="76" t="s">
+        <v>814</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>814</v>
-      </c>
-      <c r="D46" s="85"/>
+        <v>815</v>
+      </c>
+      <c r="C46" s="88" t="s">
+        <v>816</v>
+      </c>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
     </row>
     <row r="47">
-      <c r="A47" s="69" t="s">
-        <v>815</v>
+      <c r="A47" s="76" t="s">
+        <v>817</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="C47" s="81" t="s">
-        <v>817</v>
-      </c>
-      <c r="D47" s="85"/>
+        <v>818</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>819</v>
+      </c>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
     </row>
     <row r="48">
-      <c r="A48" s="69" t="s">
-        <v>818</v>
+      <c r="A48" s="76" t="s">
+        <v>820</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>819</v>
-      </c>
-      <c r="C48" s="81" t="s">
-        <v>820</v>
-      </c>
-      <c r="D48" s="85"/>
+        <v>821</v>
+      </c>
+      <c r="C48" s="88" t="s">
+        <v>822</v>
+      </c>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
     </row>
     <row r="49">
-      <c r="A49" s="69" t="s">
-        <v>821</v>
+      <c r="A49" s="76" t="s">
+        <v>823</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>823</v>
-      </c>
-      <c r="D49" s="85"/>
+        <v>824</v>
+      </c>
+      <c r="C49" s="91" t="s">
+        <v>825</v>
+      </c>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
     </row>
     <row r="50">
-      <c r="A50" s="69" t="s">
-        <v>824</v>
+      <c r="A50" s="76" t="s">
+        <v>826</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>826</v>
+        <v>827</v>
+      </c>
+      <c r="C50" s="91" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -8484,14 +8636,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -8522,7 +8674,7 @@
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -8554,7 +8706,7 @@
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -8601,122 +8753,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="E1" s="54" t="s">
-        <v>831</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>832</v>
+      <c r="E1" s="62" t="s">
+        <v>833</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>834</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="H1" s="87" t="s">
+        <v>835</v>
+      </c>
+      <c r="H1" s="94" t="s">
         <v>488</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="F2" s="64"/>
+        <v>838</v>
+      </c>
+      <c r="F2" s="70"/>
       <c r="H2" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="I2" s="88" t="s">
-        <v>838</v>
+        <v>839</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="F3" s="64"/>
+        <v>842</v>
+      </c>
+      <c r="F3" s="70"/>
       <c r="H3" s="5" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="H4" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="F4" s="64"/>
-      <c r="H4" s="5" t="s">
-        <v>841</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="F5" s="64"/>
+        <v>849</v>
+      </c>
+      <c r="F5" s="70"/>
       <c r="H5" s="5" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="H6" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="H6" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="7">
@@ -8724,17 +8876,17 @@
         <v>478</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="F7" s="64"/>
+        <v>853</v>
+      </c>
+      <c r="F7" s="70"/>
       <c r="H7" s="5" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -8754,16 +8906,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -8778,13 +8930,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -8822,13 +8974,13 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -8844,10 +8996,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -8861,10 +9013,10 @@
     <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -8878,10 +9030,10 @@
     <row r="8">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -8895,10 +9047,10 @@
     <row r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>862</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -8924,10 +9076,10 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -8941,10 +9093,10 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>869</v>
+        <v>871</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>872</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -8958,10 +9110,10 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>871</v>
+        <v>873</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>874</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -8988,10 +9140,10 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="B15" s="88" t="s">
-        <v>873</v>
+        <v>875</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>876</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -9005,27 +9157,27 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="B16" s="87" t="s">
+        <v>877</v>
+      </c>
+      <c r="B16" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>876</v>
+        <v>878</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="18">
@@ -9047,46 +9199,46 @@
       <c r="A23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="90" t="s">
-        <v>877</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>878</v>
+      <c r="A24" s="97" t="s">
+        <v>880</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="90" t="s">
-        <v>879</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>880</v>
+      <c r="A25" s="97" t="s">
+        <v>882</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="90" t="s">
-        <v>881</v>
-      </c>
-      <c r="B26" s="92" t="s">
-        <v>882</v>
-      </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
+      <c r="A26" s="97" t="s">
+        <v>884</v>
+      </c>
+      <c r="B26" s="99" t="s">
+        <v>885</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="11" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="11" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29">
@@ -9124,66 +9276,66 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>888</v>
+        <v>890</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>889</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>890</v>
+        <v>892</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>891</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>892</v>
+        <v>894</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="C5" s="95" t="s">
-        <v>894</v>
+        <v>896</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>895</v>
-      </c>
-      <c r="D6" s="97"/>
+        <v>843</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>898</v>
+      </c>
+      <c r="D6" s="104"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>897</v>
+        <v>899</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="941">
   <si>
     <t>id</t>
   </si>
@@ -1061,7 +1061,10 @@
     <t>B96</t>
   </si>
   <si>
-    <t>T12 ray ramus</t>
+    <t>ILX:0739298</t>
+  </si>
+  <si>
+    <t>T12 gray ramus</t>
   </si>
   <si>
     <t>B97</t>
@@ -1136,7 +1139,7 @@
     <t>B117, B122, B118</t>
   </si>
   <si>
-    <t>0,0,0,0</t>
+    <t>1,1,1</t>
   </si>
   <si>
     <t>B103</t>
@@ -3124,7 +3127,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3317,6 +3320,16 @@
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -3746,48 +3759,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="105" t="s">
-        <v>902</v>
-      </c>
-      <c r="B2" s="106" t="s">
+      <c r="A2" s="109" t="s">
         <v>903</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="110" t="s">
         <v>904</v>
       </c>
+      <c r="C2" s="111" t="s">
+        <v>905</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="109" t="s">
+        <v>906</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="C3" s="111" t="s">
         <v>905</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>906</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>904</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="105" t="s">
-        <v>907</v>
+      <c r="A4" s="109" t="s">
+        <v>908</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>908</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>904</v>
+        <v>909</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="107" t="s">
-        <v>909</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>904</v>
+      <c r="B5" s="111" t="s">
+        <v>910</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -3814,123 +3827,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="108" t="s">
-        <v>910</v>
-      </c>
-      <c r="B1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>911</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>912</v>
-      </c>
-      <c r="B2" s="109" t="s">
         <v>913</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
-        <v>914</v>
-      </c>
-      <c r="B3" s="109" t="s">
         <v>915</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>916</v>
-      </c>
-      <c r="B4" s="109" t="s">
         <v>917</v>
+      </c>
+      <c r="B4" s="113" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
-        <v>918</v>
-      </c>
-      <c r="B5" s="109" t="s">
         <v>919</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>920</v>
-      </c>
-      <c r="B6" s="109" t="s">
         <v>921</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>922</v>
-      </c>
-      <c r="B7" s="109" t="s">
         <v>923</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>924</v>
-      </c>
-      <c r="B8" s="109" t="s">
         <v>925</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>926</v>
-      </c>
-      <c r="B9" s="109" t="s">
         <v>927</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>928</v>
-      </c>
-      <c r="B10" s="109" t="s">
         <v>929</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="31" t="s">
-        <v>930</v>
-      </c>
-      <c r="B11" s="109" t="s">
         <v>931</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>932</v>
-      </c>
-      <c r="B12" s="109" t="s">
         <v>933</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
-        <v>934</v>
-      </c>
-      <c r="B13" s="109" t="s">
         <v>935</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
-        <v>936</v>
-      </c>
-      <c r="B14" s="109" t="s">
         <v>937</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="31" t="s">
-        <v>938</v>
-      </c>
-      <c r="B15" s="109" t="s">
         <v>939</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +3983,7 @@
     <col customWidth="1" min="2" max="2" width="14.75"/>
     <col customWidth="1" min="3" max="3" width="22.38"/>
     <col customWidth="1" min="13" max="13" width="26.88"/>
-    <col customWidth="1" min="14" max="14" width="16.75"/>
+    <col customWidth="1" min="14" max="14" width="20.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4358,7 +4371,7 @@
         <v>86</v>
       </c>
       <c r="N17" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -5339,77 +5352,77 @@
       <c r="A99" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="B99" s="28" t="s">
-        <v>328</v>
+      <c r="B99" s="31" t="s">
+        <v>331</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I99" s="11"/>
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I100" s="11"/>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I103" s="11"/>
     </row>
     <row r="104">
       <c r="A104" s="12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I104" s="4"/>
       <c r="M104" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N104" s="5">
         <v>0.0</v>
@@ -5417,24 +5430,24 @@
     </row>
     <row r="105">
       <c r="A105" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="38" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="41"/>
@@ -5442,16 +5455,16 @@
       <c r="G106" s="41"/>
       <c r="H106" s="41"/>
       <c r="I106" s="42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J106" s="41"/>
       <c r="K106" s="41"/>
       <c r="L106" s="41"/>
       <c r="M106" s="40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N106" s="40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O106" s="41"/>
       <c r="P106" s="41"/>
@@ -5460,13 +5473,13 @@
     </row>
     <row r="107">
       <c r="A107" s="43" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D107" s="41"/>
       <c r="E107" s="41"/>
@@ -5474,16 +5487,16 @@
       <c r="G107" s="41"/>
       <c r="H107" s="41"/>
       <c r="I107" s="42" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J107" s="41"/>
       <c r="K107" s="41"/>
       <c r="L107" s="41"/>
       <c r="M107" s="40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N107" s="40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O107" s="41"/>
       <c r="P107" s="41"/>
@@ -5492,13 +5505,13 @@
     </row>
     <row r="108">
       <c r="A108" s="43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D108" s="41"/>
       <c r="E108" s="41"/>
@@ -5506,16 +5519,16 @@
       <c r="G108" s="41"/>
       <c r="H108" s="41"/>
       <c r="I108" s="42" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J108" s="41"/>
       <c r="K108" s="41"/>
       <c r="L108" s="41"/>
       <c r="M108" s="40" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N108" s="40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O108" s="41"/>
       <c r="P108" s="41"/>
@@ -5524,13 +5537,13 @@
     </row>
     <row r="109">
       <c r="A109" s="38" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D109" s="41"/>
       <c r="E109" s="41"/>
@@ -5538,16 +5551,16 @@
       <c r="G109" s="41"/>
       <c r="H109" s="41"/>
       <c r="I109" s="42" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J109" s="41"/>
       <c r="K109" s="41"/>
       <c r="L109" s="41"/>
       <c r="M109" s="40" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N109" s="40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O109" s="41"/>
       <c r="P109" s="41"/>
@@ -5556,153 +5569,153 @@
     </row>
     <row r="110">
       <c r="A110" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I110" s="11"/>
     </row>
     <row r="111">
       <c r="A111" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I111" s="11"/>
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I112" s="11"/>
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I113" s="11"/>
     </row>
     <row r="114">
       <c r="A114" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E114" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E115" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I115" s="24"/>
       <c r="M115" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I116" s="24"/>
       <c r="M116" s="47" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B117" s="46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I117" s="24"/>
       <c r="M117" s="47" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B118" s="46" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I118" s="24"/>
       <c r="M118" s="47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B119" s="46" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I119" s="24"/>
       <c r="M119" s="47" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>173</v>
@@ -5711,163 +5724,163 @@
     </row>
     <row r="121">
       <c r="A121" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I121" s="24"/>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I122" s="24"/>
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I123" s="24"/>
     </row>
     <row r="124">
       <c r="A124" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B124" s="37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I124" s="11"/>
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I125" s="24"/>
     </row>
     <row r="126">
       <c r="A126" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I126" s="11"/>
     </row>
     <row r="127">
       <c r="A127" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I127" s="11"/>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I128" s="11"/>
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C129" s="48" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I129" s="11"/>
     </row>
     <row r="130">
       <c r="A130" s="49" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E130" s="5" t="b">
         <v>1</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="50" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E131" s="5" t="b">
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I131" s="11"/>
     </row>
     <row r="132">
       <c r="A132" s="51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B132" s="52" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C132" s="53" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="54" t="b">
         <v>1</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -5884,20 +5897,20 @@
     </row>
     <row r="133">
       <c r="A133" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C133" s="53" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="54" t="b">
         <v>1</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -5914,20 +5927,20 @@
     </row>
     <row r="134">
       <c r="A134" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C134" s="53" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="54" t="b">
         <v>1</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -5944,20 +5957,20 @@
     </row>
     <row r="135">
       <c r="A135" s="51" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B135" s="52" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C135" s="53" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="54" t="b">
         <v>1</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -5977,20 +5990,20 @@
         <v>26</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R136" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137">
@@ -5998,17 +6011,17 @@
         <v>30</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138">
@@ -6016,17 +6029,17 @@
         <v>34</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139">
@@ -6034,17 +6047,17 @@
         <v>38</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I139" s="11"/>
       <c r="J139" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140">
@@ -6052,17 +6065,17 @@
         <v>42</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="141">
@@ -6070,17 +6083,17 @@
         <v>46</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I141" s="11"/>
       <c r="J141" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="142">
@@ -6088,17 +6101,17 @@
         <v>50</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I142" s="11"/>
       <c r="J142" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143">
@@ -6106,17 +6119,17 @@
         <v>54</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I143" s="11"/>
       <c r="J143" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="144">
@@ -6124,17 +6137,17 @@
         <v>58</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145">
@@ -6142,17 +6155,17 @@
         <v>62</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I145" s="11"/>
       <c r="J145" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146">
@@ -6160,17 +6173,17 @@
         <v>66</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147">
@@ -6178,17 +6191,17 @@
         <v>70</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I147" s="11"/>
       <c r="J147" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148">
@@ -6196,17 +6209,17 @@
         <v>74</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149">
@@ -6214,17 +6227,17 @@
         <v>78</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I149" s="11"/>
       <c r="J149" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150">
@@ -6232,104 +6245,104 @@
         <v>89</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R150" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R151" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I152" s="11"/>
       <c r="J152" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R152" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I153" s="11"/>
       <c r="J153" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R153" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I154" s="11"/>
       <c r="J154" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R154" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="155">
@@ -6337,10 +6350,10 @@
         <v>229.0</v>
       </c>
       <c r="B155" s="52" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C155" s="53" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="57" t="b">
@@ -6350,7 +6363,7 @@
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J155" s="53"/>
       <c r="K155" s="58"/>
@@ -6405,52 +6418,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D2" s="64"/>
       <c r="E2" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K2" s="65">
         <v>6.0</v>
@@ -6461,46 +6474,46 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L3" s="65" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="K4" s="65">
         <v>6.0</v>
@@ -6511,45 +6524,45 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K5" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L5" s="65" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K6" s="65">
         <v>6.0</v>
@@ -6560,45 +6573,45 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K7" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L7" s="65" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K8" s="65">
         <v>6.0</v>
@@ -6609,45 +6622,45 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K9" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L9" s="65" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K10" s="65">
         <v>6.0</v>
@@ -6658,45 +6671,45 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K11" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L11" s="65" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="K12" s="65">
         <v>6.0</v>
@@ -6707,45 +6720,45 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K13" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L13" s="65" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K14" s="65">
         <v>6.0</v>
@@ -6756,45 +6769,45 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K15" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L15" s="65" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K16" s="65">
         <v>6.0</v>
@@ -6805,45 +6818,45 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K17" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L17" s="65" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K18" s="65">
         <v>6.0</v>
@@ -6854,45 +6867,45 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K19" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L19" s="65" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K20" s="65">
         <v>6.0</v>
@@ -6903,144 +6916,165 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K21" s="65" t="s">
+        <v>499</v>
+      </c>
+      <c r="L21" s="65" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>565</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>566</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="66">
+        <v>6.0</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="69"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="66" t="s">
+        <v>567</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>568</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>569</v>
+      </c>
+      <c r="G23" s="66" t="s">
         <v>498</v>
       </c>
-      <c r="L21" s="65" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>491</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="K22" s="65">
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="L23" s="66" t="s">
+        <v>570</v>
+      </c>
+      <c r="M23" s="69"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="66" t="s">
+        <v>571</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>572</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="F24" s="66" t="s">
+        <v>573</v>
+      </c>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66">
         <v>6.0</v>
       </c>
-      <c r="L22" s="65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>567</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>495</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>445</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="K23" s="65" t="s">
+      <c r="L24" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="69"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="66" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="F25" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="G25" s="66" t="s">
         <v>498</v>
       </c>
-      <c r="L23" s="65" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>571</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>491</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="J24" s="65"/>
-      <c r="K24" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="L24" s="65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>495</v>
-      </c>
-      <c r="E25" s="51" t="s">
-        <v>445</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="K25" s="65" t="s">
-        <v>498</v>
-      </c>
-      <c r="L25" s="65" t="s">
-        <v>576</v>
-      </c>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="L25" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="M25" s="69"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K26" s="65">
         <v>6.0</v>
@@ -7051,45 +7085,45 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K27" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L27" s="65" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K28" s="65">
         <v>6.0</v>
@@ -7100,72 +7134,72 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K29" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L29" s="65" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K30" s="66" t="s">
-        <v>594</v>
-      </c>
-      <c r="L30" s="67" t="s">
         <v>595</v>
+      </c>
+      <c r="L30" s="71" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="40" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>597</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>491</v>
+        <v>598</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>492</v>
       </c>
       <c r="D31" s="41"/>
-      <c r="E31" s="69" t="s">
-        <v>448</v>
+      <c r="E31" s="73" t="s">
+        <v>449</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
@@ -7181,224 +7215,224 @@
     </row>
     <row r="32">
       <c r="A32" s="40" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>495</v>
+        <v>601</v>
+      </c>
+      <c r="C32" s="72" t="s">
+        <v>496</v>
       </c>
       <c r="D32" s="41"/>
-      <c r="E32" s="69" t="s">
-        <v>445</v>
+      <c r="E32" s="73" t="s">
+        <v>446</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
       <c r="K32" s="66" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L32" s="40" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M32" s="41"/>
     </row>
     <row r="33">
       <c r="A33" s="40" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>606</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>495</v>
+        <v>607</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>496</v>
       </c>
       <c r="D33" s="41"/>
-      <c r="E33" s="69" t="s">
-        <v>441</v>
+      <c r="E33" s="73" t="s">
+        <v>442</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
       <c r="J33" s="41"/>
       <c r="K33" s="66" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L33" s="40" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M33" s="41"/>
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>610</v>
-      </c>
-      <c r="C34" s="68" t="s">
-        <v>495</v>
+        <v>611</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>496</v>
       </c>
       <c r="D34" s="41"/>
-      <c r="E34" s="69" t="s">
-        <v>441</v>
+      <c r="E34" s="73" t="s">
+        <v>442</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="41"/>
       <c r="J34" s="41"/>
       <c r="K34" s="66" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L34" s="40" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M34" s="41"/>
     </row>
     <row r="35">
       <c r="A35" s="40" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C35" s="68" t="s">
-        <v>495</v>
+        <v>615</v>
+      </c>
+      <c r="C35" s="72" t="s">
+        <v>496</v>
       </c>
       <c r="D35" s="41"/>
-      <c r="E35" s="69" t="s">
-        <v>441</v>
+      <c r="E35" s="73" t="s">
+        <v>442</v>
       </c>
       <c r="F35" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
       <c r="J35" s="41"/>
       <c r="K35" s="66" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L35" s="40" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M35" s="41"/>
     </row>
     <row r="36">
       <c r="A36" s="40" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>495</v>
+        <v>619</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>496</v>
       </c>
       <c r="D36" s="41"/>
-      <c r="E36" s="69" t="s">
-        <v>441</v>
+      <c r="E36" s="73" t="s">
+        <v>442</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
       <c r="J36" s="41"/>
       <c r="K36" s="66" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L36" s="40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M36" s="41"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C37" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K37" s="5">
         <v>0.0</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C38" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K38" s="66" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="40" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>631</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>491</v>
+        <v>632</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>492</v>
       </c>
       <c r="D39" s="41"/>
-      <c r="E39" s="69" t="s">
-        <v>448</v>
+      <c r="E39" s="73" t="s">
+        <v>449</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
@@ -7408,106 +7442,106 @@
         <v>0.0</v>
       </c>
       <c r="L39" s="40" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M39" s="41"/>
     </row>
     <row r="40">
       <c r="A40" s="40" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>634</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>495</v>
+        <v>635</v>
+      </c>
+      <c r="C40" s="72" t="s">
+        <v>496</v>
       </c>
       <c r="D40" s="41"/>
-      <c r="E40" s="69" t="s">
-        <v>441</v>
+      <c r="E40" s="73" t="s">
+        <v>442</v>
       </c>
       <c r="F40" s="40" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="66" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L40" s="40" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M40" s="41"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="K41" s="5">
         <v>0.0</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C42" s="63" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K42" s="66" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="40" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>491</v>
+        <v>648</v>
+      </c>
+      <c r="C43" s="72" t="s">
+        <v>492</v>
       </c>
       <c r="D43" s="41"/>
-      <c r="E43" s="69" t="s">
-        <v>448</v>
+      <c r="E43" s="73" t="s">
+        <v>449</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
@@ -7517,60 +7551,60 @@
         <v>0.0</v>
       </c>
       <c r="L43" s="40" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M43" s="41"/>
     </row>
     <row r="44">
       <c r="A44" s="40" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>495</v>
+        <v>651</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>496</v>
       </c>
       <c r="D44" s="41"/>
-      <c r="E44" s="69" t="s">
-        <v>441</v>
+      <c r="E44" s="73" t="s">
+        <v>442</v>
       </c>
       <c r="F44" s="40" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G44" s="40" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
       <c r="J44" s="41"/>
       <c r="K44" s="66" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L44" s="40" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M44" s="41"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="D45" s="70" t="s">
         <v>657</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>658</v>
       </c>
       <c r="E45" s="50"/>
       <c r="F45" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -7605,30 +7639,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="F1" s="71" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" s="75" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>26</v>
@@ -7639,13 +7673,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>30</v>
@@ -7656,13 +7690,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>34</v>
@@ -7673,13 +7707,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>38</v>
@@ -7690,13 +7724,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>42</v>
@@ -7707,13 +7741,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>46</v>
@@ -7724,13 +7758,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>50</v>
@@ -7741,13 +7775,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>54</v>
@@ -7758,13 +7792,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>58</v>
@@ -7775,13 +7809,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>62</v>
@@ -7792,13 +7826,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>66</v>
@@ -7809,13 +7843,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>70</v>
@@ -7826,13 +7860,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>74</v>
@@ -7843,13 +7877,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>78</v>
@@ -7860,13 +7894,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>89</v>
@@ -7877,16 +7911,16 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F17" s="5">
         <v>4.0</v>
@@ -7894,16 +7928,16 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F18" s="5">
         <v>4.0</v>
@@ -7911,16 +7945,16 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F19" s="5">
         <v>4.0</v>
@@ -7928,16 +7962,16 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F20" s="5">
         <v>4.0</v>
@@ -7966,652 +8000,652 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
-        <v>682</v>
-      </c>
-      <c r="E1" s="73" t="s">
+      <c r="D1" s="79" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1" s="77" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="76" t="s">
-        <v>683</v>
+      <c r="A2" s="80" t="s">
+        <v>684</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>684</v>
-      </c>
-      <c r="C2" s="77" t="s">
         <v>685</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>686</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="76" t="s">
-        <v>686</v>
+      <c r="A3" s="80" t="s">
+        <v>687</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="C3" s="77" t="s">
         <v>688</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>689</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="76" t="s">
-        <v>689</v>
+      <c r="A4" s="80" t="s">
+        <v>690</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="C4" s="77" t="s">
         <v>691</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>692</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="76" t="s">
-        <v>692</v>
+      <c r="A5" s="80" t="s">
+        <v>693</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="C5" s="77" t="s">
         <v>694</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>695</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="76" t="s">
-        <v>695</v>
+      <c r="A6" s="80" t="s">
+        <v>696</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="C6" s="77" t="s">
         <v>697</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="C6" s="81" t="s">
+        <v>698</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="7">
-      <c r="A7" s="76" t="s">
-        <v>698</v>
+      <c r="A7" s="80" t="s">
+        <v>699</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="C7" s="77" t="s">
         <v>700</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>701</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="76" t="s">
-        <v>701</v>
+      <c r="A8" s="80" t="s">
+        <v>702</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="C8" s="77" t="s">
         <v>703</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>704</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="76" t="s">
-        <v>704</v>
+      <c r="A9" s="80" t="s">
+        <v>705</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="C9" s="77" t="s">
         <v>706</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>707</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="76" t="s">
-        <v>707</v>
+      <c r="A10" s="80" t="s">
+        <v>708</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="C10" s="77" t="s">
         <v>709</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>710</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="76" t="s">
-        <v>710</v>
+      <c r="A11" s="80" t="s">
+        <v>711</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>711</v>
-      </c>
-      <c r="C11" s="77" t="s">
         <v>712</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>713</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="76" t="s">
-        <v>713</v>
+      <c r="A12" s="80" t="s">
+        <v>714</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="C12" s="77" t="s">
         <v>715</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>716</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="76" t="s">
-        <v>716</v>
+      <c r="A13" s="80" t="s">
+        <v>717</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="C13" s="77" t="s">
         <v>718</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>719</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="76" t="s">
-        <v>719</v>
+      <c r="A14" s="80" t="s">
+        <v>720</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>720</v>
-      </c>
-      <c r="C14" s="77" t="s">
         <v>721</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>722</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="76" t="s">
-        <v>722</v>
+      <c r="A15" s="80" t="s">
+        <v>723</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="C15" s="77" t="s">
         <v>724</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>725</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="76" t="s">
-        <v>725</v>
+      <c r="A16" s="80" t="s">
+        <v>726</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="C16" s="77" t="s">
         <v>727</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>728</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="76" t="s">
-        <v>728</v>
+      <c r="A17" s="80" t="s">
+        <v>729</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>697</v>
+        <v>730</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>698</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="76" t="s">
-        <v>730</v>
+      <c r="A18" s="80" t="s">
+        <v>731</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="C18" s="77" t="s">
         <v>732</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>733</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="76" t="s">
-        <v>733</v>
+      <c r="A19" s="80" t="s">
+        <v>734</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>735</v>
-      </c>
-      <c r="D19" s="79" t="s">
         <v>736</v>
       </c>
+      <c r="D19" s="83" t="s">
+        <v>737</v>
+      </c>
       <c r="E19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="76" t="s">
-        <v>737</v>
+      <c r="A20" s="80" t="s">
+        <v>738</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>738</v>
-      </c>
-      <c r="C20" s="80" t="s">
         <v>739</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>740</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="76" t="s">
-        <v>740</v>
+      <c r="A21" s="80" t="s">
+        <v>741</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="C21" s="80" t="s">
         <v>742</v>
+      </c>
+      <c r="C21" s="84" t="s">
+        <v>743</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="76" t="s">
-        <v>743</v>
+      <c r="A22" s="80" t="s">
+        <v>744</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>735</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>745</v>
+        <v>736</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="76" t="s">
-        <v>746</v>
+      <c r="A23" s="80" t="s">
+        <v>747</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="C23" s="77" t="s">
         <v>748</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>749</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="76" t="s">
-        <v>749</v>
+      <c r="A24" s="80" t="s">
+        <v>750</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>750</v>
-      </c>
-      <c r="C24" s="81" t="s">
         <v>751</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>752</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="82" t="s">
-        <v>752</v>
-      </c>
-      <c r="B25" s="83" t="s">
+      <c r="A25" s="86" t="s">
         <v>753</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="B25" s="87" t="s">
         <v>754</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
+      <c r="C25" s="88" t="s">
+        <v>755</v>
+      </c>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
     </row>
     <row r="26">
-      <c r="A26" s="76" t="s">
-        <v>755</v>
+      <c r="A26" s="80" t="s">
+        <v>756</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="C26" s="77" t="s">
         <v>757</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>758</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
     <row r="27">
-      <c r="A27" s="76" t="s">
-        <v>758</v>
+      <c r="A27" s="80" t="s">
+        <v>759</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="C27" s="77" t="s">
         <v>760</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>761</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
     <row r="28">
-      <c r="A28" s="76" t="s">
-        <v>761</v>
+      <c r="A28" s="80" t="s">
+        <v>762</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="C28" s="77" t="s">
         <v>763</v>
+      </c>
+      <c r="C28" s="81" t="s">
+        <v>764</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
     <row r="29">
-      <c r="A29" s="76" t="s">
-        <v>764</v>
+      <c r="A29" s="80" t="s">
+        <v>765</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>765</v>
-      </c>
-      <c r="C29" s="77" t="s">
         <v>766</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>767</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30">
-      <c r="A30" s="76" t="s">
-        <v>767</v>
+      <c r="A30" s="80" t="s">
+        <v>768</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>768</v>
-      </c>
-      <c r="C30" s="77" t="s">
         <v>769</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>770</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31">
-      <c r="A31" s="76" t="s">
-        <v>770</v>
+      <c r="A31" s="80" t="s">
+        <v>771</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="C31" s="77" t="s">
         <v>772</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>773</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
     <row r="32">
-      <c r="A32" s="76" t="s">
-        <v>773</v>
+      <c r="A32" s="80" t="s">
+        <v>774</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="C32" s="77" t="s">
         <v>775</v>
+      </c>
+      <c r="C32" s="81" t="s">
+        <v>776</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="76" t="s">
-        <v>776</v>
+      <c r="A33" s="80" t="s">
+        <v>777</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>777</v>
-      </c>
-      <c r="C33" s="77" t="s">
         <v>778</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>779</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
     <row r="34">
-      <c r="A34" s="76" t="s">
-        <v>779</v>
+      <c r="A34" s="80" t="s">
+        <v>780</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>780</v>
-      </c>
-      <c r="C34" s="77" t="s">
         <v>781</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>782</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="76" t="s">
-        <v>782</v>
+      <c r="A35" s="80" t="s">
+        <v>783</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="C35" s="77" t="s">
         <v>784</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>785</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="76" t="s">
-        <v>785</v>
+      <c r="A36" s="80" t="s">
+        <v>786</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="C36" s="86" t="s">
         <v>787</v>
+      </c>
+      <c r="C36" s="90" t="s">
+        <v>788</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="76" t="s">
-        <v>788</v>
+      <c r="A37" s="80" t="s">
+        <v>789</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="C37" s="86" t="s">
         <v>790</v>
+      </c>
+      <c r="C37" s="90" t="s">
+        <v>791</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="76" t="s">
-        <v>791</v>
+      <c r="A38" s="80" t="s">
+        <v>792</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="C38" s="86" t="s">
         <v>793</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>794</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="76" t="s">
-        <v>794</v>
+      <c r="A39" s="80" t="s">
+        <v>795</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="C39" s="80" t="s">
-        <v>795</v>
+        <v>688</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>796</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="76" t="s">
-        <v>796</v>
+      <c r="A40" s="80" t="s">
+        <v>797</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>797</v>
-      </c>
-      <c r="C40" s="80" t="s">
         <v>798</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>799</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="76" t="s">
-        <v>799</v>
+      <c r="A41" s="80" t="s">
+        <v>800</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="C41" s="87" t="s">
         <v>801</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>802</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="76" t="s">
-        <v>802</v>
+      <c r="A42" s="80" t="s">
+        <v>803</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="C42" s="88" t="s">
         <v>804</v>
       </c>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
+      <c r="C42" s="92" t="s">
+        <v>805</v>
+      </c>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
     </row>
     <row r="43">
-      <c r="A43" s="76" t="s">
-        <v>805</v>
+      <c r="A43" s="80" t="s">
+        <v>806</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="C43" s="90" t="s">
         <v>807</v>
       </c>
+      <c r="C43" s="94" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="76" t="s">
-        <v>808</v>
+      <c r="A44" s="80" t="s">
+        <v>809</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="C44" s="90" t="s">
         <v>810</v>
       </c>
+      <c r="C44" s="94" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="76" t="s">
-        <v>811</v>
+      <c r="A45" s="80" t="s">
+        <v>812</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="C45" s="91" t="s">
         <v>813</v>
       </c>
+      <c r="C45" s="95" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="76" t="s">
-        <v>814</v>
+      <c r="A46" s="80" t="s">
+        <v>815</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="C46" s="88" t="s">
         <v>816</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
+      <c r="C46" s="92" t="s">
+        <v>817</v>
+      </c>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
     </row>
     <row r="47">
-      <c r="A47" s="76" t="s">
-        <v>817</v>
+      <c r="A47" s="80" t="s">
+        <v>818</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="C47" s="88" t="s">
         <v>819</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
+      <c r="C47" s="92" t="s">
+        <v>820</v>
+      </c>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
     </row>
     <row r="48">
-      <c r="A48" s="76" t="s">
-        <v>820</v>
+      <c r="A48" s="80" t="s">
+        <v>821</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="C48" s="88" t="s">
         <v>822</v>
       </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
+      <c r="C48" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
     </row>
     <row r="49">
-      <c r="A49" s="76" t="s">
-        <v>823</v>
+      <c r="A49" s="80" t="s">
+        <v>824</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="C49" s="91" t="s">
         <v>825</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
+      <c r="C49" s="95" t="s">
+        <v>826</v>
+      </c>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
     </row>
     <row r="50">
-      <c r="A50" s="76" t="s">
-        <v>826</v>
+      <c r="A50" s="80" t="s">
+        <v>827</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="C50" s="91" t="s">
         <v>828</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -8640,10 +8674,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
@@ -8669,12 +8703,12 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -8701,12 +8735,12 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -8759,134 +8793,134 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="97" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>488</v>
+        <v>836</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>489</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="F2" s="70"/>
+        <v>839</v>
+      </c>
+      <c r="F2" s="74"/>
       <c r="H2" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="I2" s="95" t="s">
         <v>840</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="F3" s="70"/>
+        <v>843</v>
+      </c>
+      <c r="F3" s="74"/>
       <c r="H3" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="F4" s="70"/>
+        <v>847</v>
+      </c>
+      <c r="F4" s="74"/>
       <c r="H4" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="F5" s="74"/>
+      <c r="H5" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="H5" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="F6" s="70"/>
+        <v>852</v>
+      </c>
+      <c r="F6" s="74"/>
       <c r="H6" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="F7" s="70"/>
+        <v>854</v>
+      </c>
+      <c r="F7" s="74"/>
       <c r="H7" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -8906,16 +8940,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -8930,13 +8964,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
@@ -8974,13 +9008,13 @@
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -8996,10 +9030,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -9013,10 +9047,10 @@
     <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>865</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -9030,10 +9064,10 @@
     <row r="8">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -9047,10 +9081,10 @@
     <row r="9">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -9076,10 +9110,10 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -9093,10 +9127,10 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="B12" s="96" t="s">
         <v>872</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>873</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -9110,10 +9144,10 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="B13" s="96" t="s">
         <v>874</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>875</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -9140,10 +9174,10 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>875</v>
-      </c>
-      <c r="B15" s="95" t="s">
         <v>876</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>877</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -9157,27 +9191,27 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="B16" s="94" t="s">
+        <v>878</v>
+      </c>
+      <c r="B16" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="B17" s="94" t="s">
         <v>879</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="18">
@@ -9199,46 +9233,46 @@
       <c r="A23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="97" t="s">
-        <v>880</v>
-      </c>
-      <c r="B24" s="98" t="s">
+      <c r="A24" s="101" t="s">
         <v>881</v>
       </c>
+      <c r="B24" s="102" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="97" t="s">
-        <v>882</v>
-      </c>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="101" t="s">
         <v>883</v>
       </c>
+      <c r="B25" s="102" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="97" t="s">
-        <v>884</v>
-      </c>
-      <c r="B26" s="99" t="s">
+      <c r="A26" s="101" t="s">
         <v>885</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
+      <c r="B26" s="103" t="s">
+        <v>886</v>
+      </c>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="11" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="11" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="29">
@@ -9276,66 +9310,66 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>890</v>
-      </c>
-      <c r="C2" s="102" t="s">
         <v>891</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="C3" s="102" t="s">
         <v>893</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C4" s="102" t="s">
         <v>895</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="C5" s="102" t="s">
         <v>897</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>898</v>
-      </c>
-      <c r="D6" s="104"/>
+        <v>844</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>899</v>
+      </c>
+      <c r="D6" s="108"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="C7" s="103" t="s">
         <v>900</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>901</v>
       </c>
     </row>
   </sheetData>

--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="942">
   <si>
     <t>id</t>
   </si>
@@ -2492,7 +2492,7 @@
     <t>Wall of larynx</t>
   </si>
   <si>
-    <t>FMA:64182</t>
+    <t>ILX:0738326</t>
   </si>
   <si>
     <t>BM_43</t>
@@ -2501,7 +2501,7 @@
     <t>Wall of trachea</t>
   </si>
   <si>
-    <t>FMA:7470</t>
+    <t>ILX:0793684</t>
   </si>
   <si>
     <t>BM_44</t>
@@ -2510,7 +2510,7 @@
     <t>Wall of bronchus</t>
   </si>
   <si>
-    <t>FMA:67480</t>
+    <t>ILX:0793764</t>
   </si>
   <si>
     <t>BM_45</t>
@@ -2519,7 +2519,7 @@
     <t>Wall of bronchiole</t>
   </si>
   <si>
-    <t>FMA:74655</t>
+    <t>ILX:0793765</t>
   </si>
   <si>
     <t>BM_46</t>
@@ -2528,7 +2528,7 @@
     <t>Wall of terminal bronchiole</t>
   </si>
   <si>
-    <t>FMA:62792</t>
+    <t>ILX:0775392</t>
   </si>
   <si>
     <t>BM_47</t>
@@ -2796,6 +2796,9 @@
   </si>
   <si>
     <t>Bernard de Bono</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4577-8954</t>
   </si>
   <si>
     <t>Don Bolser</t>
@@ -3002,11 +3005,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF555555"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -3039,6 +3037,10 @@
       <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <b/>
@@ -3127,7 +3129,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3400,13 +3402,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -3422,30 +3424,33 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3796,8 +3801,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="112" t="s">
+        <v>910</v>
+      </c>
       <c r="B5" s="111" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C5" s="111" t="s">
         <v>905</v>
@@ -3808,8 +3816,9 @@
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A3"/>
     <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3827,123 +3836,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="112" t="s">
-        <v>911</v>
-      </c>
-      <c r="B1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>912</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>913</v>
-      </c>
-      <c r="B2" s="113" t="s">
         <v>914</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="31" t="s">
-        <v>915</v>
-      </c>
-      <c r="B3" s="113" t="s">
         <v>916</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
-        <v>917</v>
-      </c>
-      <c r="B4" s="113" t="s">
         <v>918</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
-        <v>919</v>
-      </c>
-      <c r="B5" s="113" t="s">
         <v>920</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>921</v>
-      </c>
-      <c r="B6" s="113" t="s">
         <v>922</v>
+      </c>
+      <c r="B6" s="114" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>923</v>
-      </c>
-      <c r="B7" s="113" t="s">
         <v>924</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>925</v>
-      </c>
-      <c r="B8" s="113" t="s">
         <v>926</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>927</v>
-      </c>
-      <c r="B9" s="113" t="s">
         <v>928</v>
+      </c>
+      <c r="B9" s="114" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="31" t="s">
-        <v>929</v>
-      </c>
-      <c r="B10" s="113" t="s">
         <v>930</v>
+      </c>
+      <c r="B10" s="114" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="31" t="s">
-        <v>931</v>
-      </c>
-      <c r="B11" s="113" t="s">
         <v>932</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="31" t="s">
-        <v>933</v>
-      </c>
-      <c r="B12" s="113" t="s">
         <v>934</v>
+      </c>
+      <c r="B12" s="114" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
-        <v>935</v>
-      </c>
-      <c r="B13" s="113" t="s">
         <v>936</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
-        <v>937</v>
-      </c>
-      <c r="B14" s="113" t="s">
         <v>938</v>
+      </c>
+      <c r="B14" s="114" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="31" t="s">
-        <v>939</v>
-      </c>
-      <c r="B15" s="113" t="s">
         <v>940</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -6404,7 +6413,7 @@
     <col customWidth="1" min="8" max="8" width="5.75"/>
     <col customWidth="1" min="9" max="9" width="6.5"/>
     <col customWidth="1" min="10" max="10" width="6.13"/>
-    <col customWidth="1" min="12" max="12" width="27.38"/>
+    <col customWidth="1" min="12" max="12" width="33.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8559,7 +8568,7 @@
       <c r="B43" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="5" t="s">
         <v>808</v>
       </c>
     </row>
@@ -8570,7 +8579,7 @@
       <c r="B44" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="5" t="s">
         <v>811</v>
       </c>
     </row>
@@ -8581,7 +8590,7 @@
       <c r="B45" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="C45" s="95" t="s">
+      <c r="C45" s="5" t="s">
         <v>814</v>
       </c>
     </row>
@@ -8592,11 +8601,10 @@
       <c r="B46" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="C46" s="92" t="s">
+      <c r="C46" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
+      <c r="E46" s="94"/>
     </row>
     <row r="47">
       <c r="A47" s="80" t="s">
@@ -8605,11 +8613,10 @@
       <c r="B47" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="C47" s="92" t="s">
+      <c r="C47" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+      <c r="E47" s="94"/>
     </row>
     <row r="48">
       <c r="A48" s="80" t="s">
@@ -8618,11 +8625,11 @@
       <c r="B48" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="95" t="s">
         <v>823</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
     </row>
     <row r="49">
       <c r="A49" s="80" t="s">
@@ -8631,11 +8638,11 @@
       <c r="B49" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="C49" s="95" t="s">
+      <c r="C49" s="96" t="s">
         <v>826</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
     </row>
     <row r="50">
       <c r="A50" s="80" t="s">
@@ -8644,7 +8651,7 @@
       <c r="B50" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="C50" s="95" t="s">
+      <c r="C50" s="96" t="s">
         <v>829</v>
       </c>
     </row>

--- a/models/bronchomotor/source/bronchomotor.xlsx
+++ b/models/bronchomotor/source/bronchomotor.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -971,7 +971,7 @@
     <t>B86</t>
   </si>
   <si>
-    <t>ILX:0791105</t>
+    <t>ILX:0739303</t>
   </si>
   <si>
     <t>T2 gray ramus</t>
@@ -2588,7 +2588,7 @@
     <t>ilxtr:neuron-type-bromo-1</t>
   </si>
   <si>
-    <t>PMID: 8300416, PMID: 3198482, PMID: 2384334</t>
+    <t>PMID:8300416, PMID:3198482, PMID:2384334</t>
   </si>
   <si>
     <t>sympathetic pre-ganglionic neuron</t>
@@ -2759,10 +2759,10 @@
     <t>https://pubmed.ncbi.nlm.nih.gov/3198482</t>
   </si>
   <si>
-    <t xml:space="preserve">PMID:18579364 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubmed.ncbi.nlm.nih.gov/18579364 </t>
+    <t>PMID:18579364</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/18579364</t>
   </si>
   <si>
     <t>https://doi.org/10.1016/B978-0-444-53491-0.09985-5</t>
@@ -2898,7 +2898,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3029,6 +3029,12 @@
     </font>
     <font>
       <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -3129,7 +3135,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3237,6 +3243,9 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -3437,11 +3446,14 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3450,11 +3462,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3755,6 +3767,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
@@ -3768,46 +3783,46 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>903</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="112" t="s">
         <v>904</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="113" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="111" t="s">
         <v>906</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="113" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="111" t="s">
         <v>908</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="113" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="114" t="s">
         <v>910</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="113" t="s">
         <v>911</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="113" t="s">
         <v>905</v>
       </c>
     </row>
@@ -3836,10 +3851,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="115" t="s">
         <v>912</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>913</v>
       </c>
     </row>
@@ -3847,7 +3862,7 @@
       <c r="A2" s="31" t="s">
         <v>914</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>915</v>
       </c>
     </row>
@@ -3855,7 +3870,7 @@
       <c r="A3" s="31" t="s">
         <v>916</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="116" t="s">
         <v>917</v>
       </c>
     </row>
@@ -3863,7 +3878,7 @@
       <c r="A4" s="31" t="s">
         <v>918</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="116" t="s">
         <v>919</v>
       </c>
     </row>
@@ -3871,7 +3886,7 @@
       <c r="A5" s="31" t="s">
         <v>920</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="116" t="s">
         <v>921</v>
       </c>
     </row>
@@ -3879,7 +3894,7 @@
       <c r="A6" s="31" t="s">
         <v>922</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="116" t="s">
         <v>923</v>
       </c>
     </row>
@@ -3887,7 +3902,7 @@
       <c r="A7" s="31" t="s">
         <v>924</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="116" t="s">
         <v>925</v>
       </c>
     </row>
@@ -3895,7 +3910,7 @@
       <c r="A8" s="31" t="s">
         <v>926</v>
       </c>
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="116" t="s">
         <v>927</v>
       </c>
     </row>
@@ -3903,7 +3918,7 @@
       <c r="A9" s="31" t="s">
         <v>928</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="116" t="s">
         <v>929</v>
       </c>
     </row>
@@ -3911,7 +3926,7 @@
       <c r="A10" s="31" t="s">
         <v>930</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="116" t="s">
         <v>931</v>
       </c>
     </row>
@@ -3919,7 +3934,7 @@
       <c r="A11" s="31" t="s">
         <v>932</v>
       </c>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="116" t="s">
         <v>933</v>
       </c>
     </row>
@@ -3927,7 +3942,7 @@
       <c r="A12" s="31" t="s">
         <v>934</v>
       </c>
-      <c r="B12" s="114" t="s">
+      <c r="B12" s="116" t="s">
         <v>935</v>
       </c>
     </row>
@@ -3935,7 +3950,7 @@
       <c r="A13" s="31" t="s">
         <v>936</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="116" t="s">
         <v>937</v>
       </c>
     </row>
@@ -3943,7 +3958,7 @@
       <c r="A14" s="31" t="s">
         <v>938</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="116" t="s">
         <v>939</v>
       </c>
     </row>
@@ -3951,7 +3966,7 @@
       <c r="A15" s="31" t="s">
         <v>940</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="116" t="s">
         <v>941</v>
       </c>
     </row>
@@ -5241,7 +5256,7 @@
       <c r="A89" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="37" t="s">
         <v>301</v>
       </c>
       <c r="C89" s="21" t="s">
@@ -5397,7 +5412,7 @@
       <c r="A102" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="38" t="s">
         <v>340</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -5411,7 +5426,7 @@
       <c r="A103" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B103" s="37" t="s">
+      <c r="B103" s="38" t="s">
         <v>344</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -5423,7 +5438,7 @@
       <c r="A104" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="38" t="s">
         <v>347</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -5441,7 +5456,7 @@
       <c r="A105" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B105" s="37" t="s">
+      <c r="B105" s="38" t="s">
         <v>350</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -5449,138 +5464,138 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="C106" s="40" t="s">
+      <c r="C106" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="42" t="s">
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="40" t="s">
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="N106" s="40" t="s">
+      <c r="N106" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="41"/>
-      <c r="R106" s="41"/>
+      <c r="O106" s="42"/>
+      <c r="P106" s="42"/>
+      <c r="Q106" s="42"/>
+      <c r="R106" s="42"/>
     </row>
     <row r="107">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="C107" s="40" t="s">
+      <c r="C107" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="42" t="s">
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="43" t="s">
         <v>361</v>
       </c>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="40" t="s">
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="N107" s="40" t="s">
+      <c r="N107" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
-      <c r="R107" s="41"/>
+      <c r="O107" s="42"/>
+      <c r="P107" s="42"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="42"/>
     </row>
     <row r="108">
-      <c r="A108" s="43" t="s">
+      <c r="A108" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="C108" s="40" t="s">
+      <c r="C108" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="42" t="s">
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="40" t="s">
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="N108" s="40" t="s">
+      <c r="N108" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="41"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="42"/>
+      <c r="Q108" s="42"/>
+      <c r="R108" s="42"/>
     </row>
     <row r="109">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="B109" s="44" t="s">
+      <c r="B109" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="C109" s="40" t="s">
+      <c r="C109" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="42" t="s">
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="40" t="s">
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="N109" s="40" t="s">
+      <c r="N109" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
-      <c r="R109" s="41"/>
+      <c r="O109" s="42"/>
+      <c r="P109" s="42"/>
+      <c r="Q109" s="42"/>
+      <c r="R109" s="42"/>
     </row>
     <row r="110">
       <c r="A110" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="46" t="s">
         <v>374</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -5592,7 +5607,7 @@
       <c r="A111" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="38" t="s">
         <v>377</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -5604,7 +5619,7 @@
       <c r="A112" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="38" t="s">
         <v>380</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -5616,7 +5631,7 @@
       <c r="A113" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B113" s="37" t="s">
+      <c r="B113" s="38" t="s">
         <v>383</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -5628,7 +5643,7 @@
       <c r="A114" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B114" s="37" t="s">
+      <c r="B114" s="38" t="s">
         <v>386</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -5645,7 +5660,7 @@
       <c r="A115" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="B115" s="37" t="s">
+      <c r="B115" s="38" t="s">
         <v>390</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -5663,14 +5678,14 @@
       <c r="A116" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="47" t="s">
         <v>393</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>394</v>
       </c>
       <c r="I116" s="24"/>
-      <c r="M116" s="47" t="s">
+      <c r="M116" s="48" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5678,14 +5693,14 @@
       <c r="A117" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B117" s="46" t="s">
+      <c r="B117" s="47" t="s">
         <v>397</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>398</v>
       </c>
       <c r="I117" s="24"/>
-      <c r="M117" s="47" t="s">
+      <c r="M117" s="48" t="s">
         <v>399</v>
       </c>
     </row>
@@ -5693,14 +5708,14 @@
       <c r="A118" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="47" t="s">
         <v>401</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>402</v>
       </c>
       <c r="I118" s="24"/>
-      <c r="M118" s="47" t="s">
+      <c r="M118" s="48" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5708,14 +5723,14 @@
       <c r="A119" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="47" t="s">
         <v>405</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>406</v>
       </c>
       <c r="I119" s="24"/>
-      <c r="M119" s="47" t="s">
+      <c r="M119" s="48" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5735,10 +5750,10 @@
       <c r="A121" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B121" s="37" t="s">
+      <c r="B121" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="C121" s="48" t="s">
+      <c r="C121" s="49" t="s">
         <v>412</v>
       </c>
       <c r="I121" s="24"/>
@@ -5747,7 +5762,7 @@
       <c r="A122" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="38" t="s">
         <v>414</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -5759,7 +5774,7 @@
       <c r="A123" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="38" t="s">
         <v>417</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -5771,7 +5786,7 @@
       <c r="A124" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="B124" s="37" t="s">
+      <c r="B124" s="38" t="s">
         <v>420</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -5783,7 +5798,7 @@
       <c r="A125" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="38" t="s">
         <v>423</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -5795,7 +5810,7 @@
       <c r="A126" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="B126" s="37" t="s">
+      <c r="B126" s="38" t="s">
         <v>426</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -5807,7 +5822,7 @@
       <c r="A127" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B127" s="37" t="s">
+      <c r="B127" s="38" t="s">
         <v>429</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -5819,7 +5834,7 @@
       <c r="A128" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="B128" s="37" t="s">
+      <c r="B128" s="38" t="s">
         <v>432</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -5831,16 +5846,16 @@
       <c r="A129" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="C129" s="48" t="s">
+      <c r="C129" s="49" t="s">
         <v>412</v>
       </c>
       <c r="I129" s="11"/>
     </row>
     <row r="130">
-      <c r="A130" s="49" t="s">
+      <c r="A130" s="50" t="s">
         <v>435</v>
       </c>
       <c r="B130" s="16" t="s">
@@ -5857,7 +5872,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="50" t="s">
+      <c r="A131" s="51" t="s">
         <v>439</v>
       </c>
       <c r="B131" s="16" t="s">
@@ -5875,17 +5890,17 @@
       <c r="I131" s="11"/>
     </row>
     <row r="132">
-      <c r="A132" s="51" t="s">
+      <c r="A132" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="B132" s="52" t="s">
+      <c r="B132" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="C132" s="53" t="s">
+      <c r="C132" s="54" t="s">
         <v>444</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="54" t="b">
+      <c r="E132" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F132" s="26" t="s">
@@ -5894,28 +5909,28 @@
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
-      <c r="J132" s="53"/>
+      <c r="J132" s="54"/>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
       <c r="M132" s="11"/>
-      <c r="N132" s="55"/>
+      <c r="N132" s="56"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
       <c r="Q132" s="11"/>
-      <c r="R132" s="53"/>
+      <c r="R132" s="54"/>
     </row>
     <row r="133">
-      <c r="A133" s="51" t="s">
+      <c r="A133" s="52" t="s">
         <v>446</v>
       </c>
-      <c r="B133" s="52" t="s">
+      <c r="B133" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="C133" s="53" t="s">
+      <c r="C133" s="54" t="s">
         <v>447</v>
       </c>
       <c r="D133" s="11"/>
-      <c r="E133" s="54" t="b">
+      <c r="E133" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F133" s="26" t="s">
@@ -5924,28 +5939,28 @@
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
-      <c r="J133" s="53"/>
+      <c r="J133" s="54"/>
       <c r="K133" s="11"/>
       <c r="L133" s="11"/>
       <c r="M133" s="11"/>
-      <c r="N133" s="55"/>
+      <c r="N133" s="56"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
       <c r="Q133" s="11"/>
-      <c r="R133" s="53"/>
+      <c r="R133" s="54"/>
     </row>
     <row r="134">
-      <c r="A134" s="51" t="s">
+      <c r="A134" s="52" t="s">
         <v>449</v>
       </c>
-      <c r="B134" s="52" t="s">
+      <c r="B134" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="C134" s="53" t="s">
+      <c r="C134" s="54" t="s">
         <v>451</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="54" t="b">
+      <c r="E134" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F134" s="26" t="s">
@@ -5954,28 +5969,28 @@
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
-      <c r="J134" s="53"/>
+      <c r="J134" s="54"/>
       <c r="K134" s="11"/>
       <c r="L134" s="11"/>
       <c r="M134" s="11"/>
-      <c r="N134" s="55"/>
+      <c r="N134" s="56"/>
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
       <c r="Q134" s="11"/>
-      <c r="R134" s="53"/>
+      <c r="R134" s="54"/>
     </row>
     <row r="135">
-      <c r="A135" s="51" t="s">
+      <c r="A135" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="B135" s="52" t="s">
+      <c r="B135" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="C135" s="53" t="s">
+      <c r="C135" s="54" t="s">
         <v>453</v>
       </c>
       <c r="D135" s="11"/>
-      <c r="E135" s="54" t="b">
+      <c r="E135" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F135" s="26" t="s">
@@ -5984,15 +5999,15 @@
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="11"/>
-      <c r="J135" s="53"/>
+      <c r="J135" s="54"/>
       <c r="K135" s="11"/>
       <c r="L135" s="11"/>
       <c r="M135" s="11"/>
-      <c r="N135" s="55"/>
+      <c r="N135" s="56"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
       <c r="Q135" s="11"/>
-      <c r="R135" s="53"/>
+      <c r="R135" s="54"/>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
@@ -6355,30 +6370,30 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="56">
+      <c r="A155" s="57">
         <v>229.0</v>
       </c>
-      <c r="B155" s="52" t="s">
+      <c r="B155" s="53" t="s">
         <v>436</v>
       </c>
-      <c r="C155" s="53" t="s">
+      <c r="C155" s="54" t="s">
         <v>437</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="57" t="b">
+      <c r="E155" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="F155" s="53"/>
+      <c r="F155" s="54"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
-      <c r="I155" s="58" t="s">
+      <c r="I155" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="J155" s="53"/>
-      <c r="K155" s="58"/>
+      <c r="J155" s="54"/>
+      <c r="K155" s="59"/>
       <c r="L155" s="11"/>
       <c r="M155" s="11"/>
-      <c r="N155" s="55"/>
+      <c r="N155" s="56"/>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
       <c r="Q155" s="11"/>
@@ -6420,10 +6435,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6444,13 +6459,13 @@
       <c r="I1" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="62" t="s">
         <v>486</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="63" t="s">
         <v>488</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -6461,20 +6476,20 @@
       <c r="A2" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="66">
         <v>6.0</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -6485,14 +6500,14 @@
       <c r="A3" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>496</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -6501,10 +6516,10 @@
       <c r="G3" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="66" t="s">
         <v>500</v>
       </c>
     </row>
@@ -6512,22 +6527,22 @@
       <c r="A4" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="66">
         <v>6.0</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="66" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6535,13 +6550,13 @@
       <c r="A5" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -6550,10 +6565,10 @@
       <c r="G5" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="66" t="s">
         <v>507</v>
       </c>
     </row>
@@ -6561,22 +6576,22 @@
       <c r="A6" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="66">
         <v>6.0</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="66" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6584,13 +6599,13 @@
       <c r="A7" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>512</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -6599,10 +6614,10 @@
       <c r="G7" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="66" t="s">
         <v>514</v>
       </c>
     </row>
@@ -6610,22 +6625,22 @@
       <c r="A8" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="66">
         <v>6.0</v>
       </c>
-      <c r="L8" s="65" t="s">
+      <c r="L8" s="66" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6633,13 +6648,13 @@
       <c r="A9" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -6648,10 +6663,10 @@
       <c r="G9" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L9" s="65" t="s">
+      <c r="L9" s="66" t="s">
         <v>521</v>
       </c>
     </row>
@@ -6659,22 +6674,22 @@
       <c r="A10" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="K10" s="65">
+      <c r="K10" s="66">
         <v>6.0</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="66" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6682,13 +6697,13 @@
       <c r="A11" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -6697,10 +6712,10 @@
       <c r="G11" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="66" t="s">
         <v>528</v>
       </c>
     </row>
@@ -6708,19 +6723,19 @@
       <c r="A12" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="K12" s="65">
+      <c r="K12" s="66">
         <v>6.0</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -6731,13 +6746,13 @@
       <c r="A13" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -6746,10 +6761,10 @@
       <c r="G13" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="66" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6757,22 +6772,22 @@
       <c r="A14" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K14" s="65">
+      <c r="K14" s="66">
         <v>6.0</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="66" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6780,13 +6795,13 @@
       <c r="A15" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -6795,10 +6810,10 @@
       <c r="G15" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="66" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6806,22 +6821,22 @@
       <c r="A16" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="66">
         <v>6.0</v>
       </c>
-      <c r="L16" s="65" t="s">
+      <c r="L16" s="66" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6829,13 +6844,13 @@
       <c r="A17" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -6844,10 +6859,10 @@
       <c r="G17" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="66" t="s">
         <v>549</v>
       </c>
     </row>
@@ -6855,22 +6870,22 @@
       <c r="A18" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="K18" s="65">
+      <c r="K18" s="66">
         <v>6.0</v>
       </c>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="66" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6878,13 +6893,13 @@
       <c r="A19" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="38" t="s">
         <v>554</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -6893,10 +6908,10 @@
       <c r="G19" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="K19" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L19" s="65" t="s">
+      <c r="L19" s="66" t="s">
         <v>556</v>
       </c>
     </row>
@@ -6904,22 +6919,22 @@
       <c r="A20" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="K20" s="65">
+      <c r="K20" s="66">
         <v>6.0</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6927,13 +6942,13 @@
       <c r="A21" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -6942,153 +6957,153 @@
       <c r="G21" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="66" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="67" t="s">
         <v>564</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="68" t="s">
         <v>565</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="69" t="s">
         <v>492</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="67" t="s">
         <v>566</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="66">
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="67">
         <v>6.0</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="L22" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="69"/>
+      <c r="M22" s="70"/>
     </row>
     <row r="23">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>567</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="68" t="s">
         <v>568</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="69" t="s">
         <v>496</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70" t="s">
+      <c r="D23" s="70"/>
+      <c r="E23" s="71" t="s">
         <v>446</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="67" t="s">
         <v>569</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="66" t="s">
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="L23" s="66" t="s">
+      <c r="L23" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="M23" s="69"/>
+      <c r="M23" s="70"/>
     </row>
     <row r="24">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="67" t="s">
         <v>571</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="68" t="s">
         <v>572</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="69" t="s">
         <v>492</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="67" t="s">
         <v>573</v>
       </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66">
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67">
         <v>6.0</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="L24" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="69"/>
+      <c r="M24" s="70"/>
     </row>
     <row r="25">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="67" t="s">
         <v>574</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="69" t="s">
         <v>496</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="71" t="s">
         <v>446</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="67" t="s">
         <v>576</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="66" t="s">
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="67" t="s">
         <v>577</v>
       </c>
-      <c r="M25" s="69"/>
+      <c r="M25" s="70"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>579</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="K26" s="65">
+      <c r="K26" s="66">
         <v>6.0</v>
       </c>
-      <c r="L26" s="65" t="s">
+      <c r="L26" s="66" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7096,13 +7111,13 @@
       <c r="A27" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -7111,10 +7126,10 @@
       <c r="G27" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K27" s="65" t="s">
+      <c r="K27" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L27" s="65" t="s">
+      <c r="L27" s="66" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7122,22 +7137,22 @@
       <c r="A28" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="K28" s="65">
+      <c r="K28" s="66">
         <v>6.0</v>
       </c>
-      <c r="L28" s="65" t="s">
+      <c r="L28" s="66" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7145,13 +7160,13 @@
       <c r="A29" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="52" t="s">
         <v>446</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -7160,10 +7175,10 @@
       <c r="G29" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K29" s="65" t="s">
+      <c r="K29" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="L29" s="65" t="s">
+      <c r="L29" s="66" t="s">
         <v>591</v>
       </c>
     </row>
@@ -7171,13 +7186,13 @@
       <c r="A30" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="52" t="s">
         <v>442</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -7186,208 +7201,208 @@
       <c r="G30" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="L30" s="71" t="s">
+      <c r="L30" s="72" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="40" t="s">
         <v>598</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="73" t="s">
+      <c r="D31" s="42"/>
+      <c r="E31" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="40">
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="41">
         <v>0.0</v>
       </c>
-      <c r="L31" s="40" t="s">
+      <c r="L31" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M31" s="41"/>
+      <c r="M31" s="42"/>
     </row>
     <row r="32">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="41" t="s">
         <v>600</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="40" t="s">
         <v>601</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="73" t="s">
+      <c r="D32" s="42"/>
+      <c r="E32" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="66" t="s">
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="67" t="s">
         <v>604</v>
       </c>
-      <c r="L32" s="40" t="s">
+      <c r="L32" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="M32" s="41"/>
+      <c r="M32" s="42"/>
     </row>
     <row r="33">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="41" t="s">
         <v>606</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="40" t="s">
         <v>607</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="73" t="s">
+      <c r="D33" s="42"/>
+      <c r="E33" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="41" t="s">
         <v>608</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="66" t="s">
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="L33" s="40" t="s">
+      <c r="L33" s="41" t="s">
         <v>609</v>
       </c>
-      <c r="M33" s="41"/>
+      <c r="M33" s="42"/>
     </row>
     <row r="34">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="41" t="s">
         <v>610</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="40" t="s">
         <v>611</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="73" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="F34" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="41" t="s">
         <v>612</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="66" t="s">
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="L34" s="40" t="s">
+      <c r="L34" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="M34" s="41"/>
+      <c r="M34" s="42"/>
     </row>
     <row r="35">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="41" t="s">
         <v>614</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="40" t="s">
         <v>615</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="73" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="G35" s="40" t="s">
+      <c r="G35" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="66" t="s">
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="L35" s="40" t="s">
+      <c r="L35" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="M35" s="41"/>
+      <c r="M35" s="42"/>
     </row>
     <row r="36">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="40" t="s">
         <v>619</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="73" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="G36" s="40" t="s">
+      <c r="G36" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="66" t="s">
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="L36" s="40" t="s">
+      <c r="L36" s="41" t="s">
         <v>621</v>
       </c>
-      <c r="M36" s="41"/>
+      <c r="M36" s="42"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="38" t="s">
         <v>623</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -7404,13 +7419,13 @@
       <c r="A38" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="38" t="s">
         <v>626</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="52" t="s">
         <v>442</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -7419,7 +7434,7 @@
       <c r="G38" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="K38" s="66" t="s">
+      <c r="K38" s="67" t="s">
         <v>629</v>
       </c>
       <c r="L38" s="5" t="s">
@@ -7427,76 +7442,76 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="41" t="s">
         <v>631</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="40" t="s">
         <v>632</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="73" t="s">
+      <c r="D39" s="42"/>
+      <c r="E39" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="41" t="s">
         <v>633</v>
       </c>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="40">
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="41">
         <v>0.0</v>
       </c>
-      <c r="L39" s="40" t="s">
+      <c r="L39" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="M39" s="41"/>
+      <c r="M39" s="42"/>
     </row>
     <row r="40">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="41" t="s">
         <v>634</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="40" t="s">
         <v>635</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="73" t="s">
+      <c r="D40" s="42"/>
+      <c r="E40" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="F40" s="40" t="s">
+      <c r="F40" s="41" t="s">
         <v>636</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G40" s="41" t="s">
         <v>637</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="66" t="s">
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="67" t="s">
         <v>629</v>
       </c>
-      <c r="L40" s="40" t="s">
+      <c r="L40" s="41" t="s">
         <v>638</v>
       </c>
-      <c r="M40" s="41"/>
+      <c r="M40" s="42"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="38" t="s">
         <v>640</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="52" t="s">
         <v>449</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -7513,13 +7528,13 @@
       <c r="A42" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="38" t="s">
         <v>643</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="64" t="s">
         <v>496</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="52" t="s">
         <v>442</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -7528,7 +7543,7 @@
       <c r="G42" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="K42" s="66" t="s">
+      <c r="K42" s="67" t="s">
         <v>629</v>
       </c>
       <c r="L42" s="5" t="s">
@@ -7536,79 +7551,79 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="41" t="s">
         <v>647</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="40" t="s">
         <v>648</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="73" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="F43" s="40" t="s">
+      <c r="F43" s="41" t="s">
         <v>649</v>
       </c>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="40">
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="41">
         <v>0.0</v>
       </c>
-      <c r="L43" s="40" t="s">
+      <c r="L43" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="M43" s="41"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="41" t="s">
         <v>650</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="40" t="s">
         <v>651</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="73" t="s">
+      <c r="D44" s="42"/>
+      <c r="E44" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="41" t="s">
         <v>652</v>
       </c>
-      <c r="G44" s="40" t="s">
+      <c r="G44" s="41" t="s">
         <v>653</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="66" t="s">
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="67" t="s">
         <v>629</v>
       </c>
-      <c r="L44" s="40" t="s">
+      <c r="L44" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="M44" s="41"/>
+      <c r="M44" s="42"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="38" t="s">
         <v>656</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D45" s="75" t="s">
         <v>658</v>
       </c>
-      <c r="E45" s="50"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="5" t="s">
         <v>659</v>
       </c>
@@ -7656,10 +7671,10 @@
       <c r="E1" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="61" t="s">
         <v>489</v>
       </c>
     </row>
@@ -8009,245 +8024,245 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="80" t="s">
         <v>683</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="78" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="81" t="s">
         <v>684</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="82" t="s">
         <v>686</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>687</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>689</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>690</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="82" t="s">
         <v>692</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>693</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="82" t="s">
         <v>695</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>696</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="82" t="s">
         <v>698</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>699</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="82" t="s">
         <v>701</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>702</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>703</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="82" t="s">
         <v>704</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>705</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="82" t="s">
         <v>707</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>708</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="82" t="s">
         <v>710</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>711</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="82" t="s">
         <v>713</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>714</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="82" t="s">
         <v>716</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="81" t="s">
         <v>717</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="82" t="s">
         <v>719</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
         <v>720</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="82" t="s">
         <v>722</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="81" t="s">
         <v>723</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="82" t="s">
         <v>725</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="81" t="s">
         <v>726</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="82" t="s">
         <v>728</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="81" t="s">
         <v>729</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="82" t="s">
         <v>698</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="81" t="s">
         <v>731</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="82" t="s">
         <v>733</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="81" t="s">
         <v>734</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -8256,39 +8271,39 @@
       <c r="C19" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="D19" s="83" t="s">
+      <c r="D19" s="84" t="s">
         <v>737</v>
       </c>
       <c r="E19" s="17"/>
     </row>
     <row r="20">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="81" t="s">
         <v>738</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="85" t="s">
         <v>740</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="81" t="s">
         <v>741</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="85" t="s">
         <v>743</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="81" t="s">
         <v>744</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -8297,272 +8312,272 @@
       <c r="C22" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="85" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="81" t="s">
         <v>747</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>748</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="82" t="s">
         <v>749</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
     </row>
     <row r="24">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="81" t="s">
         <v>750</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>751</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="86" t="s">
         <v>752</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="87" t="s">
         <v>753</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="88" t="s">
         <v>754</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="89" t="s">
         <v>755</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
     </row>
     <row r="26">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="81" t="s">
         <v>756</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>757</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="82" t="s">
         <v>758</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
     <row r="27">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="81" t="s">
         <v>759</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="82" t="s">
         <v>761</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
     <row r="28">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="81" t="s">
         <v>762</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="C28" s="81" t="s">
+      <c r="C28" s="82" t="s">
         <v>764</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
     <row r="29">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="81" t="s">
         <v>765</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="82" t="s">
         <v>767</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="81" t="s">
         <v>768</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="82" t="s">
         <v>770</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="81" t="s">
         <v>771</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="C31" s="81" t="s">
+      <c r="C31" s="82" t="s">
         <v>773</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
     <row r="32">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="81" t="s">
         <v>774</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="82" t="s">
         <v>776</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="81" t="s">
         <v>777</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>778</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="82" t="s">
         <v>779</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
     <row r="34">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="81" t="s">
         <v>780</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="82" t="s">
         <v>782</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
     <row r="35">
-      <c r="A35" s="80" t="s">
+      <c r="A35" s="81" t="s">
         <v>783</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="82" t="s">
         <v>785</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
     <row r="36">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="81" t="s">
         <v>786</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="91" t="s">
         <v>788</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="81" t="s">
         <v>789</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="91" t="s">
         <v>791</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="80" t="s">
+      <c r="A38" s="81" t="s">
         <v>792</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="91" t="s">
         <v>794</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="80" t="s">
+      <c r="A39" s="81" t="s">
         <v>795</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="85" t="s">
         <v>796</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="81" t="s">
         <v>797</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="C40" s="84" t="s">
+      <c r="C40" s="85" t="s">
         <v>799</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="81" t="s">
         <v>800</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="92" t="s">
         <v>802</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="81" t="s">
         <v>803</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="93" t="s">
         <v>805</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
     </row>
     <row r="43">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="81" t="s">
         <v>806</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -8573,7 +8588,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="81" t="s">
         <v>809</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -8584,7 +8599,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="81" t="s">
         <v>812</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -8595,7 +8610,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="81" t="s">
         <v>815</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -8604,10 +8619,10 @@
       <c r="C46" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="E46" s="94"/>
+      <c r="E46" s="95"/>
     </row>
     <row r="47">
-      <c r="A47" s="80" t="s">
+      <c r="A47" s="81" t="s">
         <v>818</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -8616,42 +8631,42 @@
       <c r="C47" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="E47" s="94"/>
+      <c r="E47" s="95"/>
     </row>
     <row r="48">
-      <c r="A48" s="80" t="s">
+      <c r="A48" s="81" t="s">
         <v>821</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="C48" s="95" t="s">
+      <c r="C48" s="96" t="s">
         <v>823</v>
       </c>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
     </row>
     <row r="49">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="81" t="s">
         <v>824</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>825</v>
       </c>
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="97" t="s">
         <v>826</v>
       </c>
-      <c r="D49" s="94"/>
-      <c r="E49" s="94"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
     </row>
     <row r="50">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="81" t="s">
         <v>827</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="C50" s="96" t="s">
+      <c r="C50" s="97" t="s">
         <v>829</v>
       </c>
     </row>
@@ -8677,7 +8692,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -8794,28 +8809,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="63" t="s">
         <v>481</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="63" t="s">
         <v>834</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="63" t="s">
         <v>835</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="99" t="s">
         <v>489</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -8832,11 +8847,11 @@
       <c r="C2" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="75"/>
       <c r="H2" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="100" t="s">
         <v>841</v>
       </c>
     </row>
@@ -8850,7 +8865,7 @@
       <c r="C3" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="75"/>
       <c r="H3" s="5" t="s">
         <v>844</v>
       </c>
@@ -8868,7 +8883,7 @@
       <c r="C4" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="F4" s="74"/>
+      <c r="F4" s="75"/>
       <c r="H4" s="5" t="s">
         <v>844</v>
       </c>
@@ -8886,7 +8901,7 @@
       <c r="C5" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="75"/>
       <c r="H5" s="5" t="s">
         <v>844</v>
       </c>
@@ -8904,7 +8919,7 @@
       <c r="C6" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="75"/>
       <c r="H6" s="5" t="s">
         <v>844</v>
       </c>
@@ -8922,7 +8937,7 @@
       <c r="C7" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="75"/>
       <c r="H7" s="5" t="s">
         <v>844</v>
       </c>
@@ -9136,7 +9151,7 @@
       <c r="A12" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="101" t="s">
         <v>873</v>
       </c>
       <c r="C12" s="11"/>
@@ -9153,7 +9168,7 @@
       <c r="A13" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="101" t="s">
         <v>875</v>
       </c>
       <c r="C13" s="11"/>
@@ -9183,7 +9198,7 @@
       <c r="A15" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="100" t="s">
         <v>877</v>
       </c>
       <c r="C15" s="11"/>
@@ -9200,24 +9215,24 @@
       <c r="A16" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="99" t="s">
         <v>880</v>
       </c>
     </row>
@@ -9240,37 +9255,37 @@
       <c r="A23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="102" t="s">
         <v>881</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="103" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="102" t="s">
         <v>883</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="102" t="s">
         <v>885</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="104" t="s">
         <v>886</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="11" t="s">
@@ -9317,7 +9332,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -9334,7 +9349,7 @@
       <c r="A2" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="107" t="s">
         <v>892</v>
       </c>
     </row>
@@ -9342,7 +9357,7 @@
       <c r="A3" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="107" t="s">
         <v>894</v>
       </c>
     </row>
@@ -9350,7 +9365,7 @@
       <c r="A4" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="107" t="s">
         <v>896</v>
       </c>
     </row>
@@ -9358,7 +9373,7 @@
       <c r="A5" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="108" t="s">
         <v>898</v>
       </c>
     </row>
@@ -9366,20 +9381,23 @@
       <c r="A6" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="109" t="s">
         <v>899</v>
       </c>
-      <c r="D6" s="108"/>
+      <c r="D6" s="110"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="109" t="s">
         <v>901</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C5"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>